--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_5_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_5_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2639087.599627768</v>
+        <v>2670140.129619936</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7878299.421256287</v>
+        <v>9268121.066567235</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7671471.86188043</v>
+        <v>7447864.03564797</v>
       </c>
     </row>
     <row r="11">
@@ -1740,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>-1.504230340287904e-12</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>-1.699223162177077e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3041,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-2.562762801971985e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-1.169956931335036e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>-1.603898476901693e-12</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>1.603898476901693e-12</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -5331,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.519424586149398e-12</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.519424586149398e-12</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -5388,19 +5390,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.519424586149398e-12</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1.519424586149398e-12</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1.519424586149398e-12</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1.519424586149398e-12</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.519424586149398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -6689,13 +6691,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.588649294921197e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.588649294921197e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.588649294921197e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -7646,43 +7648,43 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.620099471617872e-12</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1.620099471617872e-12</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1.620099471617872e-12</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.620099471617872e-12</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.620099471617872e-12</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1.620099471617872e-12</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.620099471617872e-12</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.620099471617872e-12</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>1.620099471617872e-12</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.620099471617872e-12</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.620099471617872e-12</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.620099471617872e-12</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>1.620099471617872e-12</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -23255,76 +23257,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>272.7965938623613</v>
+        <v>168.6305821736482</v>
       </c>
       <c r="C11" t="n">
-        <v>237.0947544693726</v>
+        <v>132.9287427806595</v>
       </c>
       <c r="D11" t="n">
-        <v>221.2677236695395</v>
+        <v>117.1017119808265</v>
       </c>
       <c r="E11" t="n">
-        <v>266.8656883933627</v>
+        <v>162.6996767046497</v>
       </c>
       <c r="F11" t="n">
-        <v>311.0575626677206</v>
+        <v>206.8915509790075</v>
       </c>
       <c r="G11" t="n">
-        <v>382.3059815597677</v>
+        <v>235.1427496368175</v>
       </c>
       <c r="H11" t="n">
-        <v>269.9262640127516</v>
+        <v>164.5666925768761</v>
       </c>
       <c r="I11" t="n">
-        <v>190.7106900152074</v>
+        <v>82.05160256401611</v>
       </c>
       <c r="J11" t="n">
-        <v>149.6006091008002</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>55.55657211819475</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>28.89153182920352</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.483108561454785</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>130.7601436734049</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.89381015020244</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>243.3067662398352</v>
+        <v>46.44683639615485</v>
       </c>
       <c r="S11" t="n">
-        <v>163.7020261343623</v>
+        <v>56.88026024196657</v>
       </c>
       <c r="T11" t="n">
-        <v>218.9062337784199</v>
+        <v>28.85700962735419</v>
       </c>
       <c r="U11" t="n">
-        <v>162.533550984761</v>
+        <v>58.35821574865151</v>
       </c>
       <c r="V11" t="n">
-        <v>222.8551425572665</v>
+        <v>118.6891308685534</v>
       </c>
       <c r="W11" t="n">
-        <v>231.639222035615</v>
+        <v>127.473210346902</v>
       </c>
       <c r="X11" t="n">
-        <v>256.0955997577028</v>
+        <v>151.9295880689897</v>
       </c>
       <c r="Y11" t="n">
-        <v>375.0096112764976</v>
+        <v>185.4705599845266</v>
       </c>
     </row>
     <row r="12">
@@ -23334,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>110.1865950346731</v>
+        <v>6.020583345960034</v>
       </c>
       <c r="C12" t="n">
-        <v>129.4083359079277</v>
+        <v>25.24232421921459</v>
       </c>
       <c r="D12" t="n">
-        <v>95.38807571120988</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>112.5632095578213</v>
+        <v>8.397197869108197</v>
       </c>
       <c r="F12" t="n">
-        <v>98.77068053599088</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>84.06659431201236</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>62.38189898737163</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>44.96607334909199</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>34.61593841658107</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,31 +23381,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.73786604387628</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>94.75964664690518</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>137.4172862313011</v>
+        <v>32.09302580710824</v>
       </c>
       <c r="T12" t="n">
-        <v>155.6723935414647</v>
+        <v>51.25504050968051</v>
       </c>
       <c r="U12" t="n">
-        <v>172.6134969534942</v>
+        <v>68.44338284895298</v>
       </c>
       <c r="V12" t="n">
-        <v>169.7239502904202</v>
+        <v>65.55793860170715</v>
       </c>
       <c r="W12" t="n">
-        <v>208.9628538306503</v>
+        <v>104.7968421419372</v>
       </c>
       <c r="X12" t="n">
-        <v>153.1838354752</v>
+        <v>49.01782378648693</v>
       </c>
       <c r="Y12" t="n">
-        <v>170.5982651420045</v>
+        <v>66.43225345329148</v>
       </c>
     </row>
     <row r="13">
@@ -23413,76 +23415,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.1661578600169</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>79.63048568100776</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>53.49009600727935</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>47.54438487756069</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>41.59867374784206</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>84.38848152687835</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>84.88704427203128</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.39349089860274</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>66.96424138348983</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>35.48515932375632</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>20.19604574310252</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>20.58656720028391</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>5.169630443310865</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>31.59996234574055</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>46.00616025799921</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.82967323061867</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>155.1143820690669</v>
+        <v>48.597771297603</v>
       </c>
       <c r="S13" t="n">
-        <v>166.8050834824415</v>
+        <v>61.72801266683133</v>
       </c>
       <c r="T13" t="n">
-        <v>129.6353366495291</v>
+        <v>25.24595626512402</v>
       </c>
       <c r="U13" t="n">
-        <v>207.5732792196029</v>
+        <v>103.4044160156256</v>
       </c>
       <c r="V13" t="n">
-        <v>146.7969101427914</v>
+        <v>42.63089845407839</v>
       </c>
       <c r="W13" t="n">
-        <v>211.9104949627204</v>
+        <v>107.7444832740073</v>
       </c>
       <c r="X13" t="n">
-        <v>129.5690022039764</v>
+        <v>25.40299051526335</v>
       </c>
       <c r="Y13" t="n">
-        <v>129.1111008570006</v>
+        <v>24.94508916828755</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>153.0802827580987</v>
+        <v>168.6305821736482</v>
       </c>
       <c r="C14" t="n">
-        <v>117.3784433651099</v>
+        <v>132.9287427806595</v>
       </c>
       <c r="D14" t="n">
-        <v>101.5514125652769</v>
+        <v>117.1017119808264</v>
       </c>
       <c r="E14" t="n">
-        <v>147.1493772891001</v>
+        <v>162.6996767046496</v>
       </c>
       <c r="F14" t="n">
-        <v>191.3412515634579</v>
+        <v>206.8915509790075</v>
       </c>
       <c r="G14" t="n">
-        <v>219.7089945637225</v>
+        <v>235.1427496368175</v>
       </c>
       <c r="H14" t="n">
-        <v>150.209952908489</v>
+        <v>164.5666925768761</v>
       </c>
       <c r="I14" t="n">
-        <v>70.99437891094482</v>
+        <v>82.05160256401608</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>38.2174155323147</v>
+        <v>46.44683639615482</v>
       </c>
       <c r="S14" t="n">
-        <v>43.98571503009964</v>
+        <v>56.88026024196655</v>
       </c>
       <c r="T14" t="n">
-        <v>13.81688307089937</v>
+        <v>28.85700962735416</v>
       </c>
       <c r="U14" t="n">
-        <v>42.81723988049833</v>
+        <v>58.35821574865148</v>
       </c>
       <c r="V14" t="n">
-        <v>103.1388314530039</v>
+        <v>118.6891308685534</v>
       </c>
       <c r="W14" t="n">
-        <v>111.9229109313524</v>
+        <v>127.4732103469019</v>
       </c>
       <c r="X14" t="n">
-        <v>136.3792886534402</v>
+        <v>151.9295880689897</v>
       </c>
       <c r="Y14" t="n">
-        <v>169.9202605689771</v>
+        <v>185.4705599845266</v>
       </c>
     </row>
     <row r="15">
@@ -23571,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>6.020583345960006</v>
       </c>
       <c r="C15" t="n">
-        <v>9.692024803665049</v>
+        <v>25.24232421921457</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>8.397197869108169</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23622,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>17.70097512703856</v>
+        <v>32.09302580710821</v>
       </c>
       <c r="T15" t="n">
-        <v>35.95608243720204</v>
+        <v>51.25504050968048</v>
       </c>
       <c r="U15" t="n">
-        <v>52.89718584923307</v>
+        <v>68.44338284895295</v>
       </c>
       <c r="V15" t="n">
-        <v>50.0076391861576</v>
+        <v>65.55793860170712</v>
       </c>
       <c r="W15" t="n">
-        <v>89.24654272638764</v>
+        <v>104.7968421419372</v>
       </c>
       <c r="X15" t="n">
-        <v>33.46752437093738</v>
+        <v>49.0178237864869</v>
       </c>
       <c r="Y15" t="n">
-        <v>50.88195403774193</v>
+        <v>66.43225345329145</v>
       </c>
     </row>
     <row r="16">
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.3980709648043</v>
+        <v>48.59777129760297</v>
       </c>
       <c r="S16" t="n">
-        <v>47.08877237817896</v>
+        <v>61.7280126668313</v>
       </c>
       <c r="T16" t="n">
-        <v>9.919025545266521</v>
+        <v>25.24595626512399</v>
       </c>
       <c r="U16" t="n">
-        <v>87.85696811534024</v>
+        <v>103.4044160156256</v>
       </c>
       <c r="V16" t="n">
-        <v>27.08059903852885</v>
+        <v>42.63089845407836</v>
       </c>
       <c r="W16" t="n">
-        <v>92.19418385845779</v>
+        <v>107.7444832740073</v>
       </c>
       <c r="X16" t="n">
-        <v>9.852691099713809</v>
+        <v>25.40299051526333</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.394789752738006</v>
+        <v>24.94508916828752</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>153.0802827580987</v>
+        <v>168.6305821736482</v>
       </c>
       <c r="C17" t="n">
-        <v>117.3784433651099</v>
+        <v>132.9287427806595</v>
       </c>
       <c r="D17" t="n">
-        <v>101.5514125652769</v>
+        <v>117.1017119808265</v>
       </c>
       <c r="E17" t="n">
-        <v>147.1493772891001</v>
+        <v>162.6996767046497</v>
       </c>
       <c r="F17" t="n">
-        <v>191.3412515634579</v>
+        <v>206.8915509790075</v>
       </c>
       <c r="G17" t="n">
-        <v>219.7089945637225</v>
+        <v>235.1427496368175</v>
       </c>
       <c r="H17" t="n">
-        <v>150.209952908489</v>
+        <v>164.5666925768761</v>
       </c>
       <c r="I17" t="n">
-        <v>70.99437891094482</v>
+        <v>82.05160256401611</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>38.2174155323147</v>
+        <v>46.44683639615485</v>
       </c>
       <c r="S17" t="n">
-        <v>43.98571503009964</v>
+        <v>56.88026024196657</v>
       </c>
       <c r="T17" t="n">
-        <v>13.81688307089937</v>
+        <v>28.85700962735419</v>
       </c>
       <c r="U17" t="n">
-        <v>42.81723988049833</v>
+        <v>58.35821574865151</v>
       </c>
       <c r="V17" t="n">
-        <v>103.1388314530039</v>
+        <v>118.6891308685534</v>
       </c>
       <c r="W17" t="n">
-        <v>111.9229109313524</v>
+        <v>127.473210346902</v>
       </c>
       <c r="X17" t="n">
-        <v>136.3792886534402</v>
+        <v>151.9295880689897</v>
       </c>
       <c r="Y17" t="n">
-        <v>169.9202605689771</v>
+        <v>185.4705599845266</v>
       </c>
     </row>
     <row r="18">
@@ -23808,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>6.020583345960034</v>
       </c>
       <c r="C18" t="n">
-        <v>9.692024803665049</v>
+        <v>25.24232421921459</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>8.397197869108197</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23859,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>17.70097512703856</v>
+        <v>32.09302580710824</v>
       </c>
       <c r="T18" t="n">
-        <v>35.95608243720204</v>
+        <v>51.25504050968051</v>
       </c>
       <c r="U18" t="n">
-        <v>52.89718584923156</v>
+        <v>68.44338284895298</v>
       </c>
       <c r="V18" t="n">
-        <v>50.0076391861576</v>
+        <v>65.55793860170715</v>
       </c>
       <c r="W18" t="n">
-        <v>89.24654272638764</v>
+        <v>104.7968421419372</v>
       </c>
       <c r="X18" t="n">
-        <v>33.46752437093738</v>
+        <v>49.01782378648693</v>
       </c>
       <c r="Y18" t="n">
-        <v>50.88195403774193</v>
+        <v>66.43225345329148</v>
       </c>
     </row>
     <row r="19">
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>35.3980709648043</v>
+        <v>48.597771297603</v>
       </c>
       <c r="S19" t="n">
-        <v>47.08877237817896</v>
+        <v>61.72801266683133</v>
       </c>
       <c r="T19" t="n">
-        <v>9.919025545266521</v>
+        <v>25.24595626512402</v>
       </c>
       <c r="U19" t="n">
-        <v>87.85696811534024</v>
+        <v>103.4044160156256</v>
       </c>
       <c r="V19" t="n">
-        <v>27.08059903852885</v>
+        <v>42.63089845407839</v>
       </c>
       <c r="W19" t="n">
-        <v>92.19418385845779</v>
+        <v>107.7444832739979</v>
       </c>
       <c r="X19" t="n">
-        <v>9.852691099713809</v>
+        <v>25.40299051526335</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.394789752738006</v>
+        <v>24.94508916828755</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>153.0802827580987</v>
+        <v>168.6305821736482</v>
       </c>
       <c r="C20" t="n">
-        <v>117.3784433651099</v>
+        <v>132.9287427806595</v>
       </c>
       <c r="D20" t="n">
-        <v>101.5514125652769</v>
+        <v>117.1017119808265</v>
       </c>
       <c r="E20" t="n">
-        <v>147.1493772891001</v>
+        <v>162.6996767046497</v>
       </c>
       <c r="F20" t="n">
-        <v>191.3412515634579</v>
+        <v>206.8915509790075</v>
       </c>
       <c r="G20" t="n">
-        <v>219.7089945637225</v>
+        <v>235.1427496368175</v>
       </c>
       <c r="H20" t="n">
-        <v>150.209952908489</v>
+        <v>164.5666925768761</v>
       </c>
       <c r="I20" t="n">
-        <v>70.99437891094482</v>
+        <v>82.05160256401611</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>38.2174155323147</v>
+        <v>46.44683639615485</v>
       </c>
       <c r="S20" t="n">
-        <v>43.98571503009964</v>
+        <v>56.88026024196657</v>
       </c>
       <c r="T20" t="n">
-        <v>13.81688307089937</v>
+        <v>28.85700962735419</v>
       </c>
       <c r="U20" t="n">
-        <v>42.81723988049833</v>
+        <v>58.35821574865151</v>
       </c>
       <c r="V20" t="n">
-        <v>103.1388314530039</v>
+        <v>118.6891308685534</v>
       </c>
       <c r="W20" t="n">
-        <v>111.9229109313524</v>
+        <v>127.473210346902</v>
       </c>
       <c r="X20" t="n">
-        <v>136.3792886534402</v>
+        <v>151.9295880689897</v>
       </c>
       <c r="Y20" t="n">
-        <v>169.9202605689771</v>
+        <v>185.4705599845266</v>
       </c>
     </row>
     <row r="21">
@@ -24045,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>6.020583345960034</v>
       </c>
       <c r="C21" t="n">
-        <v>9.692024803665049</v>
+        <v>25.24232421921459</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>8.397197869108197</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24096,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>17.70097512703856</v>
+        <v>32.09302580710824</v>
       </c>
       <c r="T21" t="n">
-        <v>35.95608243720204</v>
+        <v>51.25504050968051</v>
       </c>
       <c r="U21" t="n">
-        <v>52.89718584923156</v>
+        <v>68.44338284895298</v>
       </c>
       <c r="V21" t="n">
-        <v>50.0076391861576</v>
+        <v>65.55793860170715</v>
       </c>
       <c r="W21" t="n">
-        <v>89.24654272638764</v>
+        <v>104.7968421419372</v>
       </c>
       <c r="X21" t="n">
-        <v>33.46752437093738</v>
+        <v>49.01782378648693</v>
       </c>
       <c r="Y21" t="n">
-        <v>50.88195403774193</v>
+        <v>66.43225345329148</v>
       </c>
     </row>
     <row r="22">
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>35.3980709648043</v>
+        <v>48.597771297603</v>
       </c>
       <c r="S22" t="n">
-        <v>47.08877237817896</v>
+        <v>61.72801266683133</v>
       </c>
       <c r="T22" t="n">
-        <v>9.919025545266521</v>
+        <v>25.24595626512402</v>
       </c>
       <c r="U22" t="n">
-        <v>87.85696811534024</v>
+        <v>103.4044160156256</v>
       </c>
       <c r="V22" t="n">
-        <v>27.08059903852885</v>
+        <v>42.63089845407839</v>
       </c>
       <c r="W22" t="n">
-        <v>92.19418385845779</v>
+        <v>107.7444832740073</v>
       </c>
       <c r="X22" t="n">
-        <v>9.852691099713809</v>
+        <v>25.40299051526335</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.394789752739706</v>
+        <v>24.94508916828755</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>153.0802827580987</v>
+        <v>168.6305821736482</v>
       </c>
       <c r="C23" t="n">
-        <v>117.3784433651099</v>
+        <v>132.9287427806595</v>
       </c>
       <c r="D23" t="n">
-        <v>101.5514125652769</v>
+        <v>117.1017119808265</v>
       </c>
       <c r="E23" t="n">
-        <v>147.1493772891001</v>
+        <v>162.6996767046497</v>
       </c>
       <c r="F23" t="n">
-        <v>191.3412515634579</v>
+        <v>206.8915509790075</v>
       </c>
       <c r="G23" t="n">
-        <v>219.7089945637225</v>
+        <v>235.1427496368175</v>
       </c>
       <c r="H23" t="n">
-        <v>150.209952908489</v>
+        <v>164.5666925768761</v>
       </c>
       <c r="I23" t="n">
-        <v>70.99437891094482</v>
+        <v>82.05160256401611</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>38.2174155323147</v>
+        <v>46.44683639615485</v>
       </c>
       <c r="S23" t="n">
-        <v>43.98571503009964</v>
+        <v>56.88026024196657</v>
       </c>
       <c r="T23" t="n">
-        <v>13.81688307089937</v>
+        <v>28.85700962735419</v>
       </c>
       <c r="U23" t="n">
-        <v>42.81723988049833</v>
+        <v>58.35821574865151</v>
       </c>
       <c r="V23" t="n">
-        <v>103.1388314530039</v>
+        <v>118.6891308685534</v>
       </c>
       <c r="W23" t="n">
-        <v>111.9229109313524</v>
+        <v>127.473210346902</v>
       </c>
       <c r="X23" t="n">
-        <v>136.3792886534402</v>
+        <v>151.9295880689897</v>
       </c>
       <c r="Y23" t="n">
-        <v>169.9202605689771</v>
+        <v>185.4705599845266</v>
       </c>
     </row>
     <row r="24">
@@ -24282,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>6.020583345960034</v>
       </c>
       <c r="C24" t="n">
-        <v>9.692024803665049</v>
+        <v>25.24232421921459</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>8.397197869108197</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24333,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>17.70097512703856</v>
+        <v>32.09302580710824</v>
       </c>
       <c r="T24" t="n">
-        <v>35.95608243720204</v>
+        <v>51.25504050968051</v>
       </c>
       <c r="U24" t="n">
-        <v>52.89718584923156</v>
+        <v>68.44338284895298</v>
       </c>
       <c r="V24" t="n">
-        <v>50.0076391861576</v>
+        <v>65.55793860170715</v>
       </c>
       <c r="W24" t="n">
-        <v>89.24654272638764</v>
+        <v>104.7968421419372</v>
       </c>
       <c r="X24" t="n">
-        <v>33.46752437093738</v>
+        <v>49.01782378648693</v>
       </c>
       <c r="Y24" t="n">
-        <v>50.88195403774193</v>
+        <v>66.43225345329148</v>
       </c>
     </row>
     <row r="25">
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>35.3980709648043</v>
+        <v>48.597771297603</v>
       </c>
       <c r="S25" t="n">
-        <v>47.08877237817896</v>
+        <v>61.72801266683133</v>
       </c>
       <c r="T25" t="n">
-        <v>9.919025545266521</v>
+        <v>25.24595626512402</v>
       </c>
       <c r="U25" t="n">
-        <v>87.85696811534024</v>
+        <v>103.4044160156256</v>
       </c>
       <c r="V25" t="n">
-        <v>27.08059903852885</v>
+        <v>42.63089845407839</v>
       </c>
       <c r="W25" t="n">
-        <v>92.19418385845779</v>
+        <v>107.7444832740073</v>
       </c>
       <c r="X25" t="n">
-        <v>9.852691099713809</v>
+        <v>25.40299051526335</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.394789752738006</v>
+        <v>24.94508916828755</v>
       </c>
     </row>
     <row r="26">
@@ -24440,40 +24442,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>238.4533223613566</v>
+        <v>191.1965653899517</v>
       </c>
       <c r="C26" t="n">
-        <v>202.7514829683678</v>
+        <v>155.494725996963</v>
       </c>
       <c r="D26" t="n">
-        <v>186.9244521685348</v>
+        <v>139.6676951971299</v>
       </c>
       <c r="E26" t="n">
-        <v>232.522416892358</v>
+        <v>185.2656599209532</v>
       </c>
       <c r="F26" t="n">
-        <v>276.7142911667158</v>
+        <v>229.457534195311</v>
       </c>
       <c r="G26" t="n">
-        <v>305.0820341669804</v>
+        <v>257.708732853121</v>
       </c>
       <c r="H26" t="n">
-        <v>235.5829925117469</v>
+        <v>187.1326757931796</v>
       </c>
       <c r="I26" t="n">
-        <v>156.3674185142027</v>
+        <v>104.6175857803196</v>
       </c>
       <c r="J26" t="n">
-        <v>29.88429799653763</v>
+        <v>138.5361013220425</v>
       </c>
       <c r="K26" t="n">
-        <v>21.21330061719006</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>75.15868967310212</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -24482,34 +24484,34 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>11.04383256914225</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>57.55053864919775</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>123.5904551355726</v>
+        <v>69.01281961245834</v>
       </c>
       <c r="S26" t="n">
-        <v>129.3587546333575</v>
+        <v>79.44624345827006</v>
       </c>
       <c r="T26" t="n">
-        <v>99.18992267415727</v>
+        <v>51.42299284365768</v>
       </c>
       <c r="U26" t="n">
-        <v>128.1902794837562</v>
+        <v>80.92419896495501</v>
       </c>
       <c r="V26" t="n">
-        <v>188.5118710562618</v>
+        <v>141.2551140848569</v>
       </c>
       <c r="W26" t="n">
-        <v>197.2959505346103</v>
+        <v>150.0391935632055</v>
       </c>
       <c r="X26" t="n">
-        <v>221.7523282566981</v>
+        <v>174.4955712852932</v>
       </c>
       <c r="Y26" t="n">
-        <v>255.293300172235</v>
+        <v>208.0365432008301</v>
       </c>
     </row>
     <row r="27">
@@ -24519,31 +24521,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>75.8433235336684</v>
+        <v>28.58656656226353</v>
       </c>
       <c r="C27" t="n">
-        <v>95.06506440692296</v>
+        <v>47.80830743551809</v>
       </c>
       <c r="D27" t="n">
-        <v>61.04480421020519</v>
+        <v>13.78804723880032</v>
       </c>
       <c r="E27" t="n">
-        <v>78.21993805681656</v>
+        <v>30.96318108541169</v>
       </c>
       <c r="F27" t="n">
-        <v>64.42740903498618</v>
+        <v>17.17065206358131</v>
       </c>
       <c r="G27" t="n">
-        <v>49.72332281100766</v>
+        <v>2.404209119014983</v>
       </c>
       <c r="H27" t="n">
-        <v>28.03862748636693</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>130.3391129523499</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2726669155763801</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24558,37 +24560,37 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>43.64096701700123</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>111.1109056471342</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>180.1326862501631</v>
+        <v>176.2610996859475</v>
       </c>
       <c r="S27" t="n">
-        <v>103.0740147302965</v>
+        <v>54.65900902341173</v>
       </c>
       <c r="T27" t="n">
-        <v>241.0454331447226</v>
+        <v>73.82102372598399</v>
       </c>
       <c r="U27" t="n">
-        <v>238.5668363163917</v>
+        <v>91.00936606525647</v>
       </c>
       <c r="V27" t="n">
-        <v>135.3806787894155</v>
+        <v>88.12392181801064</v>
       </c>
       <c r="W27" t="n">
-        <v>294.3358934339082</v>
+        <v>127.3628253582407</v>
       </c>
       <c r="X27" t="n">
-        <v>238.5568750784579</v>
+        <v>71.58380700279042</v>
       </c>
       <c r="Y27" t="n">
-        <v>255.9713047452624</v>
+        <v>88.99823666959497</v>
       </c>
     </row>
     <row r="28">
@@ -24598,34 +24600,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.8228863590122</v>
+        <v>6.566129387607333</v>
       </c>
       <c r="C28" t="n">
-        <v>45.28721418000306</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>19.14682450627465</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>13.20111337655599</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>7.255402246837363</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>50.04521002587366</v>
+        <v>2.736175274625962</v>
       </c>
       <c r="H28" t="n">
-        <v>50.54377277102658</v>
+        <v>2.822218811564642</v>
       </c>
       <c r="I28" t="n">
-        <v>55.05021939759804</v>
+        <v>6.22132701055633</v>
       </c>
       <c r="J28" t="n">
-        <v>32.62096988248514</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.141887822751627</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24640,34 +24642,34 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>11.66288875699452</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>62.48640172961397</v>
+        <v>10.85209357518886</v>
       </c>
       <c r="R28" t="n">
-        <v>120.7711105680622</v>
+        <v>71.1637545139065</v>
       </c>
       <c r="S28" t="n">
-        <v>132.4618119814369</v>
+        <v>84.29399588313483</v>
       </c>
       <c r="T28" t="n">
-        <v>95.29206514852443</v>
+        <v>47.81193948142752</v>
       </c>
       <c r="U28" t="n">
-        <v>173.2300077185981</v>
+        <v>125.9703992319291</v>
       </c>
       <c r="V28" t="n">
-        <v>112.4536386417868</v>
+        <v>65.19688167038188</v>
       </c>
       <c r="W28" t="n">
-        <v>177.5672234617157</v>
+        <v>130.3104664903108</v>
       </c>
       <c r="X28" t="n">
-        <v>95.22573070297172</v>
+        <v>47.96897373156685</v>
       </c>
       <c r="Y28" t="n">
-        <v>94.76782935599591</v>
+        <v>47.51107238459105</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>153.0802827580987</v>
+        <v>191.1965653899518</v>
       </c>
       <c r="C29" t="n">
-        <v>117.3784433651099</v>
+        <v>155.494725996963</v>
       </c>
       <c r="D29" t="n">
-        <v>101.5514125652769</v>
+        <v>139.66769519713</v>
       </c>
       <c r="E29" t="n">
-        <v>147.1493772891001</v>
+        <v>185.2656599209532</v>
       </c>
       <c r="F29" t="n">
-        <v>191.3412515634579</v>
+        <v>229.457534195311</v>
       </c>
       <c r="G29" t="n">
-        <v>219.7089945637225</v>
+        <v>257.7087328531211</v>
       </c>
       <c r="H29" t="n">
-        <v>150.209952908489</v>
+        <v>187.1326757931797</v>
       </c>
       <c r="I29" t="n">
-        <v>70.99437891094479</v>
+        <v>256.8632172184518</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>38.21741553231467</v>
+        <v>69.01281961245837</v>
       </c>
       <c r="S29" t="n">
-        <v>43.98571503009961</v>
+        <v>79.44624345827009</v>
       </c>
       <c r="T29" t="n">
-        <v>13.81688307089934</v>
+        <v>51.42299284365771</v>
       </c>
       <c r="U29" t="n">
-        <v>42.81723988049831</v>
+        <v>80.92419896495504</v>
       </c>
       <c r="V29" t="n">
-        <v>103.1388314530039</v>
+        <v>141.255114084857</v>
       </c>
       <c r="W29" t="n">
-        <v>111.9229109313524</v>
+        <v>150.0391935632055</v>
       </c>
       <c r="X29" t="n">
-        <v>136.3792886534402</v>
+        <v>174.4955712852933</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.9202605689771</v>
+        <v>208.0365432008302</v>
       </c>
     </row>
     <row r="30">
@@ -24756,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>28.58656656226356</v>
       </c>
       <c r="C30" t="n">
-        <v>9.692024803665021</v>
+        <v>47.80830743551812</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>13.78804723880035</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>30.96318108541172</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>17.17065206358134</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2.404209119015011</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.288031610280086</v>
       </c>
       <c r="S30" t="n">
-        <v>17.70097512703853</v>
+        <v>54.65900902341176</v>
       </c>
       <c r="T30" t="n">
-        <v>35.95608243720201</v>
+        <v>73.82102372598402</v>
       </c>
       <c r="U30" t="n">
-        <v>52.89718584923153</v>
+        <v>91.0093660652565</v>
       </c>
       <c r="V30" t="n">
-        <v>50.00763918615758</v>
+        <v>88.12392181801067</v>
       </c>
       <c r="W30" t="n">
-        <v>89.24654272638762</v>
+        <v>127.3628253582407</v>
       </c>
       <c r="X30" t="n">
-        <v>33.46752437093735</v>
+        <v>71.58380700279045</v>
       </c>
       <c r="Y30" t="n">
-        <v>50.88195403774191</v>
+        <v>88.998236669595</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>6.566129387607361</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2.736175274625991</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.822218811564671</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>6.221327010556358</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24871,7 +24873,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -24880,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>177.8251616508563</v>
       </c>
       <c r="R31" t="n">
-        <v>35.39807096480428</v>
+        <v>71.16375451390653</v>
       </c>
       <c r="S31" t="n">
-        <v>47.08877237817893</v>
+        <v>84.29399588313485</v>
       </c>
       <c r="T31" t="n">
-        <v>9.919025545266493</v>
+        <v>47.81193948142754</v>
       </c>
       <c r="U31" t="n">
-        <v>87.85696811534021</v>
+        <v>125.9703992319292</v>
       </c>
       <c r="V31" t="n">
-        <v>27.08059903852882</v>
+        <v>65.19688167038191</v>
       </c>
       <c r="W31" t="n">
-        <v>92.19418385845776</v>
+        <v>130.3104664903109</v>
       </c>
       <c r="X31" t="n">
-        <v>9.85269109971378</v>
+        <v>47.96897373156688</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.394789752737978</v>
+        <v>47.51107238459107</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>153.0802827580987</v>
+        <v>191.1965653899517</v>
       </c>
       <c r="C32" t="n">
-        <v>117.37844336511</v>
+        <v>155.494725996963</v>
       </c>
       <c r="D32" t="n">
-        <v>101.551412565277</v>
+        <v>139.6676951971299</v>
       </c>
       <c r="E32" t="n">
-        <v>147.1493772891002</v>
+        <v>185.2656599209532</v>
       </c>
       <c r="F32" t="n">
-        <v>191.341251563458</v>
+        <v>229.457534195311</v>
       </c>
       <c r="G32" t="n">
-        <v>219.7089945637251</v>
+        <v>257.708732853121</v>
       </c>
       <c r="H32" t="n">
-        <v>150.2099529084891</v>
+        <v>187.1326757931796</v>
       </c>
       <c r="I32" t="n">
-        <v>70.99437891094487</v>
+        <v>104.6175857803196</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>38.21741553231476</v>
+        <v>69.01281961245834</v>
       </c>
       <c r="S32" t="n">
-        <v>43.9857150300997</v>
+        <v>79.44624345827006</v>
       </c>
       <c r="T32" t="n">
-        <v>13.81688307089942</v>
+        <v>51.42299284365768</v>
       </c>
       <c r="U32" t="n">
-        <v>42.81723988049839</v>
+        <v>80.92419896495501</v>
       </c>
       <c r="V32" t="n">
-        <v>103.1388314530039</v>
+        <v>141.2551140848569</v>
       </c>
       <c r="W32" t="n">
-        <v>111.9229109313525</v>
+        <v>150.0391935632055</v>
       </c>
       <c r="X32" t="n">
-        <v>136.3792886534403</v>
+        <v>174.4955712852932</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.9202605689771</v>
+        <v>208.0365432008301</v>
       </c>
     </row>
     <row r="33">
@@ -24993,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>28.58656656226353</v>
       </c>
       <c r="C33" t="n">
-        <v>9.692024803665106</v>
+        <v>47.80830743551809</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>13.78804723880032</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>30.96318108541169</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>17.17065206358131</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2.404209119014983</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.288031610280058</v>
       </c>
       <c r="S33" t="n">
-        <v>17.70097512703862</v>
+        <v>54.65900902341173</v>
       </c>
       <c r="T33" t="n">
-        <v>35.9560824372021</v>
+        <v>73.82102372598399</v>
       </c>
       <c r="U33" t="n">
-        <v>52.89718584923162</v>
+        <v>91.00936606525647</v>
       </c>
       <c r="V33" t="n">
-        <v>50.00763918615766</v>
+        <v>88.12392181801064</v>
       </c>
       <c r="W33" t="n">
-        <v>89.2465427263877</v>
+        <v>127.3628253582407</v>
       </c>
       <c r="X33" t="n">
-        <v>33.46752437093744</v>
+        <v>71.58380700279042</v>
       </c>
       <c r="Y33" t="n">
-        <v>50.88195403774199</v>
+        <v>88.99823666959497</v>
       </c>
     </row>
     <row r="34">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>6.566129387607333</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2.736175274625962</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2.822218811564642</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6.22132701055633</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25108,40 +25110,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>177.8251616508563</v>
       </c>
       <c r="R34" t="n">
-        <v>35.39807096480436</v>
+        <v>238.136822589574</v>
       </c>
       <c r="S34" t="n">
-        <v>47.08877237817902</v>
+        <v>251.2670639588023</v>
       </c>
       <c r="T34" t="n">
-        <v>9.919025545266578</v>
+        <v>93.75737425102109</v>
       </c>
       <c r="U34" t="n">
-        <v>87.85696811534029</v>
+        <v>125.9703992319291</v>
       </c>
       <c r="V34" t="n">
-        <v>27.0805990385289</v>
+        <v>65.19688167038188</v>
       </c>
       <c r="W34" t="n">
-        <v>92.19418385845785</v>
+        <v>130.3104664903108</v>
       </c>
       <c r="X34" t="n">
-        <v>9.852691099713866</v>
+        <v>47.96897373156685</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.394789752738063</v>
+        <v>47.51107238459105</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>153.0802827580987</v>
+        <v>191.1965653899517</v>
       </c>
       <c r="C35" t="n">
-        <v>117.37844336511</v>
+        <v>155.494725996963</v>
       </c>
       <c r="D35" t="n">
-        <v>101.5514125652769</v>
+        <v>139.6676951971299</v>
       </c>
       <c r="E35" t="n">
-        <v>147.1493772891002</v>
+        <v>185.2656599209532</v>
       </c>
       <c r="F35" t="n">
-        <v>191.341251563458</v>
+        <v>229.457534195311</v>
       </c>
       <c r="G35" t="n">
-        <v>219.7089945637225</v>
+        <v>257.708732853121</v>
       </c>
       <c r="H35" t="n">
-        <v>150.209952908489</v>
+        <v>187.1326757931796</v>
       </c>
       <c r="I35" t="n">
-        <v>70.99437891094485</v>
+        <v>104.6175857803196</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>38.21741553231473</v>
+        <v>69.01281961245834</v>
       </c>
       <c r="S35" t="n">
-        <v>43.98571503009967</v>
+        <v>79.44624345827006</v>
       </c>
       <c r="T35" t="n">
-        <v>13.81688307089939</v>
+        <v>51.42299284365768</v>
       </c>
       <c r="U35" t="n">
-        <v>42.81723988049836</v>
+        <v>80.92419896495501</v>
       </c>
       <c r="V35" t="n">
-        <v>103.1388314530039</v>
+        <v>141.2551140848569</v>
       </c>
       <c r="W35" t="n">
-        <v>111.9229109313524</v>
+        <v>150.0391935632055</v>
       </c>
       <c r="X35" t="n">
-        <v>136.3792886534402</v>
+        <v>174.4955712852932</v>
       </c>
       <c r="Y35" t="n">
-        <v>169.9202605689771</v>
+        <v>208.0365432008301</v>
       </c>
     </row>
     <row r="36">
@@ -25230,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>28.58656656226353</v>
       </c>
       <c r="C36" t="n">
-        <v>9.692024803665078</v>
+        <v>47.80830743551809</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>13.78804723880032</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>30.96318108541169</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>17.17065206358131</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2.404209119014983</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>71.05581126421109</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.288031610280058</v>
       </c>
       <c r="S36" t="n">
-        <v>17.70097512703859</v>
+        <v>54.65900902341173</v>
       </c>
       <c r="T36" t="n">
-        <v>35.95608243720207</v>
+        <v>73.82102372598399</v>
       </c>
       <c r="U36" t="n">
-        <v>52.89718584923159</v>
+        <v>91.00936606525647</v>
       </c>
       <c r="V36" t="n">
-        <v>50.00763918615763</v>
+        <v>88.12392181801064</v>
       </c>
       <c r="W36" t="n">
-        <v>89.24654272638767</v>
+        <v>127.3628253582407</v>
       </c>
       <c r="X36" t="n">
-        <v>33.46752437093741</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y36" t="n">
-        <v>50.88195403774196</v>
+        <v>88.99823666959497</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>6.566129387607333</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2.736175274625962</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>169.7952868872321</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>6.22132701055633</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25354,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>10.85209357518886</v>
       </c>
       <c r="R37" t="n">
-        <v>35.39807096480433</v>
+        <v>71.1637545139065</v>
       </c>
       <c r="S37" t="n">
-        <v>47.08877237817899</v>
+        <v>251.2670639588023</v>
       </c>
       <c r="T37" t="n">
-        <v>9.91902554526655</v>
+        <v>47.81193948142752</v>
       </c>
       <c r="U37" t="n">
-        <v>87.85696811534027</v>
+        <v>125.9703992319291</v>
       </c>
       <c r="V37" t="n">
-        <v>27.08059903852887</v>
+        <v>65.19688167038188</v>
       </c>
       <c r="W37" t="n">
-        <v>92.19418385845782</v>
+        <v>130.3104664903108</v>
       </c>
       <c r="X37" t="n">
-        <v>9.852691099713837</v>
+        <v>47.96897373156685</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.394789752738035</v>
+        <v>47.51107238459105</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>153.0802827580987</v>
+        <v>191.1965653899517</v>
       </c>
       <c r="C38" t="n">
-        <v>117.37844336511</v>
+        <v>155.494725996963</v>
       </c>
       <c r="D38" t="n">
-        <v>101.5514125652769</v>
+        <v>139.6676951971299</v>
       </c>
       <c r="E38" t="n">
-        <v>147.1493772891002</v>
+        <v>185.2656599209532</v>
       </c>
       <c r="F38" t="n">
-        <v>191.341251563458</v>
+        <v>229.457534195311</v>
       </c>
       <c r="G38" t="n">
-        <v>219.7089945637225</v>
+        <v>257.708732853121</v>
       </c>
       <c r="H38" t="n">
-        <v>150.209952908489</v>
+        <v>354.1057438688471</v>
       </c>
       <c r="I38" t="n">
-        <v>70.99437891094485</v>
+        <v>104.6175857803196</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>38.2174155323159</v>
+        <v>69.01281961245834</v>
       </c>
       <c r="S38" t="n">
-        <v>43.98571503009967</v>
+        <v>79.44624345827006</v>
       </c>
       <c r="T38" t="n">
-        <v>13.81688307089939</v>
+        <v>51.42299284365768</v>
       </c>
       <c r="U38" t="n">
-        <v>42.81723988049836</v>
+        <v>80.92419896495501</v>
       </c>
       <c r="V38" t="n">
-        <v>103.1388314530039</v>
+        <v>141.2551140848569</v>
       </c>
       <c r="W38" t="n">
-        <v>111.9229109313524</v>
+        <v>150.0391935632055</v>
       </c>
       <c r="X38" t="n">
-        <v>136.3792886534402</v>
+        <v>174.4955712852932</v>
       </c>
       <c r="Y38" t="n">
-        <v>169.9202605689771</v>
+        <v>208.0365432008301</v>
       </c>
     </row>
     <row r="39">
@@ -25467,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>28.58656656226353</v>
       </c>
       <c r="C39" t="n">
-        <v>9.692024803665078</v>
+        <v>47.80830743551809</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>13.78804723880032</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>30.96318108541169</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>17.17065206358131</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2.404209119014983</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.288031610280058</v>
       </c>
       <c r="S39" t="n">
-        <v>17.70097512703859</v>
+        <v>54.65900902341173</v>
       </c>
       <c r="T39" t="n">
-        <v>35.95608243720207</v>
+        <v>73.82102372598399</v>
       </c>
       <c r="U39" t="n">
-        <v>52.89718584923159</v>
+        <v>91.00936606525647</v>
       </c>
       <c r="V39" t="n">
-        <v>50.00763918615763</v>
+        <v>201.7106089128162</v>
       </c>
       <c r="W39" t="n">
-        <v>89.24654272638767</v>
+        <v>127.3628253582407</v>
       </c>
       <c r="X39" t="n">
-        <v>33.46752437093741</v>
+        <v>71.58380700279042</v>
       </c>
       <c r="Y39" t="n">
-        <v>50.88195403774196</v>
+        <v>88.99823666959497</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>6.566129387607333</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2.736175274625962</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2.822218811564642</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>6.22132701055633</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25591,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>10.85209357518886</v>
       </c>
       <c r="R40" t="n">
-        <v>35.39807096480433</v>
+        <v>71.1637545139065</v>
       </c>
       <c r="S40" t="n">
-        <v>47.08877237817899</v>
+        <v>84.29399588313483</v>
       </c>
       <c r="T40" t="n">
-        <v>9.91902554526655</v>
+        <v>47.81193948142752</v>
       </c>
       <c r="U40" t="n">
-        <v>87.85696811534027</v>
+        <v>125.9703992319291</v>
       </c>
       <c r="V40" t="n">
-        <v>27.08059903852887</v>
+        <v>65.19688167038188</v>
       </c>
       <c r="W40" t="n">
-        <v>92.19418385845782</v>
+        <v>130.3104664903108</v>
       </c>
       <c r="X40" t="n">
-        <v>9.852691099713837</v>
+        <v>47.96897373156685</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.394789752738035</v>
+        <v>47.51107238459105</v>
       </c>
     </row>
     <row r="41">
@@ -25625,76 +25627,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>153.0802827580987</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C41" t="n">
-        <v>117.37844336511</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D41" t="n">
-        <v>101.5514125652769</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E41" t="n">
-        <v>147.1493772891002</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F41" t="n">
-        <v>191.341251563458</v>
+        <v>396.4306022709785</v>
       </c>
       <c r="G41" t="n">
-        <v>219.7089945637225</v>
+        <v>424.6818009287885</v>
       </c>
       <c r="H41" t="n">
-        <v>150.209952908489</v>
+        <v>354.1057438688471</v>
       </c>
       <c r="I41" t="n">
-        <v>70.99437891094485</v>
+        <v>271.5906538559871</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>139.7090537154</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>126.1047343199522</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>164.6813718922237</v>
       </c>
       <c r="R41" t="n">
-        <v>38.21741553231473</v>
+        <v>235.9858876881258</v>
       </c>
       <c r="S41" t="n">
-        <v>43.98571503009967</v>
+        <v>246.4193115339375</v>
       </c>
       <c r="T41" t="n">
-        <v>13.81688307089939</v>
+        <v>218.3960609193252</v>
       </c>
       <c r="U41" t="n">
-        <v>42.81723988049836</v>
+        <v>247.8972670406225</v>
       </c>
       <c r="V41" t="n">
-        <v>103.1388314530039</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W41" t="n">
-        <v>111.9229109313524</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X41" t="n">
-        <v>136.3792886534402</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y41" t="n">
-        <v>169.9202605689771</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="42">
@@ -25704,37 +25706,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C42" t="n">
-        <v>9.692024803665078</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>169.3772771946824</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -25746,34 +25748,34 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>176.2610996859475</v>
       </c>
       <c r="S42" t="n">
-        <v>17.70097512703859</v>
+        <v>221.6320770990792</v>
       </c>
       <c r="T42" t="n">
-        <v>35.95608243720207</v>
+        <v>240.7940918016515</v>
       </c>
       <c r="U42" t="n">
-        <v>52.89718584923159</v>
+        <v>257.9824341409239</v>
       </c>
       <c r="V42" t="n">
-        <v>50.00763918615763</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W42" t="n">
-        <v>89.24654272638767</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X42" t="n">
-        <v>33.46752437093741</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y42" t="n">
-        <v>50.88195403774196</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="43">
@@ -25783,76 +25785,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>169.7092433502934</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>169.7952868872321</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>173.1943950862238</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>177.8251616508563</v>
       </c>
       <c r="R43" t="n">
-        <v>35.39807096480433</v>
+        <v>238.136822589574</v>
       </c>
       <c r="S43" t="n">
-        <v>47.08877237817899</v>
+        <v>251.2670639588023</v>
       </c>
       <c r="T43" t="n">
-        <v>9.91902554526655</v>
+        <v>214.785007557095</v>
       </c>
       <c r="U43" t="n">
-        <v>87.85696811534027</v>
+        <v>292.9434673075966</v>
       </c>
       <c r="V43" t="n">
-        <v>27.08059903852887</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W43" t="n">
-        <v>92.19418385845782</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X43" t="n">
-        <v>9.852691099719124</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.394789752738035</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="44">
@@ -25862,64 +25864,64 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>358.1696334656193</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C44" t="n">
         <v>322.4677940726305</v>
       </c>
       <c r="D44" t="n">
-        <v>306.6407632727975</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E44" t="n">
-        <v>352.2387279966207</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F44" t="n">
         <v>396.4306022709785</v>
       </c>
       <c r="G44" t="n">
-        <v>424.798345271243</v>
+        <v>424.6818009287885</v>
       </c>
       <c r="H44" t="n">
-        <v>355.2993036160095</v>
+        <v>354.1057438688471</v>
       </c>
       <c r="I44" t="n">
-        <v>276.0837296184653</v>
+        <v>271.5906538559871</v>
       </c>
       <c r="J44" t="n">
-        <v>149.6006091008018</v>
+        <v>139.7090537154</v>
       </c>
       <c r="K44" t="n">
-        <v>140.9296117214527</v>
+        <v>126.1047343199522</v>
       </c>
       <c r="L44" t="n">
-        <v>114.2645714324614</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M44" t="n">
-        <v>75.15868967310212</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N44" t="n">
-        <v>68.80166552921241</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O44" t="n">
-        <v>86.85614816471269</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P44" t="n">
-        <v>130.7601436734049</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q44" t="n">
-        <v>177.2668497534603</v>
+        <v>164.6813718922237</v>
       </c>
       <c r="R44" t="n">
-        <v>243.3067662398352</v>
+        <v>235.9858876881258</v>
       </c>
       <c r="S44" t="n">
-        <v>249.0750657376202</v>
+        <v>246.4193115339375</v>
       </c>
       <c r="T44" t="n">
-        <v>218.9062337784199</v>
+        <v>218.3960609193252</v>
       </c>
       <c r="U44" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8972670406225</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
@@ -25928,10 +25930,10 @@
         <v>317.0122616388729</v>
       </c>
       <c r="X44" t="n">
-        <v>341.4686393609608</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y44" t="n">
-        <v>375.0096112764977</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="45">
@@ -25956,22 +25958,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>169.4396339152703</v>
+        <v>169.3772771946824</v>
       </c>
       <c r="H45" t="n">
-        <v>147.7549385906295</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I45" t="n">
-        <v>130.3391129523499</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J45" t="n">
-        <v>119.988978019839</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K45" t="n">
-        <v>76.79584047590225</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L45" t="n">
-        <v>27.22701059689192</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -25980,25 +25982,25 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>43.64096701700123</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q45" t="n">
-        <v>111.1109056471342</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R45" t="n">
-        <v>180.1326862501631</v>
+        <v>176.2610996859475</v>
       </c>
       <c r="S45" t="n">
-        <v>222.7903258345591</v>
+        <v>221.6320770990792</v>
       </c>
       <c r="T45" t="n">
-        <v>241.0454331447226</v>
+        <v>240.7940918016515</v>
       </c>
       <c r="U45" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9824341409239</v>
       </c>
       <c r="V45" t="n">
         <v>255.0969898936781</v>
@@ -26035,49 +26037,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G46" t="n">
-        <v>169.7615211301363</v>
+        <v>169.7092433502934</v>
       </c>
       <c r="H46" t="n">
-        <v>170.2600838752892</v>
+        <v>169.7952868872321</v>
       </c>
       <c r="I46" t="n">
-        <v>174.7665305018606</v>
+        <v>173.1943950862238</v>
       </c>
       <c r="J46" t="n">
-        <v>152.3372809867477</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K46" t="n">
-        <v>120.8581989270142</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L46" t="n">
-        <v>105.5690853463604</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M46" t="n">
-        <v>105.9596068035418</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N46" t="n">
-        <v>90.54267004656877</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O46" t="n">
-        <v>116.9730019489985</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P46" t="n">
-        <v>131.3791998612571</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q46" t="n">
-        <v>182.2027128338766</v>
+        <v>177.8251616508563</v>
       </c>
       <c r="R46" t="n">
-        <v>240.4874216723248</v>
+        <v>238.136822589574</v>
       </c>
       <c r="S46" t="n">
-        <v>252.1781230856995</v>
+        <v>251.2670639588023</v>
       </c>
       <c r="T46" t="n">
-        <v>215.008376252787</v>
+        <v>214.785007557095</v>
       </c>
       <c r="U46" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9434673075966</v>
       </c>
       <c r="V46" t="n">
         <v>232.1699497460494</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>410228.9336923982</v>
+        <v>664620.4421790096</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>687089.6634045599</v>
+        <v>664620.4421790097</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>687089.6634045599</v>
+        <v>664620.4421790098</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>687089.6634045598</v>
+        <v>664620.4421790096</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>687089.6634045599</v>
+        <v>664620.4421790096</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>489652.5570964816</v>
+        <v>612433.4467536573</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>687089.6634045601</v>
+        <v>612433.4467536573</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>687089.6634045597</v>
+        <v>612433.4467536575</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>687089.6634045598</v>
+        <v>612433.4467536574</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>687089.6634045598</v>
+        <v>612433.4467536573</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>687089.6634045598</v>
+        <v>226284.8505991459</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>212791.8273843197</v>
+        <v>226284.8505991459</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>922216.8957884863</v>
+        <v>922216.8957884862</v>
       </c>
       <c r="C2" t="n">
+        <v>922216.8957884862</v>
+      </c>
+      <c r="D2" t="n">
         <v>922216.8957884861</v>
       </c>
-      <c r="D2" t="n">
-        <v>922216.8957884862</v>
-      </c>
       <c r="E2" t="n">
-        <v>459953.6529278402</v>
+        <v>745180.4957764653</v>
       </c>
       <c r="F2" t="n">
-        <v>770373.2589687483</v>
+        <v>745180.4957764654</v>
       </c>
       <c r="G2" t="n">
-        <v>770373.2589687484</v>
+        <v>745180.4957764653</v>
       </c>
       <c r="H2" t="n">
-        <v>770373.2589687484</v>
+        <v>745180.4957764655</v>
       </c>
       <c r="I2" t="n">
-        <v>770373.2589687484</v>
+        <v>745180.4957764653</v>
       </c>
       <c r="J2" t="n">
-        <v>549004.3821990864</v>
+        <v>686667.8039359187</v>
       </c>
       <c r="K2" t="n">
-        <v>770373.2589687484</v>
+        <v>686667.8039359185</v>
       </c>
       <c r="L2" t="n">
-        <v>770373.2589687483</v>
+        <v>686667.8039359185</v>
       </c>
       <c r="M2" t="n">
-        <v>770373.2589687485</v>
+        <v>686667.8039359186</v>
       </c>
       <c r="N2" t="n">
-        <v>770373.2589687484</v>
+        <v>686667.8039359186</v>
       </c>
       <c r="O2" t="n">
-        <v>770373.2589687484</v>
+        <v>253713.3173384364</v>
       </c>
       <c r="P2" t="n">
-        <v>238584.7761581767</v>
+        <v>253713.3173384364</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>408775.9134063832</v>
+        <v>515399.7012546516</v>
       </c>
       <c r="F3" t="n">
-        <v>95773.04888341008</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>133578.454460534</v>
       </c>
       <c r="K3" t="n">
-        <v>164071.4805660164</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="C4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="D4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="E4" t="n">
-        <v>136594.6663952801</v>
+        <v>303257.6045133186</v>
       </c>
       <c r="F4" t="n">
-        <v>328137.6834104116</v>
+        <v>303257.6045133186</v>
       </c>
       <c r="G4" t="n">
-        <v>328137.6834104116</v>
+        <v>303257.6045133187</v>
       </c>
       <c r="H4" t="n">
-        <v>328137.6834104116</v>
+        <v>303257.6045133186</v>
       </c>
       <c r="I4" t="n">
-        <v>328137.6834104116</v>
+        <v>303257.6045133186</v>
       </c>
       <c r="J4" t="n">
-        <v>191543.0170151315</v>
+        <v>267152.6120749932</v>
       </c>
       <c r="K4" t="n">
-        <v>328137.6834104117</v>
+        <v>267152.6120749931</v>
       </c>
       <c r="L4" t="n">
-        <v>328137.6834104115</v>
+        <v>267152.6120749933</v>
       </c>
       <c r="M4" t="n">
-        <v>328137.6834104116</v>
+        <v>267152.6120749933</v>
       </c>
       <c r="N4" t="n">
-        <v>328137.6834104116</v>
+        <v>267152.6120749932</v>
       </c>
       <c r="O4" t="n">
-        <v>328137.6834104116</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-3.554634533211938e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>16415.93827133748</v>
+        <v>25805.06154104121</v>
       </c>
       <c r="F5" t="n">
-        <v>26480.36882956173</v>
+        <v>25805.06154104121</v>
       </c>
       <c r="G5" t="n">
-        <v>26480.36882956173</v>
+        <v>25805.06154104121</v>
       </c>
       <c r="H5" t="n">
-        <v>26480.36882956173</v>
+        <v>25805.06154104121</v>
       </c>
       <c r="I5" t="n">
-        <v>26480.36882956173</v>
+        <v>25805.06154104121</v>
       </c>
       <c r="J5" t="n">
-        <v>19303.14276315545</v>
+        <v>23907.96189802979</v>
       </c>
       <c r="K5" t="n">
-        <v>26480.36882956174</v>
+        <v>23907.96189802979</v>
       </c>
       <c r="L5" t="n">
-        <v>26480.36882956173</v>
+        <v>23907.96189802979</v>
       </c>
       <c r="M5" t="n">
-        <v>26480.36882956173</v>
+        <v>23907.96189802979</v>
       </c>
       <c r="N5" t="n">
-        <v>26480.36882956173</v>
+        <v>23907.96189802979</v>
       </c>
       <c r="O5" t="n">
-        <v>26480.36882956173</v>
+        <v>9870.703037976498</v>
       </c>
       <c r="P5" t="n">
-        <v>9238.712204931187</v>
+        <v>9870.703037976498</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>319539.5221141502</v>
+        <v>319539.52211415</v>
       </c>
       <c r="C6" t="n">
         <v>319539.52211415</v>
       </c>
       <c r="D6" t="n">
-        <v>319539.5221141501</v>
+        <v>319539.5221141499</v>
       </c>
       <c r="E6" t="n">
-        <v>-101832.8651451606</v>
+        <v>-99281.87153254612</v>
       </c>
       <c r="F6" t="n">
-        <v>319982.1578453649</v>
+        <v>416117.8297221056</v>
       </c>
       <c r="G6" t="n">
-        <v>415755.206728775</v>
+        <v>416117.8297221054</v>
       </c>
       <c r="H6" t="n">
-        <v>415755.206728775</v>
+        <v>416117.8297221058</v>
       </c>
       <c r="I6" t="n">
-        <v>415755.206728775</v>
+        <v>416117.8297221055</v>
       </c>
       <c r="J6" t="n">
-        <v>338158.2224207995</v>
+        <v>262028.7755023618</v>
       </c>
       <c r="K6" t="n">
-        <v>251683.7261627585</v>
+        <v>395607.2299628956</v>
       </c>
       <c r="L6" t="n">
-        <v>415755.2067287752</v>
+        <v>395607.2299628954</v>
       </c>
       <c r="M6" t="n">
-        <v>415755.2067287751</v>
+        <v>395607.2299628956</v>
       </c>
       <c r="N6" t="n">
-        <v>415755.2067287751</v>
+        <v>395607.2299628956</v>
       </c>
       <c r="O6" t="n">
-        <v>415755.2067287751</v>
+        <v>243842.6143004599</v>
       </c>
       <c r="P6" t="n">
-        <v>229346.0639532456</v>
+        <v>243842.6143004599</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="F2" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="G2" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="H2" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="J2" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="K2" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="L2" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="M2" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="N2" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="O2" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>423.7941378408804</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="F3" t="n">
-        <v>423.7941378408804</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="G3" t="n">
-        <v>423.7941378408804</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="H3" t="n">
-        <v>423.7941378408804</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="I3" t="n">
-        <v>423.7941378408804</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="J3" t="n">
-        <v>423.7941378408804</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="K3" t="n">
-        <v>423.7941378408804</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="L3" t="n">
-        <v>423.7941378408804</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="M3" t="n">
-        <v>423.7941378408804</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="N3" t="n">
-        <v>423.7941378408804</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="O3" t="n">
-        <v>423.7941378408804</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="P3" t="n">
-        <v>423.7941378408804</v>
+        <v>452.7845430264449</v>
       </c>
     </row>
     <row r="4">
@@ -26914,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="F2" t="n">
-        <v>119.7163111042626</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="K2" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>423.7941378408804</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27151,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="K2" t="n">
-        <v>119.7163111042626</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="P2" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="C11" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="D11" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="E11" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="F11" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="G11" t="n">
-        <v>42.49236371147531</v>
+        <v>189.539051291971</v>
       </c>
       <c r="H11" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="I11" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>139.7090537154</v>
       </c>
       <c r="K11" t="n">
-        <v>85.37303960325791</v>
+        <v>126.1047343199522</v>
       </c>
       <c r="L11" t="n">
-        <v>85.37303960325791</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M11" t="n">
-        <v>75.15868967310212</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O11" t="n">
-        <v>85.37303960325791</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q11" t="n">
-        <v>85.37303960325791</v>
+        <v>164.6813718922237</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>189.539051291971</v>
       </c>
       <c r="S11" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>189.539051291971</v>
       </c>
       <c r="U11" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="V11" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="W11" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="X11" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>189.539051291971</v>
       </c>
     </row>
     <row r="12">
@@ -28166,37 +28168,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="C12" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="D12" t="n">
-        <v>85.37303960325791</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E12" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="F12" t="n">
-        <v>85.37303960325791</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>85.37303960325791</v>
+        <v>169.3772771946824</v>
       </c>
       <c r="H12" t="n">
-        <v>85.37303960325791</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I12" t="n">
-        <v>85.37303960325791</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J12" t="n">
-        <v>85.37303960325791</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K12" t="n">
-        <v>76.79584047590225</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L12" t="n">
-        <v>27.22701059689192</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -28205,37 +28207,37 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>43.64096701700123</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.37303960325791</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R12" t="n">
-        <v>85.37303960325791</v>
+        <v>176.2610996859475</v>
       </c>
       <c r="S12" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="T12" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="U12" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="V12" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="W12" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="X12" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="Y12" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85.37303960325791</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C13" t="n">
-        <v>85.37303960325791</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D13" t="n">
-        <v>85.37303960325791</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E13" t="n">
-        <v>85.37303960325791</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F13" t="n">
-        <v>85.37303960325791</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>85.37303960325791</v>
+        <v>169.7092433502934</v>
       </c>
       <c r="H13" t="n">
-        <v>85.37303960325791</v>
+        <v>169.7952868872321</v>
       </c>
       <c r="I13" t="n">
-        <v>85.37303960325791</v>
+        <v>173.1943950862238</v>
       </c>
       <c r="J13" t="n">
-        <v>85.37303960325791</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K13" t="n">
-        <v>85.37303960325791</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L13" t="n">
-        <v>85.37303960325791</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M13" t="n">
-        <v>85.37303960325791</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N13" t="n">
-        <v>85.37303960325791</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O13" t="n">
-        <v>85.37303960325791</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P13" t="n">
-        <v>85.37303960325791</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.37303960325791</v>
+        <v>177.8251616508563</v>
       </c>
       <c r="R13" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="S13" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="T13" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="U13" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="V13" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="W13" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="X13" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
       <c r="Y13" t="n">
-        <v>85.37303960325791</v>
+        <v>189.539051291971</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="C14" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="D14" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="E14" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="F14" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="G14" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="H14" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="I14" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="J14" t="n">
-        <v>149.6006091008002</v>
+        <v>139.7090537154</v>
       </c>
       <c r="K14" t="n">
-        <v>140.9296117214527</v>
+        <v>126.1047343199522</v>
       </c>
       <c r="L14" t="n">
-        <v>114.2645714324614</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M14" t="n">
-        <v>75.15868967310212</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N14" t="n">
-        <v>68.80166552921241</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O14" t="n">
-        <v>86.85614816471269</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P14" t="n">
-        <v>130.7601436734049</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q14" t="n">
-        <v>177.2668497534603</v>
+        <v>164.6813718922237</v>
       </c>
       <c r="R14" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="S14" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="T14" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="U14" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="V14" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="W14" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="X14" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
     </row>
     <row r="15">
@@ -28403,37 +28405,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>195.559634637931</v>
+        <v>189.539051291971</v>
       </c>
       <c r="C15" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="D15" t="n">
-        <v>180.7611153144663</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E15" t="n">
-        <v>197.9362491610792</v>
+        <v>189.539051291971</v>
       </c>
       <c r="F15" t="n">
         <v>184.1437201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>169.4396339152703</v>
+        <v>169.3772771946824</v>
       </c>
       <c r="H15" t="n">
-        <v>147.7549385906295</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I15" t="n">
-        <v>130.3391129523499</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J15" t="n">
-        <v>119.988978019839</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K15" t="n">
-        <v>76.79584047590225</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L15" t="n">
-        <v>27.22701059689192</v>
+        <v>13.68767089206936</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -28442,37 +28444,37 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>43.64096701700123</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q15" t="n">
-        <v>111.1109056471342</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R15" t="n">
-        <v>180.1326862501631</v>
+        <v>176.2610996859475</v>
       </c>
       <c r="S15" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="T15" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="U15" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="V15" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="W15" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="X15" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
     </row>
     <row r="16">
@@ -28497,61 +28499,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>169.7615211301363</v>
+        <v>169.7092433502934</v>
       </c>
       <c r="H16" t="n">
-        <v>170.2600838752892</v>
+        <v>169.7952868872321</v>
       </c>
       <c r="I16" t="n">
-        <v>174.7665305018606</v>
+        <v>173.1943950862238</v>
       </c>
       <c r="J16" t="n">
-        <v>152.3372809867477</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K16" t="n">
-        <v>120.8581989270142</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L16" t="n">
-        <v>105.5690853463604</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M16" t="n">
-        <v>105.9596068035418</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N16" t="n">
-        <v>90.54267004656877</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O16" t="n">
-        <v>116.9730019489985</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P16" t="n">
-        <v>131.3791998612571</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q16" t="n">
-        <v>182.2027128338766</v>
+        <v>177.8251616508563</v>
       </c>
       <c r="R16" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="S16" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="T16" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="U16" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="V16" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="W16" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="X16" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="Y16" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
     </row>
     <row r="17">
@@ -28561,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="C17" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="D17" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="E17" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="F17" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="G17" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="H17" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="I17" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="J17" t="n">
-        <v>149.6006091008002</v>
+        <v>139.7090537154</v>
       </c>
       <c r="K17" t="n">
-        <v>140.9296117214527</v>
+        <v>126.1047343199522</v>
       </c>
       <c r="L17" t="n">
-        <v>114.2645714324614</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M17" t="n">
-        <v>75.15868967310212</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N17" t="n">
-        <v>68.80166552921241</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O17" t="n">
-        <v>86.85614816471269</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P17" t="n">
-        <v>130.7601436734049</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q17" t="n">
-        <v>177.2668497534603</v>
+        <v>164.6813718922237</v>
       </c>
       <c r="R17" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="S17" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="T17" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="U17" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="V17" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="W17" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="X17" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="Y17" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
     </row>
     <row r="18">
@@ -28640,37 +28642,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>195.559634637931</v>
+        <v>189.539051291971</v>
       </c>
       <c r="C18" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="D18" t="n">
         <v>180.7611153144678</v>
       </c>
       <c r="E18" t="n">
-        <v>197.9362491610792</v>
+        <v>189.539051291971</v>
       </c>
       <c r="F18" t="n">
         <v>184.1437201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>169.4396339152703</v>
+        <v>169.3772771946824</v>
       </c>
       <c r="H18" t="n">
-        <v>147.7549385906295</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I18" t="n">
-        <v>130.3391129523499</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J18" t="n">
-        <v>119.988978019839</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K18" t="n">
-        <v>76.79584047590225</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L18" t="n">
-        <v>27.22701059689192</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -28679,37 +28681,37 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>43.64096701700123</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q18" t="n">
-        <v>111.1109056471342</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R18" t="n">
-        <v>180.1326862501631</v>
+        <v>176.2610996859475</v>
       </c>
       <c r="S18" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="T18" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="U18" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="V18" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="W18" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="X18" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
     </row>
     <row r="19">
@@ -28734,61 +28736,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>169.7615211301363</v>
+        <v>169.7092433502934</v>
       </c>
       <c r="H19" t="n">
-        <v>170.2600838752892</v>
+        <v>169.7952868872321</v>
       </c>
       <c r="I19" t="n">
-        <v>174.7665305018606</v>
+        <v>173.1943950862238</v>
       </c>
       <c r="J19" t="n">
-        <v>152.3372809867477</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K19" t="n">
-        <v>120.8581989270142</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L19" t="n">
-        <v>105.5690853463604</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M19" t="n">
-        <v>105.9596068035418</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N19" t="n">
-        <v>90.54267004656877</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O19" t="n">
-        <v>116.9730019489985</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P19" t="n">
-        <v>131.3791998612571</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q19" t="n">
-        <v>182.2027128338766</v>
+        <v>177.8251616508563</v>
       </c>
       <c r="R19" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="S19" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="T19" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="U19" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="V19" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="W19" t="n">
-        <v>205.0893507075205</v>
+        <v>189.5390512919804</v>
       </c>
       <c r="X19" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="Y19" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
     </row>
     <row r="20">
@@ -28798,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="C20" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="D20" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="E20" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="F20" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="G20" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="H20" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="I20" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="J20" t="n">
-        <v>149.6006091008002</v>
+        <v>139.7090537154</v>
       </c>
       <c r="K20" t="n">
-        <v>140.9296117214527</v>
+        <v>126.1047343199522</v>
       </c>
       <c r="L20" t="n">
-        <v>114.2645714324614</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M20" t="n">
-        <v>75.15868967310212</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N20" t="n">
-        <v>68.80166552921241</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O20" t="n">
-        <v>86.85614816471269</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P20" t="n">
-        <v>130.7601436734049</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q20" t="n">
-        <v>177.2668497534603</v>
+        <v>164.6813718922237</v>
       </c>
       <c r="R20" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="S20" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="T20" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="U20" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="V20" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="W20" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="X20" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="Y20" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
     </row>
     <row r="21">
@@ -28877,37 +28879,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>195.559634637931</v>
+        <v>189.539051291971</v>
       </c>
       <c r="C21" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="D21" t="n">
         <v>180.7611153144678</v>
       </c>
       <c r="E21" t="n">
-        <v>197.9362491610792</v>
+        <v>189.539051291971</v>
       </c>
       <c r="F21" t="n">
         <v>184.1437201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>169.4396339152703</v>
+        <v>169.3772771946824</v>
       </c>
       <c r="H21" t="n">
-        <v>147.7549385906295</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I21" t="n">
-        <v>130.3391129523499</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J21" t="n">
-        <v>119.988978019839</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K21" t="n">
-        <v>76.79584047590225</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L21" t="n">
-        <v>27.22701059689192</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -28916,37 +28918,37 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>43.64096701700123</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q21" t="n">
-        <v>111.1109056471342</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R21" t="n">
-        <v>180.1326862501631</v>
+        <v>176.2610996859475</v>
       </c>
       <c r="S21" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="T21" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="U21" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="V21" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="W21" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="X21" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
     </row>
     <row r="22">
@@ -28971,61 +28973,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>169.7615211301363</v>
+        <v>169.7092433502934</v>
       </c>
       <c r="H22" t="n">
-        <v>170.2600838752892</v>
+        <v>169.7952868872321</v>
       </c>
       <c r="I22" t="n">
-        <v>174.7665305018606</v>
+        <v>173.1943950862238</v>
       </c>
       <c r="J22" t="n">
-        <v>152.3372809867477</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K22" t="n">
-        <v>120.8581989270142</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L22" t="n">
-        <v>105.5690853463604</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M22" t="n">
-        <v>105.9596068035418</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N22" t="n">
-        <v>90.54267004656877</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O22" t="n">
-        <v>116.9730019489985</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P22" t="n">
-        <v>131.3791998612554</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q22" t="n">
-        <v>182.2027128338766</v>
+        <v>177.8251616508563</v>
       </c>
       <c r="R22" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="S22" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="T22" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="U22" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="V22" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="W22" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="X22" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="Y22" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
     </row>
     <row r="23">
@@ -29035,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="C23" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="D23" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="E23" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="F23" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="G23" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="H23" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="I23" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="J23" t="n">
-        <v>149.6006091008002</v>
+        <v>139.7090537154</v>
       </c>
       <c r="K23" t="n">
-        <v>140.9296117214527</v>
+        <v>126.1047343199522</v>
       </c>
       <c r="L23" t="n">
-        <v>114.2645714324614</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M23" t="n">
-        <v>75.15868967310212</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N23" t="n">
-        <v>68.80166552921241</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O23" t="n">
-        <v>86.85614816471269</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P23" t="n">
-        <v>130.7601436734049</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q23" t="n">
-        <v>177.2668497534603</v>
+        <v>164.6813718922237</v>
       </c>
       <c r="R23" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="S23" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="T23" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="U23" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="V23" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="W23" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="X23" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="Y23" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
     </row>
     <row r="24">
@@ -29114,37 +29116,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>195.559634637931</v>
+        <v>189.539051291971</v>
       </c>
       <c r="C24" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="D24" t="n">
         <v>180.7611153144678</v>
       </c>
       <c r="E24" t="n">
-        <v>197.9362491610792</v>
+        <v>189.539051291971</v>
       </c>
       <c r="F24" t="n">
         <v>184.1437201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>169.4396339152703</v>
+        <v>169.3772771946824</v>
       </c>
       <c r="H24" t="n">
-        <v>147.7549385906295</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I24" t="n">
-        <v>130.3391129523499</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J24" t="n">
-        <v>119.988978019839</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K24" t="n">
-        <v>76.79584047590225</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L24" t="n">
-        <v>27.22701059689192</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -29153,37 +29155,37 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>43.64096701700123</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q24" t="n">
-        <v>111.1109056471342</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R24" t="n">
-        <v>180.1326862501631</v>
+        <v>176.2610996859475</v>
       </c>
       <c r="S24" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="T24" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="U24" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="V24" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="W24" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="X24" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
     </row>
     <row r="25">
@@ -29208,61 +29210,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>169.7615211301363</v>
+        <v>169.7092433502934</v>
       </c>
       <c r="H25" t="n">
-        <v>170.2600838752892</v>
+        <v>169.7952868872321</v>
       </c>
       <c r="I25" t="n">
-        <v>174.7665305018606</v>
+        <v>173.1943950862238</v>
       </c>
       <c r="J25" t="n">
-        <v>152.3372809867477</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K25" t="n">
-        <v>120.8581989270142</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L25" t="n">
-        <v>105.5690853463604</v>
+        <v>97.79680524136498</v>
       </c>
       <c r="M25" t="n">
-        <v>105.9596068035418</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N25" t="n">
-        <v>90.54267004656877</v>
+        <v>82.54274397298505</v>
       </c>
       <c r="O25" t="n">
-        <v>116.9730019489985</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P25" t="n">
-        <v>131.3791998612571</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q25" t="n">
-        <v>182.2027128338766</v>
+        <v>177.8251616508563</v>
       </c>
       <c r="R25" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="S25" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="T25" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="U25" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="V25" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="W25" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="X25" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
       <c r="Y25" t="n">
-        <v>205.0893507075205</v>
+        <v>189.539051291971</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29274,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="C26" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="D26" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="E26" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="F26" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="G26" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="H26" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="I26" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="J26" t="n">
-        <v>119.7163111042626</v>
+        <v>1.172952393357575</v>
       </c>
       <c r="K26" t="n">
-        <v>119.7163111042626</v>
+        <v>126.1047343199522</v>
       </c>
       <c r="L26" t="n">
-        <v>114.2645714324614</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N26" t="n">
-        <v>68.80166552921241</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O26" t="n">
-        <v>86.85614816471269</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P26" t="n">
-        <v>119.7163111042626</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q26" t="n">
-        <v>119.7163111042626</v>
+        <v>164.6813718922237</v>
       </c>
       <c r="R26" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="S26" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="T26" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="U26" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="V26" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="W26" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="X26" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="Y26" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
     </row>
     <row r="27">
@@ -29351,37 +29353,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="C27" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="D27" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="E27" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="F27" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="G27" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="H27" t="n">
-        <v>119.7163111042626</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J27" t="n">
-        <v>119.7163111042626</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K27" t="n">
-        <v>76.79584047590225</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L27" t="n">
-        <v>27.22701059689192</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -29393,34 +29395,34 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="U27" t="n">
-        <v>19.4197002403604</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="V27" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>166.9730680756675</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="C28" t="n">
-        <v>119.7163111042626</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D28" t="n">
-        <v>119.7163111042626</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E28" t="n">
-        <v>119.7163111042626</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F28" t="n">
-        <v>119.7163111042626</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G28" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="H28" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="I28" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="J28" t="n">
-        <v>119.7163111042626</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K28" t="n">
-        <v>119.7163111042626</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L28" t="n">
-        <v>105.5690853463604</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M28" t="n">
-        <v>105.9596068035418</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N28" t="n">
-        <v>90.54267004656877</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O28" t="n">
-        <v>116.9730019489985</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P28" t="n">
-        <v>119.7163111042626</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q28" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="R28" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="S28" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="T28" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="U28" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="V28" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="W28" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="X28" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="Y28" t="n">
-        <v>119.7163111042626</v>
+        <v>166.9730680756675</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="C29" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="D29" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="E29" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="F29" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="G29" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="H29" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="I29" t="n">
-        <v>205.0893507075205</v>
+        <v>14.72743663753527</v>
       </c>
       <c r="J29" t="n">
-        <v>149.6006091008002</v>
+        <v>139.7090537154</v>
       </c>
       <c r="K29" t="n">
-        <v>140.9296117214527</v>
+        <v>126.1047343199522</v>
       </c>
       <c r="L29" t="n">
-        <v>114.2645714324614</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M29" t="n">
-        <v>75.15868967310212</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N29" t="n">
-        <v>68.80166552921241</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O29" t="n">
-        <v>86.85614816471269</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P29" t="n">
-        <v>130.7601436734049</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q29" t="n">
-        <v>177.2668497534603</v>
+        <v>164.6813718922237</v>
       </c>
       <c r="R29" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="S29" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="T29" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="U29" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="V29" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="W29" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="X29" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="Y29" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
     </row>
     <row r="30">
@@ -29588,37 +29590,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>195.559634637931</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="C30" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="D30" t="n">
-        <v>180.7611153144678</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="E30" t="n">
-        <v>197.9362491610792</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="F30" t="n">
-        <v>184.1437201392488</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="G30" t="n">
-        <v>169.4396339152703</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="H30" t="n">
-        <v>147.7549385906295</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I30" t="n">
-        <v>130.3391129523499</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J30" t="n">
-        <v>119.988978019839</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K30" t="n">
-        <v>76.79584047590225</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L30" t="n">
-        <v>27.22701059689192</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -29627,37 +29629,37 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>43.64096701700123</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.1109056471342</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R30" t="n">
-        <v>180.1326862501631</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="S30" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="T30" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="U30" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="V30" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="W30" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="X30" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
     </row>
     <row r="31">
@@ -29667,7 +29669,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>173.5391974632748</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="C31" t="n">
         <v>165.0035252842657</v>
@@ -29682,61 +29684,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>169.7615211301363</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="H31" t="n">
-        <v>170.2600838752892</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="I31" t="n">
-        <v>174.7665305018606</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="J31" t="n">
-        <v>152.3372809867477</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K31" t="n">
-        <v>120.8581989270142</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L31" t="n">
-        <v>105.5690853463604</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M31" t="n">
-        <v>105.9596068035418</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N31" t="n">
-        <v>90.54267004656877</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>116.9730019489985</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P31" t="n">
-        <v>131.3791998612571</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q31" t="n">
-        <v>182.2027128338766</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="S31" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="T31" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="U31" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="V31" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="W31" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="X31" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
       <c r="Y31" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756674</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="C32" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="D32" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="E32" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="F32" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="G32" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="H32" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="I32" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="J32" t="n">
-        <v>149.6006091007976</v>
+        <v>139.7090537154</v>
       </c>
       <c r="K32" t="n">
-        <v>140.9296117214526</v>
+        <v>126.1047343199522</v>
       </c>
       <c r="L32" t="n">
-        <v>114.2645714324614</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M32" t="n">
-        <v>75.15868967310212</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N32" t="n">
-        <v>68.80166552921241</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O32" t="n">
-        <v>86.85614816471269</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P32" t="n">
-        <v>130.7601436734049</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q32" t="n">
-        <v>177.2668497534603</v>
+        <v>164.6813718922237</v>
       </c>
       <c r="R32" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="S32" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="T32" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="U32" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="V32" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="W32" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="X32" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="Y32" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
     </row>
     <row r="33">
@@ -29825,37 +29827,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>195.559634637931</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="C33" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="D33" t="n">
-        <v>180.7611153144678</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="E33" t="n">
-        <v>197.9362491610792</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="F33" t="n">
-        <v>184.1437201392488</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="G33" t="n">
-        <v>169.4396339152703</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="H33" t="n">
-        <v>147.7549385906295</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I33" t="n">
-        <v>130.3391129523499</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J33" t="n">
-        <v>119.988978019839</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K33" t="n">
-        <v>76.79584047590225</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L33" t="n">
-        <v>27.22701059689194</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -29864,37 +29866,37 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>43.64096701700126</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q33" t="n">
-        <v>111.1109056471342</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R33" t="n">
-        <v>180.1326862501631</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="S33" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="T33" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="U33" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="V33" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="W33" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="X33" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
     </row>
     <row r="34">
@@ -29904,7 +29906,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.5391974632748</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="C34" t="n">
         <v>165.0035252842657</v>
@@ -29919,61 +29921,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G34" t="n">
-        <v>169.7615211301363</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="H34" t="n">
-        <v>170.2600838752892</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="I34" t="n">
-        <v>174.7665305018606</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="J34" t="n">
-        <v>152.3372809867477</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K34" t="n">
-        <v>120.8581989270142</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L34" t="n">
-        <v>105.5690853463604</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M34" t="n">
-        <v>105.9596068035418</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N34" t="n">
-        <v>90.54267004656877</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>116.9730019489985</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P34" t="n">
-        <v>131.3791998612571</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>182.2027128338766</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>205.0893507075205</v>
+        <v>121.0276333060739</v>
       </c>
       <c r="U34" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="V34" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="W34" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="X34" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="Y34" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="C35" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="D35" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="E35" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="F35" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="G35" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="H35" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="I35" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="J35" t="n">
-        <v>149.6006091008002</v>
+        <v>139.7090537154</v>
       </c>
       <c r="K35" t="n">
-        <v>140.9296117214527</v>
+        <v>126.1047343199522</v>
       </c>
       <c r="L35" t="n">
-        <v>114.2645714324614</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M35" t="n">
-        <v>75.15868967310212</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N35" t="n">
-        <v>68.80166552921241</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O35" t="n">
-        <v>86.85614816471269</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P35" t="n">
-        <v>130.7601436734049</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q35" t="n">
-        <v>177.2668497534603</v>
+        <v>164.6813718922237</v>
       </c>
       <c r="R35" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="S35" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="T35" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="U35" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="V35" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="W35" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="X35" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="Y35" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
     </row>
     <row r="36">
@@ -30062,37 +30064,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>195.559634637931</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="C36" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="D36" t="n">
-        <v>180.7611153144678</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="E36" t="n">
-        <v>197.9362491610792</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="F36" t="n">
-        <v>184.1437201392488</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="G36" t="n">
-        <v>169.4396339152703</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="H36" t="n">
-        <v>147.7549385906295</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I36" t="n">
-        <v>130.3391129523499</v>
+        <v>57.13637073807578</v>
       </c>
       <c r="J36" t="n">
-        <v>119.988978019839</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K36" t="n">
-        <v>76.79584047590225</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L36" t="n">
-        <v>27.22701059689192</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -30101,37 +30103,37 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>43.64096701700123</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q36" t="n">
-        <v>111.1109056471342</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R36" t="n">
-        <v>180.1326862501631</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="S36" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="T36" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="U36" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="V36" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="W36" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="X36" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
     </row>
     <row r="37">
@@ -30141,7 +30143,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.5391974632748</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="C37" t="n">
         <v>165.0035252842657</v>
@@ -30156,61 +30158,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>169.7615211301363</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="H37" t="n">
-        <v>170.2600838752892</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>174.7665305018606</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="J37" t="n">
-        <v>152.3372809867477</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K37" t="n">
-        <v>120.8581989270142</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L37" t="n">
-        <v>105.5690853463604</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M37" t="n">
-        <v>105.9596068035418</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N37" t="n">
-        <v>90.54267004656877</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O37" t="n">
-        <v>116.9730019489985</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P37" t="n">
-        <v>131.3791998612571</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q37" t="n">
-        <v>182.2027128338766</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="R37" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="S37" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="U37" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="V37" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="W37" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="X37" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="Y37" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="C38" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="D38" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="E38" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="F38" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="G38" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="H38" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="J38" t="n">
-        <v>149.6006091008002</v>
+        <v>139.7090537154</v>
       </c>
       <c r="K38" t="n">
-        <v>140.9296117214527</v>
+        <v>126.1047343199522</v>
       </c>
       <c r="L38" t="n">
-        <v>114.2645714324614</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M38" t="n">
-        <v>75.15868967310212</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N38" t="n">
-        <v>68.80166552921241</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O38" t="n">
-        <v>86.85614816471269</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P38" t="n">
-        <v>130.7601436734049</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q38" t="n">
-        <v>177.2668497534592</v>
+        <v>164.6813718922237</v>
       </c>
       <c r="R38" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="S38" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="T38" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="U38" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="V38" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="W38" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="X38" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="Y38" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
     </row>
     <row r="39">
@@ -30299,37 +30301,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>195.559634637931</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="C39" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="D39" t="n">
-        <v>180.7611153144678</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="E39" t="n">
-        <v>197.9362491610792</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="F39" t="n">
-        <v>184.1437201392488</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="G39" t="n">
-        <v>169.4396339152703</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="H39" t="n">
-        <v>147.7549385906295</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I39" t="n">
-        <v>130.3391129523499</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J39" t="n">
-        <v>119.988978019839</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K39" t="n">
-        <v>76.79584047590225</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L39" t="n">
-        <v>27.22701059689192</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -30338,37 +30340,37 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>43.64096701700123</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q39" t="n">
-        <v>111.1109056471342</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R39" t="n">
-        <v>180.1326862501631</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="S39" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="T39" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="U39" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="V39" t="n">
-        <v>205.0893507075205</v>
+        <v>53.38638098086195</v>
       </c>
       <c r="W39" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="X39" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
     </row>
     <row r="40">
@@ -30378,7 +30380,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.5391974632748</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="C40" t="n">
         <v>165.0035252842657</v>
@@ -30393,61 +30395,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G40" t="n">
-        <v>169.7615211301363</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="H40" t="n">
-        <v>170.2600838752892</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="I40" t="n">
-        <v>174.7665305018606</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="J40" t="n">
-        <v>152.3372809867477</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K40" t="n">
-        <v>120.8581989270142</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L40" t="n">
-        <v>105.5690853463604</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M40" t="n">
-        <v>105.9596068035418</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N40" t="n">
-        <v>90.54267004656877</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O40" t="n">
-        <v>116.9730019489985</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P40" t="n">
-        <v>131.3791998612571</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q40" t="n">
-        <v>182.2027128338766</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="R40" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="S40" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="T40" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="U40" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="V40" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="W40" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="X40" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
       <c r="Y40" t="n">
-        <v>205.0893507075205</v>
+        <v>166.9730680756675</v>
       </c>
     </row>
     <row r="41">
@@ -30457,76 +30459,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>149.6006091008002</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>140.9296117214527</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>114.2645714324614</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>75.15868967310212</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>86.85614816471269</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>130.7601436734049</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>177.2668497534603</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30536,37 +30538,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>169.4396339152703</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>147.7549385906295</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>130.3391129523499</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>119.988978019839</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>76.79584047590225</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -30575,37 +30577,37 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>43.64096701700123</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>111.1109056471342</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>180.1326862501631</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>169.7615211301363</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>170.2600838752892</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>174.7665305018606</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>152.3372809867477</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>120.8581989270142</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>105.5690853463604</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>105.9596068035418</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>90.54267004656877</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>116.9730019489985</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>131.3791998612571</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>182.2027128338766</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>205.0893507075152</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>205.0893507075205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30757,13 +30759,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>-3.886428074965105e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>-5.684341886080793e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.703695026496</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H11" t="n">
-        <v>17.44796669010217</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I11" t="n">
-        <v>65.68170250898712</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J11" t="n">
-        <v>144.598985755065</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K11" t="n">
-        <v>216.7163962266408</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L11" t="n">
-        <v>268.8558528937678</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M11" t="n">
-        <v>299.1539393212161</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N11" t="n">
-        <v>303.9945628152478</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O11" t="n">
-        <v>287.0534453955282</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P11" t="n">
-        <v>244.9934744289081</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.9798962925201</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R11" t="n">
-        <v>107.0197327081295</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S11" t="n">
-        <v>38.82295041627765</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T11" t="n">
-        <v>7.457924978486245</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U11" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9115572021483088</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H12" t="n">
-        <v>8.803723504958668</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I12" t="n">
-        <v>31.38475454765011</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J12" t="n">
-        <v>86.12216531349441</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K12" t="n">
-        <v>147.1964978574311</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L12" t="n">
-        <v>197.9238565454037</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M12" t="n">
         <v>230.9678051232798</v>
@@ -31853,25 +31855,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>174.0674450312854</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.3594772426508</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R12" t="n">
-        <v>56.59650769127835</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S12" t="n">
-        <v>16.93177522411441</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T12" t="n">
-        <v>3.674215213922349</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H13" t="n">
-        <v>6.794601095219366</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I13" t="n">
-        <v>22.98214767176447</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J13" t="n">
-        <v>54.03027885227092</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K13" t="n">
-        <v>88.78834560010574</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L13" t="n">
-        <v>113.6185136106518</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M13" t="n">
-        <v>119.7947921113164</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N13" t="n">
-        <v>116.9463397094352</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O13" t="n">
-        <v>108.0188730352461</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P13" t="n">
-        <v>92.4288067186077</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.99291481397294</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R13" t="n">
-        <v>34.36206238952449</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S13" t="n">
-        <v>13.31825184001586</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T13" t="n">
-        <v>3.265299094839569</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.703695026496</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H14" t="n">
-        <v>17.44796669010217</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I14" t="n">
-        <v>65.68170250898712</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J14" t="n">
-        <v>144.598985755065</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K14" t="n">
-        <v>216.7163962266408</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L14" t="n">
-        <v>268.8558528937678</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M14" t="n">
-        <v>299.1539393212161</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N14" t="n">
-        <v>303.9945628152478</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O14" t="n">
-        <v>287.0534453955282</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P14" t="n">
-        <v>244.9934744289081</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.9798962925201</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R14" t="n">
-        <v>107.0197327081295</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S14" t="n">
-        <v>38.82295041627765</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T14" t="n">
-        <v>7.457924978486245</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U14" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9115572021483088</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H15" t="n">
-        <v>8.803723504958668</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I15" t="n">
-        <v>31.38475454765011</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J15" t="n">
-        <v>86.12216531349441</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K15" t="n">
-        <v>147.1964978574311</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L15" t="n">
-        <v>197.9238565454037</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M15" t="n">
         <v>230.9678051232798</v>
@@ -32090,25 +32092,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>174.0674450312854</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.3594772426508</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R15" t="n">
-        <v>56.59650769127835</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S15" t="n">
-        <v>16.93177522411441</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T15" t="n">
-        <v>3.674215213922349</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H16" t="n">
-        <v>6.794601095219366</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I16" t="n">
-        <v>22.98214767176447</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J16" t="n">
-        <v>54.03027885227092</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K16" t="n">
-        <v>88.78834560010574</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L16" t="n">
-        <v>113.6185136106518</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M16" t="n">
-        <v>119.7947921113164</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N16" t="n">
-        <v>116.9463397094352</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O16" t="n">
-        <v>108.0188730352461</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P16" t="n">
-        <v>92.4288067186077</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.99291481397294</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R16" t="n">
-        <v>34.36206238952449</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S16" t="n">
-        <v>13.31825184001586</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T16" t="n">
-        <v>3.265299094839569</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.703695026496</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H17" t="n">
-        <v>17.44796669010217</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I17" t="n">
-        <v>65.68170250898712</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J17" t="n">
-        <v>144.598985755065</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K17" t="n">
-        <v>216.7163962266408</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L17" t="n">
-        <v>268.8558528937678</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M17" t="n">
-        <v>299.1539393212161</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N17" t="n">
-        <v>303.9945628152478</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O17" t="n">
-        <v>287.0534453955282</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P17" t="n">
-        <v>244.9934744289081</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.9798962925201</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R17" t="n">
-        <v>107.0197327081295</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S17" t="n">
-        <v>38.82295041627765</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T17" t="n">
-        <v>7.457924978486245</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U17" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9115572021483088</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H18" t="n">
-        <v>8.803723504958668</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I18" t="n">
-        <v>31.38475454765011</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J18" t="n">
-        <v>86.12216531349441</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K18" t="n">
-        <v>147.1964978574311</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L18" t="n">
-        <v>197.9238565454037</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M18" t="n">
         <v>230.9678051232798</v>
@@ -32327,25 +32329,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>174.0674450312854</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.3594772426508</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R18" t="n">
-        <v>56.59650769127835</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S18" t="n">
-        <v>16.93177522411441</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T18" t="n">
-        <v>3.674215213922349</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H19" t="n">
-        <v>6.794601095219366</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I19" t="n">
-        <v>22.98214767176447</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J19" t="n">
-        <v>54.03027885227092</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K19" t="n">
-        <v>88.78834560010574</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L19" t="n">
-        <v>113.6185136106518</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M19" t="n">
-        <v>119.7947921113164</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N19" t="n">
-        <v>116.9463397094352</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O19" t="n">
-        <v>108.0188730352461</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P19" t="n">
-        <v>92.4288067186077</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.99291481397294</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R19" t="n">
-        <v>34.36206238952449</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S19" t="n">
-        <v>13.31825184001586</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T19" t="n">
-        <v>3.265299094839569</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.703695026496</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H20" t="n">
-        <v>17.44796669010217</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I20" t="n">
-        <v>65.68170250898712</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J20" t="n">
-        <v>144.598985755065</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K20" t="n">
-        <v>216.7163962266408</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L20" t="n">
-        <v>268.8558528937678</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M20" t="n">
-        <v>299.1539393212161</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N20" t="n">
-        <v>303.9945628152478</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O20" t="n">
-        <v>287.0534453955282</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P20" t="n">
-        <v>244.9934744289081</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.9798962925201</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R20" t="n">
-        <v>107.0197327081295</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S20" t="n">
-        <v>38.82295041627765</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T20" t="n">
-        <v>7.457924978486245</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U20" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9115572021483088</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H21" t="n">
-        <v>8.803723504958668</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I21" t="n">
-        <v>31.38475454765011</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J21" t="n">
-        <v>86.12216531349441</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K21" t="n">
-        <v>147.1964978574311</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L21" t="n">
-        <v>197.9238565454037</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M21" t="n">
         <v>230.9678051232798</v>
@@ -32564,25 +32566,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>174.0674450312854</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.3594772426508</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R21" t="n">
-        <v>56.59650769127835</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S21" t="n">
-        <v>16.93177522411441</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T21" t="n">
-        <v>3.674215213922349</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H22" t="n">
-        <v>6.794601095219366</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I22" t="n">
-        <v>22.98214767176447</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J22" t="n">
-        <v>54.03027885227092</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K22" t="n">
-        <v>88.78834560010574</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L22" t="n">
-        <v>113.6185136106518</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M22" t="n">
-        <v>119.7947921113164</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N22" t="n">
-        <v>116.9463397094352</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O22" t="n">
-        <v>108.0188730352461</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P22" t="n">
-        <v>92.4288067186077</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q22" t="n">
-        <v>63.99291481397294</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R22" t="n">
-        <v>34.36206238952449</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S22" t="n">
-        <v>13.31825184001586</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T22" t="n">
-        <v>3.265299094839569</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.703695026496</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H23" t="n">
-        <v>17.44796669010217</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I23" t="n">
-        <v>65.68170250898712</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J23" t="n">
-        <v>144.598985755065</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K23" t="n">
-        <v>216.7163962266408</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L23" t="n">
-        <v>268.8558528937678</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M23" t="n">
-        <v>299.1539393212161</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N23" t="n">
-        <v>303.9945628152478</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O23" t="n">
-        <v>287.0534453955282</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P23" t="n">
-        <v>244.9934744289081</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q23" t="n">
-        <v>183.9798962925201</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R23" t="n">
-        <v>107.0197327081295</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S23" t="n">
-        <v>38.82295041627765</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T23" t="n">
-        <v>7.457924978486245</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U23" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9115572021483088</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H24" t="n">
-        <v>8.803723504958668</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I24" t="n">
-        <v>31.38475454765011</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J24" t="n">
-        <v>86.12216531349441</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K24" t="n">
-        <v>147.1964978574311</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L24" t="n">
-        <v>197.9238565454037</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M24" t="n">
         <v>230.9678051232798</v>
@@ -32801,25 +32803,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>174.0674450312854</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q24" t="n">
-        <v>116.3594772426508</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R24" t="n">
-        <v>56.59650769127835</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S24" t="n">
-        <v>16.93177522411441</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T24" t="n">
-        <v>3.674215213922349</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H25" t="n">
-        <v>6.794601095219366</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I25" t="n">
-        <v>22.98214767176447</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J25" t="n">
-        <v>54.03027885227092</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K25" t="n">
-        <v>88.78834560010574</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L25" t="n">
-        <v>113.6185136106518</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M25" t="n">
-        <v>119.7947921113164</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N25" t="n">
-        <v>116.9463397094352</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O25" t="n">
-        <v>108.0188730352461</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P25" t="n">
-        <v>92.4288067186077</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q25" t="n">
-        <v>63.99291481397294</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R25" t="n">
-        <v>34.36206238952449</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S25" t="n">
-        <v>13.31825184001586</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T25" t="n">
-        <v>3.265299094839569</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.703695026496</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H26" t="n">
-        <v>17.44796669010217</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I26" t="n">
-        <v>65.68170250898712</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J26" t="n">
-        <v>144.598985755065</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K26" t="n">
-        <v>216.7163962266408</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L26" t="n">
-        <v>268.8558528937678</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M26" t="n">
-        <v>299.1539393212161</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N26" t="n">
-        <v>303.9945628152478</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O26" t="n">
-        <v>287.0534453955282</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P26" t="n">
-        <v>244.9934744289081</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q26" t="n">
-        <v>183.9798962925201</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R26" t="n">
-        <v>107.0197327081295</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S26" t="n">
-        <v>38.82295041627765</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T26" t="n">
-        <v>7.457924978486245</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U26" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9115572021483088</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H27" t="n">
-        <v>8.803723504958668</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I27" t="n">
-        <v>31.38475454765011</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J27" t="n">
-        <v>86.12216531349441</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K27" t="n">
-        <v>147.1964978574311</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L27" t="n">
-        <v>197.9238565454037</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M27" t="n">
         <v>230.9678051232798</v>
@@ -33038,25 +33040,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>174.0674450312854</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q27" t="n">
-        <v>116.3594772426508</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R27" t="n">
-        <v>56.59650769127835</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S27" t="n">
-        <v>16.93177522411441</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T27" t="n">
-        <v>3.674215213922349</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H28" t="n">
-        <v>6.794601095219366</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I28" t="n">
-        <v>22.98214767176447</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J28" t="n">
-        <v>54.03027885227092</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K28" t="n">
-        <v>88.78834560010574</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L28" t="n">
-        <v>113.6185136106518</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M28" t="n">
-        <v>119.7947921113164</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N28" t="n">
-        <v>116.9463397094352</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O28" t="n">
-        <v>108.0188730352461</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P28" t="n">
-        <v>92.4288067186077</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.99291481397294</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R28" t="n">
-        <v>34.36206238952449</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S28" t="n">
-        <v>13.31825184001586</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T28" t="n">
-        <v>3.265299094839569</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.703695026496</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H29" t="n">
-        <v>17.44796669010217</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I29" t="n">
-        <v>65.68170250898712</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J29" t="n">
-        <v>144.598985755065</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K29" t="n">
-        <v>216.7163962266408</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L29" t="n">
-        <v>268.8558528937678</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M29" t="n">
-        <v>299.1539393212161</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N29" t="n">
-        <v>303.9945628152478</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O29" t="n">
-        <v>287.0534453955282</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P29" t="n">
-        <v>244.9934744289081</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q29" t="n">
-        <v>183.9798962925201</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R29" t="n">
-        <v>107.0197327081295</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S29" t="n">
-        <v>38.82295041627765</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T29" t="n">
-        <v>7.457924978486245</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U29" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9115572021483088</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H30" t="n">
-        <v>8.803723504958668</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I30" t="n">
-        <v>31.38475454765011</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J30" t="n">
-        <v>86.12216531349441</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K30" t="n">
-        <v>147.1964978574311</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L30" t="n">
-        <v>197.9238565454037</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M30" t="n">
         <v>230.9678051232798</v>
@@ -33275,25 +33277,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>174.0674450312854</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q30" t="n">
-        <v>116.3594772426508</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R30" t="n">
-        <v>56.59650769127835</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S30" t="n">
-        <v>16.93177522411441</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T30" t="n">
-        <v>3.674215213922349</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H31" t="n">
-        <v>6.794601095219366</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I31" t="n">
-        <v>22.98214767176447</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J31" t="n">
-        <v>54.03027885227092</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K31" t="n">
-        <v>88.78834560010574</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L31" t="n">
-        <v>113.6185136106518</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M31" t="n">
-        <v>119.7947921113164</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N31" t="n">
-        <v>116.9463397094352</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O31" t="n">
-        <v>108.0188730352461</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P31" t="n">
-        <v>92.4288067186077</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.99291481397294</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R31" t="n">
-        <v>34.36206238952449</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S31" t="n">
-        <v>13.31825184001586</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T31" t="n">
-        <v>3.265299094839569</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.703695026496</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H32" t="n">
-        <v>17.44796669010217</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I32" t="n">
-        <v>65.68170250898712</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J32" t="n">
-        <v>144.5989857550651</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K32" t="n">
-        <v>216.7163962266408</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L32" t="n">
-        <v>268.8558528937678</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M32" t="n">
-        <v>299.1539393212161</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N32" t="n">
-        <v>303.9945628152478</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O32" t="n">
-        <v>287.0534453955282</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P32" t="n">
-        <v>244.9934744289081</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q32" t="n">
-        <v>183.9798962925201</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R32" t="n">
-        <v>107.0197327081295</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S32" t="n">
-        <v>38.82295041627765</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T32" t="n">
-        <v>7.457924978486244</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U32" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9115572021483087</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H33" t="n">
-        <v>8.803723504958668</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I33" t="n">
-        <v>31.38475454765011</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J33" t="n">
-        <v>86.12216531349439</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K33" t="n">
-        <v>147.1964978574311</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L33" t="n">
-        <v>197.9238565454036</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M33" t="n">
         <v>230.9678051232798</v>
@@ -33512,25 +33514,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>174.0674450312854</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q33" t="n">
-        <v>116.3594772426508</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R33" t="n">
-        <v>56.59650769127835</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S33" t="n">
-        <v>16.93177522411441</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T33" t="n">
-        <v>3.674215213922349</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H34" t="n">
-        <v>6.794601095219365</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I34" t="n">
-        <v>22.98214767176447</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J34" t="n">
-        <v>54.03027885227092</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K34" t="n">
-        <v>88.78834560010573</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L34" t="n">
-        <v>113.6185136106518</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M34" t="n">
-        <v>119.7947921113164</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N34" t="n">
-        <v>116.9463397094352</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O34" t="n">
-        <v>108.0188730352461</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P34" t="n">
-        <v>92.4288067186077</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q34" t="n">
-        <v>63.99291481397294</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R34" t="n">
-        <v>34.36206238952449</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S34" t="n">
-        <v>13.31825184001586</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T34" t="n">
-        <v>3.265299094839569</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.703695026496</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H35" t="n">
-        <v>17.44796669010217</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I35" t="n">
-        <v>65.68170250898712</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J35" t="n">
-        <v>144.598985755065</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K35" t="n">
-        <v>216.7163962266408</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L35" t="n">
-        <v>268.8558528937678</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M35" t="n">
-        <v>299.1539393212161</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N35" t="n">
-        <v>303.9945628152478</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O35" t="n">
-        <v>287.0534453955282</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P35" t="n">
-        <v>244.9934744289081</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q35" t="n">
-        <v>183.9798962925201</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R35" t="n">
-        <v>107.0197327081295</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S35" t="n">
-        <v>38.82295041627765</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T35" t="n">
-        <v>7.457924978486245</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U35" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9115572021483088</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H36" t="n">
-        <v>8.803723504958668</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I36" t="n">
-        <v>31.38475454765011</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J36" t="n">
-        <v>86.12216531349441</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K36" t="n">
-        <v>147.1964978574311</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L36" t="n">
-        <v>197.9238565454037</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M36" t="n">
         <v>230.9678051232798</v>
@@ -33749,25 +33751,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>174.0674450312854</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q36" t="n">
-        <v>116.3594772426508</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R36" t="n">
-        <v>56.59650769127835</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S36" t="n">
-        <v>16.93177522411441</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T36" t="n">
-        <v>3.674215213922349</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H37" t="n">
-        <v>6.794601095219366</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I37" t="n">
-        <v>22.98214767176447</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J37" t="n">
-        <v>54.03027885227092</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K37" t="n">
-        <v>88.78834560010574</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L37" t="n">
-        <v>113.6185136106518</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M37" t="n">
-        <v>119.7947921113164</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N37" t="n">
-        <v>116.9463397094352</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O37" t="n">
-        <v>108.0188730352461</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P37" t="n">
-        <v>92.4288067186077</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q37" t="n">
-        <v>63.99291481397294</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R37" t="n">
-        <v>34.36206238952449</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S37" t="n">
-        <v>13.31825184001586</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T37" t="n">
-        <v>3.265299094839569</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.703695026496</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H38" t="n">
-        <v>17.44796669010217</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I38" t="n">
-        <v>65.68170250898712</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J38" t="n">
-        <v>144.598985755065</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K38" t="n">
-        <v>216.7163962266408</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L38" t="n">
-        <v>268.8558528937678</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M38" t="n">
-        <v>299.1539393212161</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N38" t="n">
-        <v>303.9945628152478</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O38" t="n">
-        <v>287.0534453955282</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P38" t="n">
-        <v>244.9934744289081</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q38" t="n">
-        <v>183.9798962925201</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R38" t="n">
-        <v>107.0197327081295</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S38" t="n">
-        <v>38.82295041627765</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T38" t="n">
-        <v>7.457924978486245</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U38" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9115572021483088</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H39" t="n">
-        <v>8.803723504958668</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I39" t="n">
-        <v>31.38475454765011</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J39" t="n">
-        <v>86.12216531349441</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K39" t="n">
-        <v>147.1964978574311</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L39" t="n">
-        <v>197.9238565454037</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M39" t="n">
         <v>230.9678051232798</v>
@@ -33986,25 +33988,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>174.0674450312854</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q39" t="n">
-        <v>116.3594772426508</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R39" t="n">
-        <v>56.59650769127835</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S39" t="n">
-        <v>16.93177522411441</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T39" t="n">
-        <v>3.674215213922349</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H40" t="n">
-        <v>6.794601095219366</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I40" t="n">
-        <v>22.98214767176447</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J40" t="n">
-        <v>54.03027885227092</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K40" t="n">
-        <v>88.78834560010574</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L40" t="n">
-        <v>113.6185136106518</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M40" t="n">
-        <v>119.7947921113164</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N40" t="n">
-        <v>116.9463397094352</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O40" t="n">
-        <v>108.0188730352461</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P40" t="n">
-        <v>92.4288067186077</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q40" t="n">
-        <v>63.99291481397294</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R40" t="n">
-        <v>34.36206238952449</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S40" t="n">
-        <v>13.31825184001586</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T40" t="n">
-        <v>3.265299094839569</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.703695026496</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H41" t="n">
-        <v>17.44796669010217</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I41" t="n">
-        <v>65.68170250898712</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J41" t="n">
-        <v>144.598985755065</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K41" t="n">
-        <v>216.7163962266408</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L41" t="n">
-        <v>268.8558528937678</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M41" t="n">
-        <v>299.1539393212161</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N41" t="n">
-        <v>303.9945628152478</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O41" t="n">
-        <v>287.0534453955282</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P41" t="n">
-        <v>244.9934744289081</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q41" t="n">
-        <v>183.9798962925201</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R41" t="n">
-        <v>107.0197327081295</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S41" t="n">
-        <v>38.82295041627765</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T41" t="n">
-        <v>7.457924978486245</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U41" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9115572021483088</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H42" t="n">
-        <v>8.803723504958668</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I42" t="n">
-        <v>31.38475454765011</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J42" t="n">
-        <v>86.12216531349441</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K42" t="n">
-        <v>147.1964978574311</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L42" t="n">
-        <v>197.9238565454037</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M42" t="n">
         <v>230.9678051232798</v>
@@ -34223,25 +34225,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>174.0674450312854</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q42" t="n">
-        <v>116.3594772426508</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R42" t="n">
-        <v>56.59650769127835</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S42" t="n">
-        <v>16.93177522411441</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T42" t="n">
-        <v>3.674215213922349</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H43" t="n">
-        <v>6.794601095219366</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I43" t="n">
-        <v>22.98214767176447</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J43" t="n">
-        <v>54.03027885227092</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K43" t="n">
-        <v>88.78834560010574</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L43" t="n">
-        <v>113.6185136106518</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M43" t="n">
-        <v>119.7947921113164</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N43" t="n">
-        <v>116.9463397094352</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O43" t="n">
-        <v>108.0188730352461</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P43" t="n">
-        <v>92.4288067186077</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.99291481397294</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R43" t="n">
-        <v>34.36206238952449</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S43" t="n">
-        <v>13.31825184001586</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T43" t="n">
-        <v>3.265299094839569</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.703695026496</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H44" t="n">
-        <v>17.44796669010217</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I44" t="n">
-        <v>65.68170250898712</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J44" t="n">
-        <v>144.598985755065</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K44" t="n">
-        <v>216.7163962266408</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L44" t="n">
-        <v>268.8558528937678</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M44" t="n">
-        <v>299.1539393212161</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N44" t="n">
-        <v>303.9945628152478</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O44" t="n">
-        <v>287.0534453955282</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P44" t="n">
-        <v>244.9934744289081</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q44" t="n">
-        <v>183.9798962925201</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R44" t="n">
-        <v>107.0197327081295</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S44" t="n">
-        <v>38.82295041627765</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T44" t="n">
-        <v>7.457924978486245</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U44" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9115572021483088</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H45" t="n">
-        <v>8.803723504958668</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I45" t="n">
-        <v>31.38475454765011</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J45" t="n">
-        <v>86.12216531349441</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K45" t="n">
-        <v>147.1964978574311</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L45" t="n">
-        <v>197.9238565454037</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M45" t="n">
         <v>230.9678051232798</v>
@@ -34460,25 +34462,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>174.0674450312854</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q45" t="n">
-        <v>116.3594772426508</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R45" t="n">
-        <v>56.59650769127835</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S45" t="n">
-        <v>16.93177522411441</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T45" t="n">
-        <v>3.674215213922349</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H46" t="n">
-        <v>6.794601095219366</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I46" t="n">
-        <v>22.98214767176447</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J46" t="n">
-        <v>54.03027885227092</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K46" t="n">
-        <v>88.78834560010574</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L46" t="n">
-        <v>113.6185136106518</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M46" t="n">
-        <v>119.7947921113164</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N46" t="n">
-        <v>116.9463397094352</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O46" t="n">
-        <v>108.0188730352461</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P46" t="n">
-        <v>92.4288067186077</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q46" t="n">
-        <v>63.99291481397294</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R46" t="n">
-        <v>34.36206238952449</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S46" t="n">
-        <v>13.31825184001586</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T46" t="n">
-        <v>3.265299094839569</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35705,7 +35707,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -36294,7 +36296,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-1.733724275254644e-12</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-2.614797267597169e-12</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_5_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_5_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2670140.129619936</v>
+        <v>2634607.314095026</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9268121.066567235</v>
+        <v>8261774.390753613</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7447864.03564797</v>
+        <v>7676940.6519762</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>168.6305821736482</v>
+        <v>163.3941380122514</v>
       </c>
       <c r="C11" t="n">
-        <v>132.9287427806595</v>
+        <v>127.6922986192626</v>
       </c>
       <c r="D11" t="n">
-        <v>117.1017119808265</v>
+        <v>111.8652678194296</v>
       </c>
       <c r="E11" t="n">
-        <v>162.6996767046497</v>
+        <v>157.4632325432528</v>
       </c>
       <c r="F11" t="n">
-        <v>206.8915509790075</v>
+        <v>201.6551068176106</v>
       </c>
       <c r="G11" t="n">
-        <v>235.1427496368175</v>
+        <v>230.0228498178752</v>
       </c>
       <c r="H11" t="n">
-        <v>164.5666925768761</v>
+        <v>160.5238081626417</v>
       </c>
       <c r="I11" t="n">
-        <v>82.05160256401611</v>
+        <v>81.30823416509753</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23302,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>37.4370205119551</v>
       </c>
       <c r="R11" t="n">
-        <v>46.44683639615485</v>
+        <v>48.53127078646739</v>
       </c>
       <c r="S11" t="n">
-        <v>56.88026024196657</v>
+        <v>54.29957028425233</v>
       </c>
       <c r="T11" t="n">
-        <v>28.85700962735419</v>
+        <v>24.13073832505204</v>
       </c>
       <c r="U11" t="n">
-        <v>58.35821574865151</v>
+        <v>53.13109513465101</v>
       </c>
       <c r="V11" t="n">
-        <v>118.6891308685534</v>
+        <v>113.4526867071566</v>
       </c>
       <c r="W11" t="n">
-        <v>127.473210346902</v>
+        <v>122.2367661855051</v>
       </c>
       <c r="X11" t="n">
-        <v>151.9295880689897</v>
+        <v>146.6931439075929</v>
       </c>
       <c r="Y11" t="n">
-        <v>185.4705599845266</v>
+        <v>180.2341158231298</v>
       </c>
     </row>
     <row r="12">
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.020583345960034</v>
+        <v>0.7841391845631733</v>
       </c>
       <c r="C12" t="n">
-        <v>25.24232421921459</v>
+        <v>20.00588005781773</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>8.397197869108197</v>
+        <v>3.160753707711336</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>32.09302580710824</v>
+        <v>28.01483038119124</v>
       </c>
       <c r="T12" t="n">
-        <v>51.25504050968051</v>
+        <v>46.26993769135471</v>
       </c>
       <c r="U12" t="n">
-        <v>68.44338284895298</v>
+        <v>63.21104110338426</v>
       </c>
       <c r="V12" t="n">
-        <v>65.55793860170715</v>
+        <v>60.32149444031029</v>
       </c>
       <c r="W12" t="n">
-        <v>104.7968421419372</v>
+        <v>99.56039798054033</v>
       </c>
       <c r="X12" t="n">
-        <v>49.01782378648693</v>
+        <v>43.78137962509007</v>
       </c>
       <c r="Y12" t="n">
-        <v>66.43225345329148</v>
+        <v>61.19580929189462</v>
       </c>
     </row>
     <row r="13">
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.597771297603</v>
+        <v>45.71192621895698</v>
       </c>
       <c r="S13" t="n">
-        <v>61.72801266683133</v>
+        <v>57.40262763233163</v>
       </c>
       <c r="T13" t="n">
-        <v>25.24595626512402</v>
+        <v>20.23288079941921</v>
       </c>
       <c r="U13" t="n">
-        <v>103.4044160156256</v>
+        <v>98.17082336949292</v>
       </c>
       <c r="V13" t="n">
-        <v>42.63089845407839</v>
+        <v>37.39445429268153</v>
       </c>
       <c r="W13" t="n">
-        <v>107.7444832740073</v>
+        <v>102.5080391126105</v>
       </c>
       <c r="X13" t="n">
-        <v>25.40299051526335</v>
+        <v>20.16654635386649</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.94508916828755</v>
+        <v>19.70864500689069</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>168.6305821736482</v>
+        <v>163.3941380122514</v>
       </c>
       <c r="C14" t="n">
-        <v>132.9287427806595</v>
+        <v>127.6922986192626</v>
       </c>
       <c r="D14" t="n">
-        <v>117.1017119808264</v>
+        <v>111.8652678194296</v>
       </c>
       <c r="E14" t="n">
-        <v>162.6996767046496</v>
+        <v>157.4632325432528</v>
       </c>
       <c r="F14" t="n">
-        <v>206.8915509790075</v>
+        <v>201.6551068176106</v>
       </c>
       <c r="G14" t="n">
-        <v>235.1427496368175</v>
+        <v>230.0228498178752</v>
       </c>
       <c r="H14" t="n">
-        <v>164.5666925768761</v>
+        <v>160.5238081626417</v>
       </c>
       <c r="I14" t="n">
-        <v>82.05160256401608</v>
+        <v>81.30823416509753</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23539,31 +23539,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>68.53615246523702</v>
       </c>
       <c r="R14" t="n">
-        <v>46.44683639615482</v>
+        <v>48.53127078646739</v>
       </c>
       <c r="S14" t="n">
-        <v>56.88026024196655</v>
+        <v>54.29957028425233</v>
       </c>
       <c r="T14" t="n">
-        <v>28.85700962735416</v>
+        <v>24.13073832505204</v>
       </c>
       <c r="U14" t="n">
-        <v>58.35821574865148</v>
+        <v>53.13109513465101</v>
       </c>
       <c r="V14" t="n">
-        <v>118.6891308685534</v>
+        <v>113.4526867071566</v>
       </c>
       <c r="W14" t="n">
-        <v>127.4732103469019</v>
+        <v>122.2367661855051</v>
       </c>
       <c r="X14" t="n">
-        <v>151.9295880689897</v>
+        <v>146.6931439075929</v>
       </c>
       <c r="Y14" t="n">
-        <v>185.4705599845266</v>
+        <v>180.2341158231298</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.020583345960006</v>
+        <v>0.7841391845631733</v>
       </c>
       <c r="C15" t="n">
-        <v>25.24232421921457</v>
+        <v>20.00588005781773</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>8.397197869108169</v>
+        <v>3.160753707711336</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>32.09302580710821</v>
+        <v>28.01483038119124</v>
       </c>
       <c r="T15" t="n">
-        <v>51.25504050968048</v>
+        <v>46.26993769135471</v>
       </c>
       <c r="U15" t="n">
-        <v>68.44338284895295</v>
+        <v>63.21104110338426</v>
       </c>
       <c r="V15" t="n">
-        <v>65.55793860170712</v>
+        <v>60.32149444031029</v>
       </c>
       <c r="W15" t="n">
-        <v>104.7968421419372</v>
+        <v>99.56039798054033</v>
       </c>
       <c r="X15" t="n">
-        <v>49.0178237864869</v>
+        <v>43.78137962509007</v>
       </c>
       <c r="Y15" t="n">
-        <v>66.43225345329145</v>
+        <v>61.19580929189462</v>
       </c>
     </row>
     <row r="16">
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.59777129760297</v>
+        <v>45.71192621895698</v>
       </c>
       <c r="S16" t="n">
-        <v>61.7280126668313</v>
+        <v>57.40262763233163</v>
       </c>
       <c r="T16" t="n">
-        <v>25.24595626512399</v>
+        <v>20.23288079941921</v>
       </c>
       <c r="U16" t="n">
-        <v>103.4044160156256</v>
+        <v>98.17082336949292</v>
       </c>
       <c r="V16" t="n">
-        <v>42.63089845407836</v>
+        <v>37.39445429268153</v>
       </c>
       <c r="W16" t="n">
-        <v>107.7444832740073</v>
+        <v>102.5080391126105</v>
       </c>
       <c r="X16" t="n">
-        <v>25.40299051526333</v>
+        <v>20.16654635386649</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.94508916828752</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="17">
@@ -23731,31 +23731,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>168.6305821736482</v>
+        <v>163.3941380122514</v>
       </c>
       <c r="C17" t="n">
-        <v>132.9287427806595</v>
+        <v>127.6922986192626</v>
       </c>
       <c r="D17" t="n">
-        <v>117.1017119808265</v>
+        <v>111.8652678194296</v>
       </c>
       <c r="E17" t="n">
-        <v>162.6996767046497</v>
+        <v>157.4632325432528</v>
       </c>
       <c r="F17" t="n">
-        <v>206.8915509790075</v>
+        <v>201.6551068176106</v>
       </c>
       <c r="G17" t="n">
-        <v>235.1427496368175</v>
+        <v>230.0228498178752</v>
       </c>
       <c r="H17" t="n">
-        <v>164.5666925768761</v>
+        <v>160.5238081626417</v>
       </c>
       <c r="I17" t="n">
-        <v>82.05160256401611</v>
+        <v>81.30823416509753</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>68.01551485817851</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>46.44683639615485</v>
+        <v>48.53127078646739</v>
       </c>
       <c r="S17" t="n">
-        <v>56.88026024196657</v>
+        <v>54.29957028425233</v>
       </c>
       <c r="T17" t="n">
-        <v>28.85700962735419</v>
+        <v>24.13073832505204</v>
       </c>
       <c r="U17" t="n">
-        <v>58.35821574865151</v>
+        <v>53.13109513465101</v>
       </c>
       <c r="V17" t="n">
-        <v>118.6891308685534</v>
+        <v>113.4526867071566</v>
       </c>
       <c r="W17" t="n">
-        <v>127.473210346902</v>
+        <v>122.2367661855051</v>
       </c>
       <c r="X17" t="n">
-        <v>151.9295880689897</v>
+        <v>146.6931439075929</v>
       </c>
       <c r="Y17" t="n">
-        <v>185.4705599845266</v>
+        <v>180.2341158231298</v>
       </c>
     </row>
     <row r="18">
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.020583345960034</v>
+        <v>0.7841391845631733</v>
       </c>
       <c r="C18" t="n">
-        <v>25.24232421921459</v>
+        <v>20.00588005781773</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>8.397197869108197</v>
+        <v>3.160753707711336</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>32.09302580710824</v>
+        <v>28.01483038119124</v>
       </c>
       <c r="T18" t="n">
-        <v>51.25504050968051</v>
+        <v>46.26993769135471</v>
       </c>
       <c r="U18" t="n">
-        <v>68.44338284895298</v>
+        <v>63.21104110338426</v>
       </c>
       <c r="V18" t="n">
-        <v>65.55793860170715</v>
+        <v>60.32149444031029</v>
       </c>
       <c r="W18" t="n">
-        <v>104.7968421419372</v>
+        <v>99.56039798054033</v>
       </c>
       <c r="X18" t="n">
-        <v>49.01782378648693</v>
+        <v>43.78137962509007</v>
       </c>
       <c r="Y18" t="n">
-        <v>66.43225345329148</v>
+        <v>61.19580929189462</v>
       </c>
     </row>
     <row r="19">
@@ -23922,10 +23922,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>48.597771297603</v>
+        <v>45.71192621895698</v>
       </c>
       <c r="S19" t="n">
-        <v>61.72801266683133</v>
+        <v>57.40262763233163</v>
       </c>
       <c r="T19" t="n">
-        <v>25.24595626512402</v>
+        <v>20.23288079941921</v>
       </c>
       <c r="U19" t="n">
-        <v>103.4044160156256</v>
+        <v>98.17082336949292</v>
       </c>
       <c r="V19" t="n">
-        <v>42.63089845407839</v>
+        <v>37.39445429268153</v>
       </c>
       <c r="W19" t="n">
-        <v>107.7444832739979</v>
+        <v>102.5080391126105</v>
       </c>
       <c r="X19" t="n">
-        <v>25.40299051526335</v>
+        <v>20.16654635386649</v>
       </c>
       <c r="Y19" t="n">
-        <v>24.94508916828755</v>
+        <v>19.70864500689069</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>168.6305821736482</v>
+        <v>163.3941380122514</v>
       </c>
       <c r="C20" t="n">
-        <v>132.9287427806595</v>
+        <v>127.6922986192626</v>
       </c>
       <c r="D20" t="n">
-        <v>117.1017119808265</v>
+        <v>111.8652678194296</v>
       </c>
       <c r="E20" t="n">
-        <v>162.6996767046497</v>
+        <v>157.4632325432528</v>
       </c>
       <c r="F20" t="n">
-        <v>206.8915509790075</v>
+        <v>201.6551068176106</v>
       </c>
       <c r="G20" t="n">
-        <v>235.1427496368175</v>
+        <v>230.0228498178752</v>
       </c>
       <c r="H20" t="n">
-        <v>164.5666925768761</v>
+        <v>160.5238081626417</v>
       </c>
       <c r="I20" t="n">
-        <v>82.05160256401611</v>
+        <v>81.30823416509753</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24004,10 +24004,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>40.40628433671543</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>46.44683639615485</v>
+        <v>48.53127078646739</v>
       </c>
       <c r="S20" t="n">
-        <v>56.88026024196657</v>
+        <v>54.29957028425233</v>
       </c>
       <c r="T20" t="n">
-        <v>28.85700962735419</v>
+        <v>24.13073832505204</v>
       </c>
       <c r="U20" t="n">
-        <v>58.35821574865151</v>
+        <v>53.13109513465101</v>
       </c>
       <c r="V20" t="n">
-        <v>118.6891308685534</v>
+        <v>113.4526867071566</v>
       </c>
       <c r="W20" t="n">
-        <v>127.473210346902</v>
+        <v>122.2367661855051</v>
       </c>
       <c r="X20" t="n">
-        <v>151.9295880689897</v>
+        <v>146.6931439075929</v>
       </c>
       <c r="Y20" t="n">
-        <v>185.4705599845266</v>
+        <v>180.2341158231298</v>
       </c>
     </row>
     <row r="21">
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.020583345960034</v>
+        <v>0.7841391845631733</v>
       </c>
       <c r="C21" t="n">
-        <v>25.24232421921459</v>
+        <v>20.00588005781773</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>8.397197869108197</v>
+        <v>3.160753707711336</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>32.09302580710824</v>
+        <v>28.01483038119124</v>
       </c>
       <c r="T21" t="n">
-        <v>51.25504050968051</v>
+        <v>46.26993769135471</v>
       </c>
       <c r="U21" t="n">
-        <v>68.44338284895298</v>
+        <v>63.21104110338426</v>
       </c>
       <c r="V21" t="n">
-        <v>65.55793860170715</v>
+        <v>60.32149444031029</v>
       </c>
       <c r="W21" t="n">
-        <v>104.7968421419372</v>
+        <v>99.56039798054033</v>
       </c>
       <c r="X21" t="n">
-        <v>49.01782378648693</v>
+        <v>43.78137962509007</v>
       </c>
       <c r="Y21" t="n">
-        <v>66.43225345329148</v>
+        <v>61.19580929189462</v>
       </c>
     </row>
     <row r="22">
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>48.597771297603</v>
+        <v>45.71192621895698</v>
       </c>
       <c r="S22" t="n">
-        <v>61.72801266683133</v>
+        <v>57.40262763233163</v>
       </c>
       <c r="T22" t="n">
-        <v>25.24595626512402</v>
+        <v>20.23288079941921</v>
       </c>
       <c r="U22" t="n">
-        <v>103.4044160156256</v>
+        <v>98.17082336949292</v>
       </c>
       <c r="V22" t="n">
-        <v>42.63089845407839</v>
+        <v>37.39445429268153</v>
       </c>
       <c r="W22" t="n">
-        <v>107.7444832740073</v>
+        <v>102.5080391126105</v>
       </c>
       <c r="X22" t="n">
-        <v>25.40299051526335</v>
+        <v>20.16654635386649</v>
       </c>
       <c r="Y22" t="n">
-        <v>24.94508916828755</v>
+        <v>19.70864500689069</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>168.6305821736482</v>
+        <v>153.7103478663124</v>
       </c>
       <c r="C23" t="n">
-        <v>132.9287427806595</v>
+        <v>118.0085084733236</v>
       </c>
       <c r="D23" t="n">
-        <v>117.1017119808265</v>
+        <v>102.1814776734906</v>
       </c>
       <c r="E23" t="n">
-        <v>162.6996767046497</v>
+        <v>147.7794423973138</v>
       </c>
       <c r="F23" t="n">
-        <v>206.8915509790075</v>
+        <v>191.9713166716716</v>
       </c>
       <c r="G23" t="n">
-        <v>235.1427496368175</v>
+        <v>220.3390596719362</v>
       </c>
       <c r="H23" t="n">
-        <v>164.5666925768761</v>
+        <v>150.8400180167027</v>
       </c>
       <c r="I23" t="n">
-        <v>82.05160256401611</v>
+        <v>71.62444401915855</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>46.44683639615485</v>
+        <v>38.8474806405284</v>
       </c>
       <c r="S23" t="n">
-        <v>56.88026024196657</v>
+        <v>44.61578013831334</v>
       </c>
       <c r="T23" t="n">
-        <v>28.85700962735419</v>
+        <v>14.44694817911305</v>
       </c>
       <c r="U23" t="n">
-        <v>58.35821574865151</v>
+        <v>43.44730498871203</v>
       </c>
       <c r="V23" t="n">
-        <v>118.6891308685534</v>
+        <v>103.7688965612176</v>
       </c>
       <c r="W23" t="n">
-        <v>127.473210346902</v>
+        <v>112.5529760395661</v>
       </c>
       <c r="X23" t="n">
-        <v>151.9295880689897</v>
+        <v>137.0093537616539</v>
       </c>
       <c r="Y23" t="n">
-        <v>185.4705599845266</v>
+        <v>170.5503256771908</v>
       </c>
     </row>
     <row r="24">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.020583345960034</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>25.24232421921459</v>
+        <v>10.32208991187875</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>8.397197869108197</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24323,7 +24323,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>32.09302580710824</v>
+        <v>18.33104023525225</v>
       </c>
       <c r="T24" t="n">
-        <v>51.25504050968051</v>
+        <v>36.58614754541573</v>
       </c>
       <c r="U24" t="n">
-        <v>68.44338284895298</v>
+        <v>53.52725095744528</v>
       </c>
       <c r="V24" t="n">
-        <v>65.55793860170715</v>
+        <v>50.6377042943713</v>
       </c>
       <c r="W24" t="n">
-        <v>104.7968421419372</v>
+        <v>89.87660783460134</v>
       </c>
       <c r="X24" t="n">
-        <v>49.01782378648693</v>
+        <v>34.09758947915108</v>
       </c>
       <c r="Y24" t="n">
-        <v>66.43225345329148</v>
+        <v>51.51201914595563</v>
       </c>
     </row>
     <row r="25">
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>48.597771297603</v>
+        <v>36.028136073018</v>
       </c>
       <c r="S25" t="n">
-        <v>61.72801266683133</v>
+        <v>47.71883748639264</v>
       </c>
       <c r="T25" t="n">
-        <v>25.24595626512402</v>
+        <v>10.54909065348023</v>
       </c>
       <c r="U25" t="n">
-        <v>103.4044160156256</v>
+        <v>88.48703322355394</v>
       </c>
       <c r="V25" t="n">
-        <v>42.63089845407839</v>
+        <v>27.71066414674254</v>
       </c>
       <c r="W25" t="n">
-        <v>107.7444832740073</v>
+        <v>92.82424896667149</v>
       </c>
       <c r="X25" t="n">
-        <v>25.40299051526335</v>
+        <v>10.48275620792751</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.94508916828755</v>
+        <v>10.02485486095171</v>
       </c>
     </row>
     <row r="26">
@@ -24442,31 +24442,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>191.1965653899517</v>
+        <v>153.7103478663124</v>
       </c>
       <c r="C26" t="n">
-        <v>155.494725996963</v>
+        <v>118.0085084733236</v>
       </c>
       <c r="D26" t="n">
-        <v>139.6676951971299</v>
+        <v>102.1814776734906</v>
       </c>
       <c r="E26" t="n">
-        <v>185.2656599209532</v>
+        <v>147.7794423973138</v>
       </c>
       <c r="F26" t="n">
-        <v>229.457534195311</v>
+        <v>191.9713166716716</v>
       </c>
       <c r="G26" t="n">
-        <v>257.708732853121</v>
+        <v>220.3390596719362</v>
       </c>
       <c r="H26" t="n">
-        <v>187.1326757931796</v>
+        <v>150.8400180167027</v>
       </c>
       <c r="I26" t="n">
-        <v>104.6175857803196</v>
+        <v>71.62444401915855</v>
       </c>
       <c r="J26" t="n">
-        <v>138.5361013220425</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24475,7 +24475,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>7.902726181419155</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>69.01281961245834</v>
+        <v>38.8474806405284</v>
       </c>
       <c r="S26" t="n">
-        <v>79.44624345827006</v>
+        <v>44.61578013831334</v>
       </c>
       <c r="T26" t="n">
-        <v>51.42299284365768</v>
+        <v>14.44694817911305</v>
       </c>
       <c r="U26" t="n">
-        <v>80.92419896495501</v>
+        <v>43.44730498871203</v>
       </c>
       <c r="V26" t="n">
-        <v>141.2551140848569</v>
+        <v>103.7688965612176</v>
       </c>
       <c r="W26" t="n">
-        <v>150.0391935632055</v>
+        <v>112.5529760395661</v>
       </c>
       <c r="X26" t="n">
-        <v>174.4955712852932</v>
+        <v>137.0093537616539</v>
       </c>
       <c r="Y26" t="n">
-        <v>208.0365432008301</v>
+        <v>170.5503256771908</v>
       </c>
     </row>
     <row r="27">
@@ -24521,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>28.58656656226353</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>47.80830743551809</v>
+        <v>10.32208991187875</v>
       </c>
       <c r="D27" t="n">
-        <v>13.78804723880032</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>30.96318108541169</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>17.17065206358131</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.404209119014983</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>176.2610996859475</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65900902341173</v>
+        <v>18.33104023525225</v>
       </c>
       <c r="T27" t="n">
-        <v>73.82102372598399</v>
+        <v>36.58614754541573</v>
       </c>
       <c r="U27" t="n">
-        <v>91.00936606525647</v>
+        <v>53.52725095744528</v>
       </c>
       <c r="V27" t="n">
-        <v>88.12392181801064</v>
+        <v>50.6377042943713</v>
       </c>
       <c r="W27" t="n">
-        <v>127.3628253582407</v>
+        <v>89.87660783460134</v>
       </c>
       <c r="X27" t="n">
-        <v>71.58380700279042</v>
+        <v>34.09758947915108</v>
       </c>
       <c r="Y27" t="n">
-        <v>88.99823666959497</v>
+        <v>51.51201914595563</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.566129387607333</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.736175274625962</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.822218811564642</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>6.22132701055633</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24645,31 +24645,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>10.85209357518886</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>71.1637545139065</v>
+        <v>36.028136073018</v>
       </c>
       <c r="S28" t="n">
-        <v>84.29399588313483</v>
+        <v>47.71883748639264</v>
       </c>
       <c r="T28" t="n">
-        <v>47.81193948142752</v>
+        <v>10.54909065348023</v>
       </c>
       <c r="U28" t="n">
-        <v>125.9703992319291</v>
+        <v>88.48703322355394</v>
       </c>
       <c r="V28" t="n">
-        <v>65.19688167038188</v>
+        <v>27.71066414674254</v>
       </c>
       <c r="W28" t="n">
-        <v>130.3104664903108</v>
+        <v>92.82424896667149</v>
       </c>
       <c r="X28" t="n">
-        <v>47.96897373156685</v>
+        <v>10.48275620792751</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.51107238459105</v>
+        <v>10.02485486095171</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>191.1965653899518</v>
+        <v>153.7103478663124</v>
       </c>
       <c r="C29" t="n">
-        <v>155.494725996963</v>
+        <v>118.0085084733236</v>
       </c>
       <c r="D29" t="n">
-        <v>139.66769519713</v>
+        <v>102.1814776734906</v>
       </c>
       <c r="E29" t="n">
-        <v>185.2656599209532</v>
+        <v>147.7794423973138</v>
       </c>
       <c r="F29" t="n">
-        <v>229.457534195311</v>
+        <v>191.9713166716716</v>
       </c>
       <c r="G29" t="n">
-        <v>257.7087328531211</v>
+        <v>220.3390596719362</v>
       </c>
       <c r="H29" t="n">
-        <v>187.1326757931797</v>
+        <v>150.8400180167027</v>
       </c>
       <c r="I29" t="n">
-        <v>256.8632172184518</v>
+        <v>71.62444401915855</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24721,34 +24721,34 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>7.902726181419325</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>69.01281961245837</v>
+        <v>38.8474806405284</v>
       </c>
       <c r="S29" t="n">
-        <v>79.44624345827009</v>
+        <v>44.61578013831334</v>
       </c>
       <c r="T29" t="n">
-        <v>51.42299284365771</v>
+        <v>14.44694817911305</v>
       </c>
       <c r="U29" t="n">
-        <v>80.92419896495504</v>
+        <v>43.44730498871203</v>
       </c>
       <c r="V29" t="n">
-        <v>141.255114084857</v>
+        <v>103.7688965612176</v>
       </c>
       <c r="W29" t="n">
-        <v>150.0391935632055</v>
+        <v>112.5529760395661</v>
       </c>
       <c r="X29" t="n">
-        <v>174.4955712852933</v>
+        <v>137.0093537616539</v>
       </c>
       <c r="Y29" t="n">
-        <v>208.0365432008302</v>
+        <v>170.5503256771908</v>
       </c>
     </row>
     <row r="30">
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>28.58656656226356</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>47.80830743551812</v>
+        <v>10.32208991187875</v>
       </c>
       <c r="D30" t="n">
-        <v>13.78804723880035</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>30.96318108541172</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>17.17065206358134</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.404209119015011</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.288031610280086</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65900902341176</v>
+        <v>18.33104023525225</v>
       </c>
       <c r="T30" t="n">
-        <v>73.82102372598402</v>
+        <v>36.58614754541573</v>
       </c>
       <c r="U30" t="n">
-        <v>91.0093660652565</v>
+        <v>53.52725095744528</v>
       </c>
       <c r="V30" t="n">
-        <v>88.12392181801067</v>
+        <v>50.6377042943713</v>
       </c>
       <c r="W30" t="n">
-        <v>127.3628253582407</v>
+        <v>89.87660783460134</v>
       </c>
       <c r="X30" t="n">
-        <v>71.58380700279045</v>
+        <v>34.09758947915108</v>
       </c>
       <c r="Y30" t="n">
-        <v>88.998236669595</v>
+        <v>51.51201914595563</v>
       </c>
     </row>
     <row r="31">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.566129387607361</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.736175274625991</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.822218811564671</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>6.221327010556358</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24873,7 +24873,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>82.54274397298506</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -24882,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>177.8251616508563</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>71.16375451390653</v>
+        <v>36.028136073018</v>
       </c>
       <c r="S31" t="n">
-        <v>84.29399588313485</v>
+        <v>47.71883748639264</v>
       </c>
       <c r="T31" t="n">
-        <v>47.81193948142754</v>
+        <v>10.54909065348023</v>
       </c>
       <c r="U31" t="n">
-        <v>125.9703992319292</v>
+        <v>88.48703322355394</v>
       </c>
       <c r="V31" t="n">
-        <v>65.19688167038191</v>
+        <v>27.71066414674254</v>
       </c>
       <c r="W31" t="n">
-        <v>130.3104664903109</v>
+        <v>92.82424896667149</v>
       </c>
       <c r="X31" t="n">
-        <v>47.96897373156688</v>
+        <v>10.48275620792751</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.51107238459107</v>
+        <v>10.02485486095171</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>191.1965653899517</v>
+        <v>153.7103478663124</v>
       </c>
       <c r="C32" t="n">
-        <v>155.494725996963</v>
+        <v>118.0085084733236</v>
       </c>
       <c r="D32" t="n">
-        <v>139.6676951971299</v>
+        <v>102.1814776734906</v>
       </c>
       <c r="E32" t="n">
-        <v>185.2656599209532</v>
+        <v>147.7794423973138</v>
       </c>
       <c r="F32" t="n">
-        <v>229.457534195311</v>
+        <v>191.9713166716716</v>
       </c>
       <c r="G32" t="n">
-        <v>257.708732853121</v>
+        <v>220.3390596719362</v>
       </c>
       <c r="H32" t="n">
-        <v>187.1326757931796</v>
+        <v>150.8400180167027</v>
       </c>
       <c r="I32" t="n">
-        <v>104.6175857803196</v>
+        <v>71.62444401915855</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24958,34 +24958,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>7.902726181419325</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>69.01281961245834</v>
+        <v>38.8474806405284</v>
       </c>
       <c r="S32" t="n">
-        <v>79.44624345827006</v>
+        <v>44.61578013831334</v>
       </c>
       <c r="T32" t="n">
-        <v>51.42299284365768</v>
+        <v>14.44694817911305</v>
       </c>
       <c r="U32" t="n">
-        <v>80.92419896495501</v>
+        <v>43.44730498871203</v>
       </c>
       <c r="V32" t="n">
-        <v>141.2551140848569</v>
+        <v>103.7688965612176</v>
       </c>
       <c r="W32" t="n">
-        <v>150.0391935632055</v>
+        <v>112.5529760395661</v>
       </c>
       <c r="X32" t="n">
-        <v>174.4955712852932</v>
+        <v>137.0093537616539</v>
       </c>
       <c r="Y32" t="n">
-        <v>208.0365432008301</v>
+        <v>170.5503256771908</v>
       </c>
     </row>
     <row r="33">
@@ -24995,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28.58656656226353</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>47.80830743551809</v>
+        <v>10.32208991187875</v>
       </c>
       <c r="D33" t="n">
-        <v>13.78804723880032</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>30.96318108541169</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>17.17065206358131</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.404209119014983</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.288031610280058</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65900902341173</v>
+        <v>18.33104023525225</v>
       </c>
       <c r="T33" t="n">
-        <v>73.82102372598399</v>
+        <v>36.58614754541573</v>
       </c>
       <c r="U33" t="n">
-        <v>91.00936606525647</v>
+        <v>53.52725095744528</v>
       </c>
       <c r="V33" t="n">
-        <v>88.12392181801064</v>
+        <v>50.6377042943713</v>
       </c>
       <c r="W33" t="n">
-        <v>127.3628253582407</v>
+        <v>89.87660783460134</v>
       </c>
       <c r="X33" t="n">
-        <v>71.58380700279042</v>
+        <v>34.09758947915108</v>
       </c>
       <c r="Y33" t="n">
-        <v>88.99823666959497</v>
+        <v>51.51201914595563</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.566129387607333</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.736175274625962</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>2.822218811564642</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>6.22132701055633</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25110,40 +25110,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>82.54274397298506</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>125.0564400155399</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>177.8251616508563</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>238.136822589574</v>
+        <v>36.028136073018</v>
       </c>
       <c r="S34" t="n">
-        <v>251.2670639588023</v>
+        <v>47.71883748639264</v>
       </c>
       <c r="T34" t="n">
-        <v>93.75737425102109</v>
+        <v>10.54909065348023</v>
       </c>
       <c r="U34" t="n">
-        <v>125.9703992319291</v>
+        <v>88.48703322355394</v>
       </c>
       <c r="V34" t="n">
-        <v>65.19688167038188</v>
+        <v>27.71066414674254</v>
       </c>
       <c r="W34" t="n">
-        <v>130.3104664903108</v>
+        <v>92.82424896667149</v>
       </c>
       <c r="X34" t="n">
-        <v>47.96897373156685</v>
+        <v>10.48275620792751</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.51107238459105</v>
+        <v>10.02485486095171</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>191.1965653899517</v>
+        <v>153.7103478663124</v>
       </c>
       <c r="C35" t="n">
-        <v>155.494725996963</v>
+        <v>118.0085084733236</v>
       </c>
       <c r="D35" t="n">
-        <v>139.6676951971299</v>
+        <v>102.1814776734906</v>
       </c>
       <c r="E35" t="n">
-        <v>185.2656599209532</v>
+        <v>147.7794423973138</v>
       </c>
       <c r="F35" t="n">
-        <v>229.457534195311</v>
+        <v>191.9713166716716</v>
       </c>
       <c r="G35" t="n">
-        <v>257.708732853121</v>
+        <v>220.3390596719362</v>
       </c>
       <c r="H35" t="n">
-        <v>187.1326757931796</v>
+        <v>150.8400180167027</v>
       </c>
       <c r="I35" t="n">
-        <v>104.6175857803196</v>
+        <v>71.62444401915855</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>69.01281961245834</v>
+        <v>38.8474806405284</v>
       </c>
       <c r="S35" t="n">
-        <v>79.44624345827006</v>
+        <v>44.61578013831334</v>
       </c>
       <c r="T35" t="n">
-        <v>51.42299284365768</v>
+        <v>14.44694817911305</v>
       </c>
       <c r="U35" t="n">
-        <v>80.92419896495501</v>
+        <v>43.44730498871203</v>
       </c>
       <c r="V35" t="n">
-        <v>141.2551140848569</v>
+        <v>103.7688965612176</v>
       </c>
       <c r="W35" t="n">
-        <v>150.0391935632055</v>
+        <v>112.5529760395661</v>
       </c>
       <c r="X35" t="n">
-        <v>174.4955712852932</v>
+        <v>137.0093537616539</v>
       </c>
       <c r="Y35" t="n">
-        <v>208.0365432008301</v>
+        <v>170.5503256771908</v>
       </c>
     </row>
     <row r="36">
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28.58656656226353</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>47.80830743551809</v>
+        <v>10.32208991187875</v>
       </c>
       <c r="D36" t="n">
-        <v>13.78804723880032</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>30.96318108541169</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>17.17065206358131</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.404209119014983</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>71.05581126421109</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25271,7 +25271,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.288031610280058</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65900902341173</v>
+        <v>18.33104023525225</v>
       </c>
       <c r="T36" t="n">
-        <v>73.82102372598399</v>
+        <v>36.58614754541573</v>
       </c>
       <c r="U36" t="n">
-        <v>91.00936606525647</v>
+        <v>53.52725095744528</v>
       </c>
       <c r="V36" t="n">
-        <v>88.12392181801064</v>
+        <v>50.6377042943713</v>
       </c>
       <c r="W36" t="n">
-        <v>127.3628253582407</v>
+        <v>89.87660783460134</v>
       </c>
       <c r="X36" t="n">
-        <v>238.5568750784579</v>
+        <v>34.09758947915108</v>
       </c>
       <c r="Y36" t="n">
-        <v>88.99823666959497</v>
+        <v>51.51201914595563</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.566129387607333</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.736175274625962</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>169.7952868872321</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>6.22132701055633</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25356,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>10.85209357518886</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>71.1637545139065</v>
+        <v>36.028136073018</v>
       </c>
       <c r="S37" t="n">
-        <v>251.2670639588023</v>
+        <v>47.71883748639264</v>
       </c>
       <c r="T37" t="n">
-        <v>47.81193948142752</v>
+        <v>10.54909065348023</v>
       </c>
       <c r="U37" t="n">
-        <v>125.9703992319291</v>
+        <v>88.48703322355394</v>
       </c>
       <c r="V37" t="n">
-        <v>65.19688167038188</v>
+        <v>27.71066414674254</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3104664903108</v>
+        <v>92.82424896667149</v>
       </c>
       <c r="X37" t="n">
-        <v>47.96897373156685</v>
+        <v>10.48275620792751</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.51107238459105</v>
+        <v>10.02485486095171</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>191.1965653899517</v>
+        <v>163.3941380122513</v>
       </c>
       <c r="C38" t="n">
-        <v>155.494725996963</v>
+        <v>127.6922986192626</v>
       </c>
       <c r="D38" t="n">
-        <v>139.6676951971299</v>
+        <v>111.8652678194296</v>
       </c>
       <c r="E38" t="n">
-        <v>185.2656599209532</v>
+        <v>157.4632325432528</v>
       </c>
       <c r="F38" t="n">
-        <v>229.457534195311</v>
+        <v>201.6551068176106</v>
       </c>
       <c r="G38" t="n">
-        <v>257.708732853121</v>
+        <v>230.0228498178752</v>
       </c>
       <c r="H38" t="n">
-        <v>354.1057438688471</v>
+        <v>160.5238081626417</v>
       </c>
       <c r="I38" t="n">
-        <v>104.6175857803196</v>
+        <v>81.3082341650975</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25432,34 +25432,34 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>112.7596027362491</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>69.01281961245834</v>
+        <v>48.53127078646736</v>
       </c>
       <c r="S38" t="n">
-        <v>79.44624345827006</v>
+        <v>54.2995702842523</v>
       </c>
       <c r="T38" t="n">
-        <v>51.42299284365768</v>
+        <v>24.13073832505201</v>
       </c>
       <c r="U38" t="n">
-        <v>80.92419896495501</v>
+        <v>53.13109513465098</v>
       </c>
       <c r="V38" t="n">
-        <v>141.2551140848569</v>
+        <v>113.4526867071565</v>
       </c>
       <c r="W38" t="n">
-        <v>150.0391935632055</v>
+        <v>122.2367661855051</v>
       </c>
       <c r="X38" t="n">
-        <v>174.4955712852932</v>
+        <v>146.6931439075929</v>
       </c>
       <c r="Y38" t="n">
-        <v>208.0365432008301</v>
+        <v>180.2341158231297</v>
       </c>
     </row>
     <row r="39">
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.58656656226353</v>
+        <v>0.7841391845631449</v>
       </c>
       <c r="C39" t="n">
-        <v>47.80830743551809</v>
+        <v>20.00588005781771</v>
       </c>
       <c r="D39" t="n">
-        <v>13.78804723880032</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>30.96318108541169</v>
+        <v>3.160753707711308</v>
       </c>
       <c r="F39" t="n">
-        <v>17.17065206358131</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.404209119014983</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25499,7 +25499,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.288031610280058</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65900902341173</v>
+        <v>28.01483038119121</v>
       </c>
       <c r="T39" t="n">
-        <v>73.82102372598399</v>
+        <v>46.26993769135468</v>
       </c>
       <c r="U39" t="n">
-        <v>91.00936606525647</v>
+        <v>63.21104110338423</v>
       </c>
       <c r="V39" t="n">
-        <v>201.7106089128162</v>
+        <v>60.32149444031026</v>
       </c>
       <c r="W39" t="n">
-        <v>127.3628253582407</v>
+        <v>99.5603979805403</v>
       </c>
       <c r="X39" t="n">
-        <v>71.58380700279042</v>
+        <v>43.78137962509004</v>
       </c>
       <c r="Y39" t="n">
-        <v>88.99823666959497</v>
+        <v>61.19580929189459</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.566129387607333</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.736175274625962</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.822218811564642</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>6.22132701055633</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>10.85209357518886</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>71.1637545139065</v>
+        <v>45.71192621895695</v>
       </c>
       <c r="S40" t="n">
-        <v>84.29399588313483</v>
+        <v>57.4026276323316</v>
       </c>
       <c r="T40" t="n">
-        <v>47.81193948142752</v>
+        <v>20.23288079941918</v>
       </c>
       <c r="U40" t="n">
-        <v>125.9703992319291</v>
+        <v>98.17082336949289</v>
       </c>
       <c r="V40" t="n">
-        <v>65.19688167038188</v>
+        <v>37.3944542926815</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3104664903108</v>
+        <v>102.5080391126104</v>
       </c>
       <c r="X40" t="n">
-        <v>47.96897373156685</v>
+        <v>20.16654635386647</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.51107238459105</v>
+        <v>19.70864500689066</v>
       </c>
     </row>
     <row r="41">
@@ -25642,49 +25642,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G41" t="n">
-        <v>424.6818009287885</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H41" t="n">
-        <v>354.1057438688471</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I41" t="n">
-        <v>271.5906538559871</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J41" t="n">
-        <v>139.7090537154</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K41" t="n">
-        <v>126.1047343199522</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L41" t="n">
-        <v>95.87300011056811</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M41" t="n">
-        <v>54.69452290108308</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N41" t="n">
-        <v>48.00636714419443</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O41" t="n">
-        <v>67.21973758497694</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P41" t="n">
-        <v>114.0009215480153</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q41" t="n">
-        <v>164.6813718922237</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R41" t="n">
-        <v>235.9858876881258</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S41" t="n">
-        <v>246.4193115339375</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T41" t="n">
-        <v>218.3960609193252</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U41" t="n">
-        <v>247.8972670406225</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V41" t="n">
         <v>308.2281821605244</v>
@@ -25721,22 +25721,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>169.3772771946824</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H42" t="n">
-        <v>147.1527039470577</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I42" t="n">
-        <v>128.1921820022869</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J42" t="n">
-        <v>114.0976353962329</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K42" t="n">
-        <v>66.7265975729124</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L42" t="n">
-        <v>13.6876708920677</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -25745,25 +25745,25 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P42" t="n">
-        <v>31.73356832861344</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.1511249629769</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R42" t="n">
-        <v>176.2610996859475</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S42" t="n">
-        <v>221.6320770990792</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T42" t="n">
-        <v>240.7940918016515</v>
+        <v>241.0454331447207</v>
       </c>
       <c r="U42" t="n">
-        <v>257.9824341409239</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V42" t="n">
         <v>255.0969898936781</v>
@@ -25800,49 +25800,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G43" t="n">
-        <v>169.7092433502934</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H43" t="n">
-        <v>169.7952868872321</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I43" t="n">
-        <v>173.1943950862238</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J43" t="n">
-        <v>148.6412419518603</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K43" t="n">
-        <v>114.7844714143665</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L43" t="n">
-        <v>97.79680524136499</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M43" t="n">
-        <v>97.7648271869076</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N43" t="n">
-        <v>82.54274397298506</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O43" t="n">
-        <v>109.5837753944877</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P43" t="n">
-        <v>125.0564400155399</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q43" t="n">
-        <v>177.8251616508563</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R43" t="n">
-        <v>238.136822589574</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S43" t="n">
-        <v>251.2670639588023</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T43" t="n">
-        <v>214.785007557095</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U43" t="n">
-        <v>292.9434673075966</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V43" t="n">
         <v>232.1699497460494</v>
@@ -25873,55 +25873,55 @@
         <v>306.6407632727974</v>
       </c>
       <c r="E44" t="n">
-        <v>352.2387279966206</v>
+        <v>352.2387279966196</v>
       </c>
       <c r="F44" t="n">
         <v>396.4306022709785</v>
       </c>
       <c r="G44" t="n">
-        <v>424.6818009287885</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H44" t="n">
-        <v>354.1057438688471</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I44" t="n">
-        <v>271.5906538559871</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J44" t="n">
-        <v>139.7090537154</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K44" t="n">
-        <v>126.1047343199522</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L44" t="n">
-        <v>95.87300011056811</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M44" t="n">
-        <v>54.69452290108308</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N44" t="n">
-        <v>48.00636714419443</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O44" t="n">
-        <v>67.21973758497694</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P44" t="n">
-        <v>114.0009215480153</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q44" t="n">
-        <v>164.6813718922237</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R44" t="n">
-        <v>235.9858876881258</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S44" t="n">
-        <v>246.4193115339375</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T44" t="n">
-        <v>218.3960609193252</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U44" t="n">
-        <v>247.8972670406225</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
@@ -25958,22 +25958,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>169.3772771946824</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H45" t="n">
-        <v>147.1527039470577</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I45" t="n">
-        <v>128.1921820022869</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J45" t="n">
-        <v>114.0976353962329</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K45" t="n">
-        <v>66.7265975729124</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L45" t="n">
-        <v>13.6876708920677</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -25982,25 +25982,25 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P45" t="n">
-        <v>31.73356832861344</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.1511249629769</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R45" t="n">
-        <v>176.2610996859475</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S45" t="n">
-        <v>221.6320770990792</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T45" t="n">
-        <v>240.7940918016515</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U45" t="n">
-        <v>257.9824341409239</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V45" t="n">
         <v>255.0969898936781</v>
@@ -26037,49 +26037,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G46" t="n">
-        <v>169.7092433502934</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H46" t="n">
-        <v>169.7952868872321</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I46" t="n">
-        <v>173.1943950862238</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J46" t="n">
-        <v>148.6412419518603</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K46" t="n">
-        <v>114.7844714143665</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L46" t="n">
-        <v>97.79680524136499</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M46" t="n">
-        <v>97.7648271869076</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N46" t="n">
-        <v>82.54274397298506</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O46" t="n">
-        <v>109.5837753944877</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P46" t="n">
-        <v>125.0564400155399</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q46" t="n">
-        <v>177.8251616508563</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R46" t="n">
-        <v>238.136822589574</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S46" t="n">
-        <v>251.2670639588023</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T46" t="n">
-        <v>214.785007557095</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U46" t="n">
-        <v>292.9434673075966</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V46" t="n">
         <v>232.1699497460494</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>664620.4421790096</v>
+        <v>663237.4291895963</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>664620.4421790097</v>
+        <v>663237.4291895962</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>664620.4421790098</v>
+        <v>663237.4291895963</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>664620.4421790096</v>
+        <v>663237.4291895962</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>664620.4421790096</v>
+        <v>685632.549632701</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>612433.4467536573</v>
+        <v>685632.5496327006</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>612433.4467536573</v>
+        <v>685632.5496327005</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>612433.4467536575</v>
+        <v>685632.5496327005</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>612433.4467536574</v>
+        <v>685632.549632701</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>612433.4467536573</v>
+        <v>663237.4291895963</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>226284.8505991459</v>
+        <v>212791.8273843199</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>226284.8505991459</v>
+        <v>212791.82738432</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>922216.895788486</v>
+      </c>
+      <c r="C2" t="n">
+        <v>922216.895788486</v>
+      </c>
+      <c r="D2" t="n">
         <v>922216.8957884862</v>
       </c>
-      <c r="C2" t="n">
-        <v>922216.8957884862</v>
-      </c>
-      <c r="D2" t="n">
-        <v>922216.8957884861</v>
-      </c>
       <c r="E2" t="n">
-        <v>745180.4957764653</v>
+        <v>743629.8448489414</v>
       </c>
       <c r="F2" t="n">
-        <v>745180.4957764654</v>
+        <v>743629.8448489415</v>
       </c>
       <c r="G2" t="n">
-        <v>745180.4957764653</v>
+        <v>743629.8448489417</v>
       </c>
       <c r="H2" t="n">
-        <v>745180.4957764655</v>
+        <v>743629.8448489414</v>
       </c>
       <c r="I2" t="n">
-        <v>745180.4957764653</v>
+        <v>768739.5253457554</v>
       </c>
       <c r="J2" t="n">
-        <v>686667.8039359187</v>
+        <v>768739.5253457549</v>
       </c>
       <c r="K2" t="n">
-        <v>686667.8039359185</v>
+        <v>768739.5253457549</v>
       </c>
       <c r="L2" t="n">
-        <v>686667.8039359185</v>
+        <v>768739.5253457549</v>
       </c>
       <c r="M2" t="n">
-        <v>686667.8039359186</v>
+        <v>768739.5253457554</v>
       </c>
       <c r="N2" t="n">
-        <v>686667.8039359186</v>
+        <v>743629.8448489417</v>
       </c>
       <c r="O2" t="n">
-        <v>253713.3173384364</v>
+        <v>238584.7761581769</v>
       </c>
       <c r="P2" t="n">
-        <v>253713.3173384364</v>
+        <v>238584.7761581769</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>515399.7012546516</v>
+        <v>496297.8780864711</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7747.032116751161</v>
       </c>
       <c r="J3" t="n">
-        <v>133578.454460534</v>
+        <v>155820.3963626943</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="C4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="D4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="E4" t="n">
-        <v>303257.6045133186</v>
+        <v>311635.7804181181</v>
       </c>
       <c r="F4" t="n">
-        <v>303257.6045133186</v>
+        <v>311635.7804181181</v>
       </c>
       <c r="G4" t="n">
-        <v>303257.6045133187</v>
+        <v>311635.7804181181</v>
       </c>
       <c r="H4" t="n">
-        <v>303257.6045133186</v>
+        <v>311635.7804181181</v>
       </c>
       <c r="I4" t="n">
-        <v>303257.6045133186</v>
+        <v>327129.5954512186</v>
       </c>
       <c r="J4" t="n">
-        <v>267152.6120749932</v>
+        <v>327129.5954512184</v>
       </c>
       <c r="K4" t="n">
-        <v>267152.6120749931</v>
+        <v>327129.5954512183</v>
       </c>
       <c r="L4" t="n">
-        <v>267152.6120749933</v>
+        <v>327129.5954512183</v>
       </c>
       <c r="M4" t="n">
-        <v>267152.6120749933</v>
+        <v>327129.5954512186</v>
       </c>
       <c r="N4" t="n">
-        <v>267152.6120749932</v>
+        <v>311635.7804181182</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547400369099045e-11</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547400369099045e-11</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>25805.06154104121</v>
+        <v>25613.29333220037</v>
       </c>
       <c r="F5" t="n">
-        <v>25805.06154104121</v>
+        <v>25613.29333220037</v>
       </c>
       <c r="G5" t="n">
-        <v>25805.06154104121</v>
+        <v>25613.29333220037</v>
       </c>
       <c r="H5" t="n">
-        <v>25805.06154104121</v>
+        <v>25613.29333220037</v>
       </c>
       <c r="I5" t="n">
-        <v>25805.06154104121</v>
+        <v>26427.39988597932</v>
       </c>
       <c r="J5" t="n">
-        <v>23907.96189802979</v>
+        <v>26427.39988597932</v>
       </c>
       <c r="K5" t="n">
-        <v>23907.96189802979</v>
+        <v>26427.39988597932</v>
       </c>
       <c r="L5" t="n">
-        <v>23907.96189802979</v>
+        <v>26427.39988597932</v>
       </c>
       <c r="M5" t="n">
-        <v>23907.96189802979</v>
+        <v>26427.39988597932</v>
       </c>
       <c r="N5" t="n">
-        <v>23907.96189802979</v>
+        <v>25613.29333220037</v>
       </c>
       <c r="O5" t="n">
-        <v>9870.703037976498</v>
+        <v>9238.712204931195</v>
       </c>
       <c r="P5" t="n">
-        <v>9870.703037976498</v>
+        <v>9238.712204931195</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>319539.52211415</v>
+        <v>319486.7830539574</v>
       </c>
       <c r="C6" t="n">
-        <v>319539.52211415</v>
+        <v>319486.7830539574</v>
       </c>
       <c r="D6" t="n">
-        <v>319539.5221141499</v>
+        <v>319486.7830539576</v>
       </c>
       <c r="E6" t="n">
-        <v>-99281.87153254612</v>
+        <v>-94796.52310046081</v>
       </c>
       <c r="F6" t="n">
-        <v>416117.8297221056</v>
+        <v>401501.3549860104</v>
       </c>
       <c r="G6" t="n">
-        <v>416117.8297221054</v>
+        <v>401501.3549860105</v>
       </c>
       <c r="H6" t="n">
-        <v>416117.8297221058</v>
+        <v>401501.3549860103</v>
       </c>
       <c r="I6" t="n">
-        <v>416117.8297221055</v>
+        <v>403234.7217926211</v>
       </c>
       <c r="J6" t="n">
-        <v>262028.7755023618</v>
+        <v>255161.3575466777</v>
       </c>
       <c r="K6" t="n">
-        <v>395607.2299628956</v>
+        <v>410981.7539093721</v>
       </c>
       <c r="L6" t="n">
-        <v>395607.2299628954</v>
+        <v>410981.7539093721</v>
       </c>
       <c r="M6" t="n">
-        <v>395607.2299628956</v>
+        <v>410981.7539093723</v>
       </c>
       <c r="N6" t="n">
-        <v>395607.2299628956</v>
+        <v>401501.3549860105</v>
       </c>
       <c r="O6" t="n">
-        <v>243842.6143004599</v>
+        <v>210816.781119261</v>
       </c>
       <c r="P6" t="n">
-        <v>243842.6143004599</v>
+        <v>210816.781119261</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="F2" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="G2" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="H2" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="I2" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="J2" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="K2" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="L2" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="M2" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="N2" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.7845430264449</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="F3" t="n">
-        <v>452.7845430264449</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="G3" t="n">
-        <v>452.7845430264449</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="H3" t="n">
-        <v>452.7845430264449</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="I3" t="n">
-        <v>452.7845430264449</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="J3" t="n">
-        <v>452.7845430264449</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="K3" t="n">
-        <v>452.7845430264449</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="L3" t="n">
-        <v>452.7845430264449</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="M3" t="n">
-        <v>452.7845430264449</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="N3" t="n">
-        <v>452.7845430264449</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="O3" t="n">
-        <v>452.7845430264449</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="P3" t="n">
-        <v>452.7845430264449</v>
+        <v>423.7941378408804</v>
       </c>
     </row>
     <row r="4">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,10 +26928,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9.683790145938952</v>
       </c>
       <c r="J2" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.7845430264449</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,10 +27165,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.683790145938952</v>
       </c>
       <c r="O2" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28089,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="C11" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="D11" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="E11" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="F11" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="G11" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="H11" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="I11" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="J11" t="n">
-        <v>139.7090537154</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K11" t="n">
-        <v>126.1047343199522</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L11" t="n">
-        <v>95.87300011056811</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M11" t="n">
-        <v>54.69452290108308</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N11" t="n">
-        <v>48.00636714419443</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O11" t="n">
-        <v>67.21973758497694</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P11" t="n">
-        <v>114.0009215480153</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q11" t="n">
-        <v>164.6813718922237</v>
+        <v>139.8298292415053</v>
       </c>
       <c r="R11" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="S11" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="T11" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="U11" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="V11" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="W11" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="X11" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="Y11" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
     </row>
     <row r="12">
@@ -28168,37 +28168,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="C12" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="D12" t="n">
         <v>180.7611153144678</v>
       </c>
       <c r="E12" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="F12" t="n">
         <v>184.1437201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>169.3772771946824</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H12" t="n">
-        <v>147.1527039470577</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I12" t="n">
-        <v>128.1921820022869</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J12" t="n">
-        <v>114.0976353962329</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K12" t="n">
-        <v>66.7265975729124</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L12" t="n">
-        <v>13.6876708920677</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -28207,37 +28207,37 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P12" t="n">
-        <v>31.73356832861344</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.1511249629769</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R12" t="n">
-        <v>176.2610996859475</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S12" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="T12" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="U12" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="V12" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="W12" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="X12" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="Y12" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
     </row>
     <row r="13">
@@ -28250,73 +28250,73 @@
         <v>173.5391974632748</v>
       </c>
       <c r="C13" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>138.8631356105373</v>
       </c>
       <c r="E13" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>169.7092433502934</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H13" t="n">
-        <v>169.7952868872321</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I13" t="n">
-        <v>173.1943950862238</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J13" t="n">
-        <v>148.6412419518603</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K13" t="n">
-        <v>114.7844714143665</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L13" t="n">
-        <v>97.79680524136499</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M13" t="n">
-        <v>97.7648271869076</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N13" t="n">
-        <v>82.54274397298506</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O13" t="n">
-        <v>109.5837753944877</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P13" t="n">
-        <v>125.0564400155399</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q13" t="n">
-        <v>177.8251616508563</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R13" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="S13" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="T13" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="U13" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="V13" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="W13" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="X13" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
     </row>
     <row r="14">
@@ -28326,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="C14" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="D14" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="E14" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="F14" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="G14" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="H14" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="I14" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="J14" t="n">
-        <v>139.7090537154</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K14" t="n">
-        <v>126.1047343199522</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L14" t="n">
-        <v>95.87300011056811</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M14" t="n">
-        <v>54.69452290108308</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N14" t="n">
-        <v>48.00636714419443</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O14" t="n">
-        <v>67.21973758497694</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P14" t="n">
-        <v>114.0009215480153</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q14" t="n">
-        <v>164.6813718922237</v>
+        <v>108.7306972882233</v>
       </c>
       <c r="R14" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="S14" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="T14" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="U14" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="V14" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="W14" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="X14" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="Y14" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
     </row>
     <row r="15">
@@ -28405,37 +28405,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="C15" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="D15" t="n">
         <v>180.7611153144678</v>
       </c>
       <c r="E15" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="F15" t="n">
         <v>184.1437201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>169.3772771946824</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H15" t="n">
-        <v>147.1527039470577</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I15" t="n">
-        <v>128.1921820022869</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J15" t="n">
-        <v>114.0976353962329</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K15" t="n">
-        <v>66.7265975729124</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L15" t="n">
-        <v>13.68767089206936</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -28444,37 +28444,37 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P15" t="n">
-        <v>31.73356832861344</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.1511249629769</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R15" t="n">
-        <v>176.2610996859475</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S15" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="T15" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="U15" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="V15" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="W15" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="X15" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="Y15" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
     </row>
     <row r="16">
@@ -28499,61 +28499,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>169.7092433502934</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H16" t="n">
-        <v>169.7952868872321</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I16" t="n">
-        <v>173.1943950862238</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J16" t="n">
-        <v>148.6412419518603</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K16" t="n">
-        <v>114.7844714143665</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L16" t="n">
-        <v>97.79680524136499</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M16" t="n">
-        <v>97.7648271869076</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N16" t="n">
-        <v>82.54274397298506</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O16" t="n">
-        <v>109.5837753944877</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P16" t="n">
-        <v>125.0564400155399</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q16" t="n">
-        <v>177.8251616508563</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R16" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="S16" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="T16" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="U16" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="V16" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="W16" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="X16" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.539051291971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28563,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="C17" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="D17" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="E17" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="F17" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="G17" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="H17" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="I17" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="J17" t="n">
-        <v>139.7090537154</v>
+        <v>81.58509424262172</v>
       </c>
       <c r="K17" t="n">
-        <v>126.1047343199522</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L17" t="n">
-        <v>95.87300011056811</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M17" t="n">
-        <v>54.69452290108308</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N17" t="n">
-        <v>48.00636714419443</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O17" t="n">
-        <v>67.21973758497694</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P17" t="n">
-        <v>114.0009215480153</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q17" t="n">
-        <v>164.6813718922237</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R17" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="S17" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="T17" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="U17" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="V17" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="W17" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="X17" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="Y17" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
     </row>
     <row r="18">
@@ -28642,37 +28642,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="C18" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="D18" t="n">
         <v>180.7611153144678</v>
       </c>
       <c r="E18" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="F18" t="n">
         <v>184.1437201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>169.3772771946824</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H18" t="n">
-        <v>147.1527039470577</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I18" t="n">
-        <v>128.1921820022869</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J18" t="n">
-        <v>114.0976353962329</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K18" t="n">
-        <v>66.7265975729124</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L18" t="n">
-        <v>13.6876708920677</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -28681,37 +28681,37 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P18" t="n">
-        <v>31.73356832861344</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.1511249629769</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R18" t="n">
-        <v>176.2610996859475</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S18" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="T18" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="U18" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="V18" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="W18" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="X18" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="Y18" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
     </row>
     <row r="19">
@@ -28736,61 +28736,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>169.7092433502934</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H19" t="n">
-        <v>169.7952868872321</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I19" t="n">
-        <v>173.1943950862238</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J19" t="n">
-        <v>148.6412419518603</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K19" t="n">
-        <v>114.7844714143665</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L19" t="n">
-        <v>97.79680524136499</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M19" t="n">
-        <v>97.7648271869076</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>82.54274397298506</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>109.5837753944877</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P19" t="n">
-        <v>125.0564400155399</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q19" t="n">
-        <v>177.8251616508563</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R19" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="S19" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="T19" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="U19" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="V19" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="W19" t="n">
-        <v>189.5390512919804</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="X19" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
     </row>
     <row r="20">
@@ -28800,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="C20" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="D20" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="E20" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="F20" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="G20" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="H20" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="I20" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="J20" t="n">
-        <v>139.7090537154</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K20" t="n">
-        <v>126.1047343199522</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L20" t="n">
-        <v>95.87300011056811</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M20" t="n">
-        <v>54.69452290108308</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N20" t="n">
-        <v>48.00636714419443</v>
+        <v>28.39538119249698</v>
       </c>
       <c r="O20" t="n">
-        <v>67.21973758497694</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>114.0009215480153</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q20" t="n">
-        <v>164.6813718922237</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R20" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="S20" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="T20" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="U20" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="V20" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="W20" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="X20" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="Y20" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
     </row>
     <row r="21">
@@ -28879,37 +28879,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="C21" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="D21" t="n">
         <v>180.7611153144678</v>
       </c>
       <c r="E21" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="F21" t="n">
         <v>184.1437201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>169.3772771946824</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H21" t="n">
-        <v>147.1527039470577</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I21" t="n">
-        <v>128.1921820022869</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J21" t="n">
-        <v>114.0976353962329</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K21" t="n">
-        <v>66.7265975729124</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L21" t="n">
-        <v>13.6876708920677</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -28918,37 +28918,37 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P21" t="n">
-        <v>31.73356832861344</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.1511249629769</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R21" t="n">
-        <v>176.2610996859475</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S21" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="T21" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="U21" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="V21" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="W21" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="X21" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="Y21" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
     </row>
     <row r="22">
@@ -28973,61 +28973,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>169.7092433502934</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H22" t="n">
-        <v>169.7952868872321</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I22" t="n">
-        <v>173.1943950862238</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J22" t="n">
-        <v>148.6412419518603</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K22" t="n">
-        <v>114.7844714143665</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L22" t="n">
-        <v>97.79680524136499</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M22" t="n">
-        <v>97.7648271869076</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N22" t="n">
-        <v>82.54274397298506</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O22" t="n">
-        <v>109.5837753944877</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P22" t="n">
-        <v>125.0564400155399</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q22" t="n">
-        <v>177.8251616508563</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R22" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="S22" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="T22" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="U22" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="V22" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="W22" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="X22" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.539051291971</v>
+        <v>194.7754954533678</v>
       </c>
     </row>
     <row r="23">
@@ -29037,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="C23" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="D23" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="E23" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="F23" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="G23" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="H23" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="I23" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="J23" t="n">
-        <v>139.7090537154</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K23" t="n">
-        <v>126.1047343199522</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L23" t="n">
-        <v>95.87300011056811</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M23" t="n">
-        <v>54.69452290108308</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N23" t="n">
-        <v>48.00636714419443</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O23" t="n">
-        <v>67.21973758497694</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P23" t="n">
-        <v>114.0009215480153</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q23" t="n">
-        <v>164.6813718922237</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R23" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="S23" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="T23" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="U23" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="V23" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="W23" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="X23" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="Y23" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
     </row>
     <row r="24">
@@ -29116,37 +29116,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>189.539051291971</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C24" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="D24" t="n">
         <v>180.7611153144678</v>
       </c>
       <c r="E24" t="n">
-        <v>189.539051291971</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F24" t="n">
         <v>184.1437201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>169.3772771946824</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H24" t="n">
-        <v>147.1527039470577</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I24" t="n">
-        <v>128.1921820022869</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J24" t="n">
-        <v>114.0976353962329</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K24" t="n">
-        <v>66.7265975729124</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L24" t="n">
-        <v>13.6876708920677</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -29158,34 +29158,34 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>31.73356832861344</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.1511249629769</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R24" t="n">
-        <v>176.2610996859475</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S24" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="T24" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="U24" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="V24" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="W24" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="X24" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="Y24" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
     </row>
     <row r="25">
@@ -29210,61 +29210,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>169.7092433502934</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H25" t="n">
-        <v>169.7952868872321</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I25" t="n">
-        <v>173.1943950862238</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J25" t="n">
-        <v>148.6412419518603</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K25" t="n">
-        <v>114.7844714143665</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L25" t="n">
-        <v>97.79680524136498</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M25" t="n">
-        <v>97.7648271869076</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N25" t="n">
-        <v>82.54274397298505</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O25" t="n">
-        <v>109.5837753944877</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P25" t="n">
-        <v>125.0564400155399</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q25" t="n">
-        <v>177.8251616508563</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R25" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="S25" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="T25" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="U25" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="V25" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="W25" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="X25" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="Y25" t="n">
-        <v>189.539051291971</v>
+        <v>204.4592855993068</v>
       </c>
     </row>
     <row r="26">
@@ -29274,76 +29274,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="C26" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="D26" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="E26" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="F26" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="G26" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="H26" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="I26" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="J26" t="n">
-        <v>1.172952393357575</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K26" t="n">
-        <v>126.1047343199522</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L26" t="n">
-        <v>95.87300011056811</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M26" t="n">
-        <v>54.69452290108308</v>
+        <v>67.25596349168295</v>
       </c>
       <c r="N26" t="n">
-        <v>48.00636714419443</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O26" t="n">
-        <v>67.21973758497694</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P26" t="n">
-        <v>114.0009215480153</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q26" t="n">
-        <v>164.6813718922237</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R26" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="S26" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="T26" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="U26" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="V26" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="W26" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="X26" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="Y26" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
     </row>
     <row r="27">
@@ -29353,37 +29353,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.9730680756675</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C27" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="D27" t="n">
-        <v>166.9730680756675</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E27" t="n">
-        <v>166.9730680756675</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F27" t="n">
-        <v>166.9730680756675</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>166.9730680756675</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H27" t="n">
-        <v>147.1527039470577</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I27" t="n">
-        <v>128.1921820022869</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J27" t="n">
-        <v>114.0976353962329</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K27" t="n">
-        <v>66.7265975729124</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L27" t="n">
-        <v>13.6876708920677</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -29392,37 +29392,37 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P27" t="n">
-        <v>31.73356832861344</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.1511249629769</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S27" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="T27" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="U27" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="V27" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="W27" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="X27" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="Y27" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
     </row>
     <row r="28">
@@ -29432,7 +29432,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166.9730680756675</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C28" t="n">
         <v>165.0035252842657</v>
@@ -29447,61 +29447,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G28" t="n">
-        <v>166.9730680756675</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H28" t="n">
-        <v>166.9730680756675</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I28" t="n">
-        <v>166.9730680756675</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J28" t="n">
-        <v>148.6412419518603</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K28" t="n">
-        <v>114.7844714143665</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L28" t="n">
-        <v>97.79680524136499</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M28" t="n">
-        <v>97.7648271869076</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N28" t="n">
-        <v>82.54274397298506</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O28" t="n">
-        <v>109.5837753944877</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P28" t="n">
-        <v>125.0564400155399</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q28" t="n">
-        <v>166.9730680756675</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R28" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="S28" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="T28" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="U28" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="V28" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="W28" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="X28" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="Y28" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
     </row>
     <row r="29">
@@ -29511,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="C29" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="D29" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="E29" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="F29" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="G29" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="H29" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="I29" t="n">
-        <v>14.72743663753527</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="J29" t="n">
-        <v>139.7090537154</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K29" t="n">
-        <v>126.1047343199522</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L29" t="n">
-        <v>95.87300011056811</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M29" t="n">
-        <v>54.69452290108308</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N29" t="n">
-        <v>48.00636714419443</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O29" t="n">
-        <v>67.21973758497694</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P29" t="n">
-        <v>114.0009215480153</v>
+        <v>122.8574174919855</v>
       </c>
       <c r="Q29" t="n">
-        <v>164.6813718922237</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R29" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="S29" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="T29" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="U29" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="V29" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="W29" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="X29" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="Y29" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
     </row>
     <row r="30">
@@ -29590,37 +29590,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.9730680756674</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C30" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="D30" t="n">
-        <v>166.9730680756674</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E30" t="n">
-        <v>166.9730680756674</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F30" t="n">
-        <v>166.9730680756674</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>166.9730680756674</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H30" t="n">
-        <v>147.1527039470577</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I30" t="n">
-        <v>128.1921820022869</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J30" t="n">
-        <v>114.0976353962329</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K30" t="n">
-        <v>66.7265975729124</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L30" t="n">
-        <v>13.6876708920677</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -29629,37 +29629,37 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P30" t="n">
-        <v>31.73356832861344</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.1511249629769</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R30" t="n">
-        <v>166.9730680756674</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S30" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="T30" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="U30" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="V30" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="W30" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="X30" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="Y30" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
     </row>
     <row r="31">
@@ -29669,7 +29669,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>166.9730680756674</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C31" t="n">
         <v>165.0035252842657</v>
@@ -29684,61 +29684,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>166.9730680756674</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H31" t="n">
-        <v>166.9730680756674</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I31" t="n">
-        <v>166.9730680756674</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J31" t="n">
-        <v>148.6412419518603</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K31" t="n">
-        <v>114.7844714143665</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L31" t="n">
-        <v>97.79680524136499</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M31" t="n">
-        <v>97.7648271869076</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O31" t="n">
-        <v>109.5837753944877</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P31" t="n">
-        <v>125.0564400155399</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R31" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="S31" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="T31" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="U31" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="V31" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="W31" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="X31" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="Y31" t="n">
-        <v>166.9730680756674</v>
+        <v>204.4592855993068</v>
       </c>
     </row>
     <row r="32">
@@ -29748,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="C32" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="D32" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="E32" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="F32" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="G32" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="H32" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="I32" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="J32" t="n">
-        <v>139.7090537154</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K32" t="n">
-        <v>126.1047343199522</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L32" t="n">
-        <v>95.87300011056811</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M32" t="n">
-        <v>54.69452290108308</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N32" t="n">
-        <v>48.00636714419443</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O32" t="n">
-        <v>67.21973758497694</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P32" t="n">
-        <v>114.0009215480153</v>
+        <v>122.8574174919855</v>
       </c>
       <c r="Q32" t="n">
-        <v>164.6813718922237</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R32" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="S32" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="T32" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="U32" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="V32" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="W32" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="X32" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="Y32" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
     </row>
     <row r="33">
@@ -29827,37 +29827,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.9730680756675</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C33" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="D33" t="n">
-        <v>166.9730680756675</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E33" t="n">
-        <v>166.9730680756675</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F33" t="n">
-        <v>166.9730680756675</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>166.9730680756675</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H33" t="n">
-        <v>147.1527039470577</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I33" t="n">
-        <v>128.1921820022869</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J33" t="n">
-        <v>114.0976353962329</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K33" t="n">
-        <v>66.7265975729124</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L33" t="n">
-        <v>13.6876708920677</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -29866,37 +29866,37 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P33" t="n">
-        <v>31.73356832861344</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.1511249629769</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R33" t="n">
-        <v>166.9730680756675</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S33" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="T33" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="U33" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="V33" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="W33" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="X33" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="Y33" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
     </row>
     <row r="34">
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>166.9730680756675</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C34" t="n">
         <v>165.0035252842657</v>
@@ -29921,61 +29921,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9730680756675</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H34" t="n">
-        <v>166.9730680756675</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I34" t="n">
-        <v>166.9730680756675</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J34" t="n">
-        <v>148.6412419518603</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K34" t="n">
-        <v>114.7844714143665</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L34" t="n">
-        <v>97.79680524136499</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M34" t="n">
-        <v>97.7648271869076</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5837753944877</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="T34" t="n">
-        <v>121.0276333060739</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="U34" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="V34" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="W34" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="X34" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="Y34" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
     </row>
     <row r="35">
@@ -29985,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="C35" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="D35" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="E35" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="F35" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="G35" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="H35" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="I35" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="J35" t="n">
-        <v>139.7090537154</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K35" t="n">
-        <v>126.1047343199522</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L35" t="n">
-        <v>95.87300011056811</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M35" t="n">
-        <v>54.69452290108308</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N35" t="n">
-        <v>48.00636714419443</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O35" t="n">
-        <v>67.21973758497694</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P35" t="n">
-        <v>114.0009215480153</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q35" t="n">
-        <v>164.6813718922237</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R35" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="S35" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="T35" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="U35" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="V35" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="W35" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="X35" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
     </row>
     <row r="36">
@@ -30064,37 +30064,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.9730680756675</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C36" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="D36" t="n">
-        <v>166.9730680756675</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E36" t="n">
-        <v>166.9730680756675</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F36" t="n">
-        <v>166.9730680756675</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>166.9730680756675</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H36" t="n">
-        <v>147.1527039470577</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I36" t="n">
-        <v>57.13637073807578</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J36" t="n">
-        <v>114.0976353962329</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K36" t="n">
-        <v>66.7265975729124</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L36" t="n">
-        <v>13.6876708920677</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -30106,34 +30106,34 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>31.73356832861344</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.1511249629769</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R36" t="n">
-        <v>166.9730680756675</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S36" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="T36" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="U36" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="V36" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="W36" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="Y36" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
     </row>
     <row r="37">
@@ -30143,7 +30143,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>166.9730680756675</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C37" t="n">
         <v>165.0035252842657</v>
@@ -30158,61 +30158,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9730680756675</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I37" t="n">
-        <v>166.9730680756675</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J37" t="n">
-        <v>148.6412419518603</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K37" t="n">
-        <v>114.7844714143665</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L37" t="n">
-        <v>97.79680524136499</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M37" t="n">
-        <v>97.7648271869076</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N37" t="n">
-        <v>82.54274397298506</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O37" t="n">
-        <v>109.5837753944877</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P37" t="n">
-        <v>125.0564400155399</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q37" t="n">
-        <v>166.9730680756675</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R37" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="T37" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="U37" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="V37" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="W37" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="X37" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
       <c r="Y37" t="n">
-        <v>166.9730680756675</v>
+        <v>204.4592855993068</v>
       </c>
     </row>
     <row r="38">
@@ -30222,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="C38" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="D38" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="E38" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="F38" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="G38" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="I38" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="J38" t="n">
-        <v>139.7090537154</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K38" t="n">
-        <v>126.1047343199522</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L38" t="n">
-        <v>95.87300011056811</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M38" t="n">
-        <v>54.69452290108308</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N38" t="n">
-        <v>48.00636714419443</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O38" t="n">
-        <v>67.21973758497694</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P38" t="n">
-        <v>114.0009215480153</v>
+        <v>18.00054093715575</v>
       </c>
       <c r="Q38" t="n">
-        <v>164.6813718922237</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R38" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="S38" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="T38" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="U38" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="V38" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="W38" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="X38" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
     </row>
     <row r="39">
@@ -30301,37 +30301,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="C39" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="D39" t="n">
-        <v>166.9730680756675</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E39" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="F39" t="n">
-        <v>166.9730680756675</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>166.9730680756675</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H39" t="n">
-        <v>147.1527039470577</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1921820022869</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J39" t="n">
-        <v>114.0976353962329</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K39" t="n">
-        <v>66.7265975729124</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L39" t="n">
-        <v>13.6876708920677</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -30340,37 +30340,37 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P39" t="n">
-        <v>31.73356832861344</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.1511249629769</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R39" t="n">
-        <v>166.9730680756675</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S39" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="T39" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="U39" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="V39" t="n">
-        <v>53.38638098086195</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="W39" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="X39" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="Y39" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
     </row>
     <row r="40">
@@ -30380,7 +30380,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>166.9730680756675</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C40" t="n">
         <v>165.0035252842657</v>
@@ -30395,61 +30395,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G40" t="n">
-        <v>166.9730680756675</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H40" t="n">
-        <v>166.9730680756675</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I40" t="n">
-        <v>166.9730680756675</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J40" t="n">
-        <v>148.6412419518603</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K40" t="n">
-        <v>114.7844714143665</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L40" t="n">
-        <v>97.79680524136499</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M40" t="n">
-        <v>97.7648271869076</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N40" t="n">
-        <v>82.54274397298506</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O40" t="n">
-        <v>109.5837753944877</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P40" t="n">
-        <v>125.0564400155399</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q40" t="n">
-        <v>166.9730680756675</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R40" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="S40" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="T40" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="U40" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="V40" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="W40" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="X40" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
       <c r="Y40" t="n">
-        <v>166.9730680756675</v>
+        <v>194.7754954533679</v>
       </c>
     </row>
     <row r="41">
@@ -30592,7 +30592,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1.879050374417654e-12</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30705,7 +30705,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.000901204463675e-12</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.820239368950531</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H11" t="n">
-        <v>18.64152643726463</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I11" t="n">
-        <v>70.1747782714654</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J11" t="n">
-        <v>154.4905411404652</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K11" t="n">
-        <v>231.5412736281413</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L11" t="n">
-        <v>287.2474242156611</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M11" t="n">
-        <v>319.6181060932351</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N11" t="n">
-        <v>324.7898612002658</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O11" t="n">
-        <v>306.689855975264</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P11" t="n">
-        <v>261.7526965542977</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q11" t="n">
-        <v>196.5653741537567</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R11" t="n">
-        <v>114.3406112598389</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S11" t="n">
-        <v>41.47870461996026</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T11" t="n">
-        <v>7.968097837580952</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9739139227361266</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H12" t="n">
-        <v>9.405958148530488</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I12" t="n">
-        <v>33.53168549771314</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J12" t="n">
-        <v>92.01350793710047</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K12" t="n">
-        <v>157.265740760421</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L12" t="n">
-        <v>211.4631962502279</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M12" t="n">
         <v>230.9678051232798</v>
@@ -31855,25 +31855,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>231.7188972222222</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P12" t="n">
-        <v>185.9748437196732</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q12" t="n">
-        <v>124.319257926808</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R12" t="n">
-        <v>60.46809425549392</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S12" t="n">
-        <v>18.09002395959427</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T12" t="n">
-        <v>3.925556556993421</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H13" t="n">
-        <v>7.259398083276448</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I13" t="n">
-        <v>24.55428308740131</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J13" t="n">
-        <v>57.72631788715838</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K13" t="n">
-        <v>94.86207311275349</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L13" t="n">
-        <v>121.3907937156472</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M13" t="n">
-        <v>127.9895717279506</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N13" t="n">
-        <v>124.9462657830189</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O13" t="n">
-        <v>115.4080995897568</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P13" t="n">
-        <v>98.7515665643249</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.37046599699318</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R13" t="n">
-        <v>36.71266147227534</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S13" t="n">
-        <v>14.22931096691302</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T13" t="n">
-        <v>3.488667790531623</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.820239368950531</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H14" t="n">
-        <v>18.64152643726463</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I14" t="n">
-        <v>70.1747782714654</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J14" t="n">
-        <v>154.4905411404652</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K14" t="n">
-        <v>231.5412736281413</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L14" t="n">
-        <v>287.2474242156611</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M14" t="n">
-        <v>319.6181060932351</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N14" t="n">
-        <v>324.7898612002658</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O14" t="n">
-        <v>306.689855975264</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P14" t="n">
-        <v>261.7526965542977</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q14" t="n">
-        <v>196.5653741537567</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R14" t="n">
-        <v>114.3406112598389</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S14" t="n">
-        <v>41.47870461996026</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T14" t="n">
-        <v>7.968097837580952</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9739139227361266</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H15" t="n">
-        <v>9.405958148530488</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I15" t="n">
-        <v>33.53168549771314</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J15" t="n">
-        <v>92.01350793710047</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K15" t="n">
-        <v>157.265740760421</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L15" t="n">
-        <v>211.4631962502279</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M15" t="n">
         <v>230.9678051232798</v>
@@ -32092,25 +32092,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>231.7188972222222</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P15" t="n">
-        <v>185.9748437196732</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.319257926808</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R15" t="n">
-        <v>60.46809425549392</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S15" t="n">
-        <v>18.09002395959427</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T15" t="n">
-        <v>3.925556556993421</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H16" t="n">
-        <v>7.259398083276448</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I16" t="n">
-        <v>24.55428308740131</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J16" t="n">
-        <v>57.72631788715838</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K16" t="n">
-        <v>94.86207311275349</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L16" t="n">
-        <v>121.3907937156472</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M16" t="n">
-        <v>127.9895717279506</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N16" t="n">
-        <v>124.9462657830189</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O16" t="n">
-        <v>115.4080995897568</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P16" t="n">
-        <v>98.7515665643249</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.37046599699318</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R16" t="n">
-        <v>36.71266147227534</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S16" t="n">
-        <v>14.22931096691302</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T16" t="n">
-        <v>3.488667790531623</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.820239368950531</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H17" t="n">
-        <v>18.64152643726463</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I17" t="n">
-        <v>70.1747782714654</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J17" t="n">
-        <v>154.4905411404652</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K17" t="n">
-        <v>231.5412736281413</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L17" t="n">
-        <v>287.2474242156611</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M17" t="n">
-        <v>319.6181060932351</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N17" t="n">
-        <v>324.7898612002658</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O17" t="n">
-        <v>306.689855975264</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P17" t="n">
-        <v>261.7526965542977</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q17" t="n">
-        <v>196.5653741537567</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R17" t="n">
-        <v>114.3406112598389</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S17" t="n">
-        <v>41.47870461996026</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T17" t="n">
-        <v>7.968097837580952</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9739139227361266</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H18" t="n">
-        <v>9.405958148530488</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I18" t="n">
-        <v>33.53168549771314</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J18" t="n">
-        <v>92.01350793710047</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K18" t="n">
-        <v>157.265740760421</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L18" t="n">
-        <v>211.4631962502279</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M18" t="n">
         <v>230.9678051232798</v>
@@ -32329,25 +32329,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>231.7188972222222</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P18" t="n">
-        <v>185.9748437196732</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q18" t="n">
-        <v>124.319257926808</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R18" t="n">
-        <v>60.46809425549392</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S18" t="n">
-        <v>18.09002395959427</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T18" t="n">
-        <v>3.925556556993421</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H19" t="n">
-        <v>7.259398083276448</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I19" t="n">
-        <v>24.55428308740131</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J19" t="n">
-        <v>57.72631788715838</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K19" t="n">
-        <v>94.86207311275349</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L19" t="n">
-        <v>121.3907937156472</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M19" t="n">
-        <v>127.9895717279506</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N19" t="n">
-        <v>124.9462657830189</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O19" t="n">
-        <v>115.4080995897568</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P19" t="n">
-        <v>98.7515665643249</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q19" t="n">
-        <v>68.37046599699318</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R19" t="n">
-        <v>36.71266147227534</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S19" t="n">
-        <v>14.22931096691302</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T19" t="n">
-        <v>3.488667790531623</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.820239368950531</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H20" t="n">
-        <v>18.64152643726463</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I20" t="n">
-        <v>70.1747782714654</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J20" t="n">
-        <v>154.4905411404652</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K20" t="n">
-        <v>231.5412736281413</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L20" t="n">
-        <v>287.2474242156611</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M20" t="n">
-        <v>319.6181060932351</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N20" t="n">
-        <v>324.7898612002658</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O20" t="n">
-        <v>306.689855975264</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P20" t="n">
-        <v>261.7526965542977</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q20" t="n">
-        <v>196.5653741537567</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R20" t="n">
-        <v>114.3406112598389</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S20" t="n">
-        <v>41.47870461996026</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T20" t="n">
-        <v>7.968097837580952</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9739139227361266</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H21" t="n">
-        <v>9.405958148530488</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I21" t="n">
-        <v>33.53168549771314</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J21" t="n">
-        <v>92.01350793710047</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K21" t="n">
-        <v>157.265740760421</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L21" t="n">
-        <v>211.4631962502279</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M21" t="n">
         <v>230.9678051232798</v>
@@ -32566,25 +32566,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>231.7188972222222</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P21" t="n">
-        <v>185.9748437196732</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q21" t="n">
-        <v>124.319257926808</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R21" t="n">
-        <v>60.46809425549392</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S21" t="n">
-        <v>18.09002395959427</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T21" t="n">
-        <v>3.925556556993421</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H22" t="n">
-        <v>7.259398083276448</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I22" t="n">
-        <v>24.55428308740131</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J22" t="n">
-        <v>57.72631788715838</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K22" t="n">
-        <v>94.86207311275349</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L22" t="n">
-        <v>121.3907937156472</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M22" t="n">
-        <v>127.9895717279506</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N22" t="n">
-        <v>124.9462657830189</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O22" t="n">
-        <v>115.4080995897568</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P22" t="n">
-        <v>98.7515665643249</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q22" t="n">
-        <v>68.37046599699318</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R22" t="n">
-        <v>36.71266147227534</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S22" t="n">
-        <v>14.22931096691302</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T22" t="n">
-        <v>3.488667790531623</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.820239368950531</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H23" t="n">
-        <v>18.64152643726463</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I23" t="n">
-        <v>70.1747782714654</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J23" t="n">
-        <v>154.4905411404652</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K23" t="n">
-        <v>231.5412736281413</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L23" t="n">
-        <v>287.2474242156611</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M23" t="n">
-        <v>319.6181060932351</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N23" t="n">
-        <v>324.7898612002658</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O23" t="n">
-        <v>306.689855975264</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P23" t="n">
-        <v>261.7526965542977</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q23" t="n">
-        <v>196.5653741537567</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R23" t="n">
-        <v>114.3406112598389</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S23" t="n">
-        <v>41.47870461996026</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T23" t="n">
-        <v>7.968097837580952</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9739139227361266</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H24" t="n">
-        <v>9.405958148530488</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I24" t="n">
-        <v>33.53168549771314</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J24" t="n">
-        <v>92.01350793710047</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K24" t="n">
-        <v>157.265740760421</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L24" t="n">
-        <v>211.4631962502279</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M24" t="n">
         <v>230.9678051232798</v>
@@ -32803,25 +32803,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>231.7188972222222</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P24" t="n">
-        <v>185.9748437196732</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q24" t="n">
-        <v>124.319257926808</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R24" t="n">
-        <v>60.46809425549392</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S24" t="n">
-        <v>18.09002395959427</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T24" t="n">
-        <v>3.925556556993421</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H25" t="n">
-        <v>7.259398083276448</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I25" t="n">
-        <v>24.55428308740131</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J25" t="n">
-        <v>57.72631788715838</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K25" t="n">
-        <v>94.86207311275349</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L25" t="n">
-        <v>121.3907937156472</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M25" t="n">
-        <v>127.9895717279506</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N25" t="n">
-        <v>124.9462657830189</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O25" t="n">
-        <v>115.4080995897568</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P25" t="n">
-        <v>98.7515665643249</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.37046599699318</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R25" t="n">
-        <v>36.71266147227534</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S25" t="n">
-        <v>14.22931096691302</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T25" t="n">
-        <v>3.488667790531623</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.820239368950531</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H26" t="n">
-        <v>18.64152643726463</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I26" t="n">
-        <v>70.1747782714654</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J26" t="n">
-        <v>154.4905411404652</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K26" t="n">
-        <v>231.5412736281413</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L26" t="n">
-        <v>287.2474242156611</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M26" t="n">
-        <v>319.6181060932351</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N26" t="n">
-        <v>324.7898612002658</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O26" t="n">
-        <v>306.689855975264</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P26" t="n">
-        <v>261.7526965542977</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q26" t="n">
-        <v>196.5653741537567</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R26" t="n">
-        <v>114.3406112598389</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S26" t="n">
-        <v>41.47870461996026</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T26" t="n">
-        <v>7.968097837580952</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9739139227361266</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H27" t="n">
-        <v>9.405958148530488</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I27" t="n">
-        <v>33.53168549771314</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J27" t="n">
-        <v>92.01350793710047</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K27" t="n">
-        <v>157.265740760421</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L27" t="n">
-        <v>211.4631962502279</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M27" t="n">
         <v>230.9678051232798</v>
@@ -33040,25 +33040,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>231.7188972222222</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P27" t="n">
-        <v>185.9748437196732</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q27" t="n">
-        <v>124.319257926808</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R27" t="n">
-        <v>60.46809425549392</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S27" t="n">
-        <v>18.09002395959427</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T27" t="n">
-        <v>3.925556556993421</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H28" t="n">
-        <v>7.259398083276448</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I28" t="n">
-        <v>24.55428308740131</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J28" t="n">
-        <v>57.72631788715838</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K28" t="n">
-        <v>94.86207311275349</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L28" t="n">
-        <v>121.3907937156472</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M28" t="n">
-        <v>127.9895717279506</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N28" t="n">
-        <v>124.9462657830189</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O28" t="n">
-        <v>115.4080995897568</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P28" t="n">
-        <v>98.7515665643249</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.37046599699318</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R28" t="n">
-        <v>36.71266147227534</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S28" t="n">
-        <v>14.22931096691302</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T28" t="n">
-        <v>3.488667790531623</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.820239368950531</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H29" t="n">
-        <v>18.64152643726463</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I29" t="n">
-        <v>70.1747782714654</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J29" t="n">
-        <v>154.4905411404652</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K29" t="n">
-        <v>231.5412736281413</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L29" t="n">
-        <v>287.2474242156611</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M29" t="n">
-        <v>319.6181060932351</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N29" t="n">
-        <v>324.7898612002658</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O29" t="n">
-        <v>306.689855975264</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P29" t="n">
-        <v>261.7526965542977</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q29" t="n">
-        <v>196.5653741537567</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R29" t="n">
-        <v>114.3406112598389</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S29" t="n">
-        <v>41.47870461996026</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T29" t="n">
-        <v>7.968097837580952</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9739139227361266</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H30" t="n">
-        <v>9.405958148530488</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I30" t="n">
-        <v>33.53168549771314</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J30" t="n">
-        <v>92.01350793710047</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K30" t="n">
-        <v>157.265740760421</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L30" t="n">
-        <v>211.4631962502279</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M30" t="n">
         <v>230.9678051232798</v>
@@ -33277,25 +33277,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>231.7188972222222</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P30" t="n">
-        <v>185.9748437196732</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q30" t="n">
-        <v>124.319257926808</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R30" t="n">
-        <v>60.46809425549392</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S30" t="n">
-        <v>18.09002395959427</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T30" t="n">
-        <v>3.925556556993421</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H31" t="n">
-        <v>7.259398083276448</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I31" t="n">
-        <v>24.55428308740131</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J31" t="n">
-        <v>57.72631788715838</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K31" t="n">
-        <v>94.86207311275349</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L31" t="n">
-        <v>121.3907937156472</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M31" t="n">
-        <v>127.9895717279506</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N31" t="n">
-        <v>124.9462657830189</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O31" t="n">
-        <v>115.4080995897568</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P31" t="n">
-        <v>98.7515665643249</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.37046599699318</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R31" t="n">
-        <v>36.71266147227534</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S31" t="n">
-        <v>14.22931096691302</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T31" t="n">
-        <v>3.488667790531623</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.820239368950531</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H32" t="n">
-        <v>18.64152643726463</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I32" t="n">
-        <v>70.1747782714654</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J32" t="n">
-        <v>154.4905411404652</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K32" t="n">
-        <v>231.5412736281413</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L32" t="n">
-        <v>287.2474242156611</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M32" t="n">
-        <v>319.6181060932351</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N32" t="n">
-        <v>324.7898612002658</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O32" t="n">
-        <v>306.689855975264</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P32" t="n">
-        <v>261.7526965542977</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q32" t="n">
-        <v>196.5653741537567</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R32" t="n">
-        <v>114.3406112598389</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S32" t="n">
-        <v>41.47870461996026</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T32" t="n">
-        <v>7.968097837580952</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9739139227361266</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H33" t="n">
-        <v>9.405958148530488</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I33" t="n">
-        <v>33.53168549771314</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J33" t="n">
-        <v>92.01350793710047</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K33" t="n">
-        <v>157.265740760421</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L33" t="n">
-        <v>211.4631962502279</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M33" t="n">
         <v>230.9678051232798</v>
@@ -33514,25 +33514,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>231.7188972222222</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P33" t="n">
-        <v>185.9748437196732</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q33" t="n">
-        <v>124.319257926808</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R33" t="n">
-        <v>60.46809425549392</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S33" t="n">
-        <v>18.09002395959427</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T33" t="n">
-        <v>3.925556556993421</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H34" t="n">
-        <v>7.259398083276448</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I34" t="n">
-        <v>24.55428308740131</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J34" t="n">
-        <v>57.72631788715838</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K34" t="n">
-        <v>94.86207311275349</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L34" t="n">
-        <v>121.3907937156472</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M34" t="n">
-        <v>127.9895717279506</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N34" t="n">
-        <v>124.9462657830189</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O34" t="n">
-        <v>115.4080995897568</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P34" t="n">
-        <v>98.7515665643249</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.37046599699318</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R34" t="n">
-        <v>36.71266147227534</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S34" t="n">
-        <v>14.22931096691302</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T34" t="n">
-        <v>3.488667790531623</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.820239368950531</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H35" t="n">
-        <v>18.64152643726463</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I35" t="n">
-        <v>70.1747782714654</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J35" t="n">
-        <v>154.4905411404652</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K35" t="n">
-        <v>231.5412736281413</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L35" t="n">
-        <v>287.2474242156611</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M35" t="n">
-        <v>319.6181060932351</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N35" t="n">
-        <v>324.7898612002658</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O35" t="n">
-        <v>306.689855975264</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P35" t="n">
-        <v>261.7526965542977</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q35" t="n">
-        <v>196.5653741537567</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R35" t="n">
-        <v>114.3406112598389</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S35" t="n">
-        <v>41.47870461996026</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T35" t="n">
-        <v>7.968097837580952</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9739139227361266</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H36" t="n">
-        <v>9.405958148530488</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I36" t="n">
-        <v>33.53168549771314</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J36" t="n">
-        <v>92.01350793710047</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K36" t="n">
-        <v>157.265740760421</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L36" t="n">
-        <v>211.4631962502279</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M36" t="n">
         <v>230.9678051232798</v>
@@ -33751,25 +33751,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>231.7188972222222</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P36" t="n">
-        <v>185.9748437196732</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q36" t="n">
-        <v>124.319257926808</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R36" t="n">
-        <v>60.46809425549392</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S36" t="n">
-        <v>18.09002395959427</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T36" t="n">
-        <v>3.925556556993421</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H37" t="n">
-        <v>7.259398083276448</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I37" t="n">
-        <v>24.55428308740131</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J37" t="n">
-        <v>57.72631788715838</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K37" t="n">
-        <v>94.86207311275349</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L37" t="n">
-        <v>121.3907937156472</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M37" t="n">
-        <v>127.9895717279506</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N37" t="n">
-        <v>124.9462657830189</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O37" t="n">
-        <v>115.4080995897568</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P37" t="n">
-        <v>98.7515665643249</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.37046599699318</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R37" t="n">
-        <v>36.71266147227534</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S37" t="n">
-        <v>14.22931096691302</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T37" t="n">
-        <v>3.488667790531623</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.820239368950531</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H38" t="n">
-        <v>18.64152643726463</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I38" t="n">
-        <v>70.1747782714654</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J38" t="n">
-        <v>154.4905411404652</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K38" t="n">
-        <v>231.5412736281413</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L38" t="n">
-        <v>287.2474242156611</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M38" t="n">
-        <v>319.6181060932351</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N38" t="n">
-        <v>324.7898612002658</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O38" t="n">
-        <v>306.689855975264</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P38" t="n">
-        <v>261.7526965542977</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q38" t="n">
-        <v>196.5653741537567</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R38" t="n">
-        <v>114.3406112598389</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S38" t="n">
-        <v>41.47870461996026</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T38" t="n">
-        <v>7.968097837580952</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9739139227361266</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H39" t="n">
-        <v>9.405958148530488</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I39" t="n">
-        <v>33.53168549771314</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J39" t="n">
-        <v>92.01350793710047</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K39" t="n">
-        <v>157.265740760421</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L39" t="n">
-        <v>211.4631962502279</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M39" t="n">
         <v>230.9678051232798</v>
@@ -33988,25 +33988,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>231.7188972222222</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P39" t="n">
-        <v>185.9748437196732</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q39" t="n">
-        <v>124.319257926808</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R39" t="n">
-        <v>60.46809425549392</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S39" t="n">
-        <v>18.09002395959427</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T39" t="n">
-        <v>3.925556556993421</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H40" t="n">
-        <v>7.259398083276448</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I40" t="n">
-        <v>24.55428308740131</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J40" t="n">
-        <v>57.72631788715838</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K40" t="n">
-        <v>94.86207311275349</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L40" t="n">
-        <v>121.3907937156472</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M40" t="n">
-        <v>127.9895717279506</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N40" t="n">
-        <v>124.9462657830189</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O40" t="n">
-        <v>115.4080995897568</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P40" t="n">
-        <v>98.7515665643249</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.37046599699318</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R40" t="n">
-        <v>36.71266147227534</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S40" t="n">
-        <v>14.22931096691302</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T40" t="n">
-        <v>3.488667790531623</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.820239368950531</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H41" t="n">
-        <v>18.64152643726463</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I41" t="n">
-        <v>70.1747782714654</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J41" t="n">
-        <v>154.4905411404652</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K41" t="n">
-        <v>231.5412736281413</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L41" t="n">
-        <v>287.2474242156611</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M41" t="n">
-        <v>319.6181060932351</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N41" t="n">
-        <v>324.7898612002658</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O41" t="n">
-        <v>306.689855975264</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P41" t="n">
-        <v>261.7526965542977</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q41" t="n">
-        <v>196.5653741537567</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R41" t="n">
-        <v>114.3406112598389</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S41" t="n">
-        <v>41.47870461996026</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T41" t="n">
-        <v>7.968097837580952</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9739139227361266</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H42" t="n">
-        <v>9.405958148530488</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I42" t="n">
-        <v>33.53168549771314</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J42" t="n">
-        <v>92.01350793710047</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K42" t="n">
-        <v>157.265740760421</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L42" t="n">
-        <v>211.4631962502279</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M42" t="n">
         <v>230.9678051232798</v>
@@ -34225,25 +34225,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>231.7188972222222</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P42" t="n">
-        <v>185.9748437196732</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q42" t="n">
-        <v>124.319257926808</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R42" t="n">
-        <v>60.46809425549392</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S42" t="n">
-        <v>18.09002395959427</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T42" t="n">
-        <v>3.925556556993421</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H43" t="n">
-        <v>7.259398083276448</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I43" t="n">
-        <v>24.55428308740131</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J43" t="n">
-        <v>57.72631788715838</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K43" t="n">
-        <v>94.86207311275349</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L43" t="n">
-        <v>121.3907937156472</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M43" t="n">
-        <v>127.9895717279506</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N43" t="n">
-        <v>124.9462657830189</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O43" t="n">
-        <v>115.4080995897568</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P43" t="n">
-        <v>98.7515665643249</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.37046599699318</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R43" t="n">
-        <v>36.71266147227534</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S43" t="n">
-        <v>14.22931096691302</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T43" t="n">
-        <v>3.488667790531623</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.820239368950531</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H44" t="n">
-        <v>18.64152643726463</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I44" t="n">
-        <v>70.1747782714654</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J44" t="n">
-        <v>154.4905411404652</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K44" t="n">
-        <v>231.5412736281413</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L44" t="n">
-        <v>287.2474242156611</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M44" t="n">
-        <v>319.6181060932351</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N44" t="n">
-        <v>324.7898612002658</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O44" t="n">
-        <v>306.689855975264</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P44" t="n">
-        <v>261.7526965542977</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q44" t="n">
-        <v>196.5653741537567</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R44" t="n">
-        <v>114.3406112598389</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S44" t="n">
-        <v>41.47870461996026</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T44" t="n">
-        <v>7.968097837580952</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9739139227361266</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H45" t="n">
-        <v>9.405958148530488</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I45" t="n">
-        <v>33.53168549771314</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J45" t="n">
-        <v>92.01350793710047</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K45" t="n">
-        <v>157.265740760421</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L45" t="n">
-        <v>211.4631962502279</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M45" t="n">
         <v>230.9678051232798</v>
@@ -34462,25 +34462,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>231.7188972222222</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P45" t="n">
-        <v>185.9748437196732</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q45" t="n">
-        <v>124.319257926808</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R45" t="n">
-        <v>60.46809425549392</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S45" t="n">
-        <v>18.09002395959427</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T45" t="n">
-        <v>3.925556556993421</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H46" t="n">
-        <v>7.259398083276448</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I46" t="n">
-        <v>24.55428308740131</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J46" t="n">
-        <v>57.72631788715838</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K46" t="n">
-        <v>94.86207311275349</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L46" t="n">
-        <v>121.3907937156472</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M46" t="n">
-        <v>127.9895717279506</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N46" t="n">
-        <v>124.9462657830189</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O46" t="n">
-        <v>115.4080995897568</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P46" t="n">
-        <v>98.7515665643249</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.37046599699318</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R46" t="n">
-        <v>36.71266147227534</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S46" t="n">
-        <v>14.22931096691302</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T46" t="n">
-        <v>3.488667790531623</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
